--- a/on_trucks/Processed_Stand_Alone/30_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/30_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>106</v>
       </c>
       <c r="E2">
-        <v>0.01768254998056554</v>
+        <v>0.003268045225154847</v>
       </c>
       <c r="F2">
         <v>0.5047055691360263</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>110</v>
       </c>
       <c r="E3">
-        <v>0.0109222369271457</v>
+        <v>0.01065009252508099</v>
       </c>
       <c r="F3">
         <v>0.5266476945280022</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>131</v>
       </c>
       <c r="E5">
-        <v>0.02038787663932128</v>
+        <v>0.01931794785930824</v>
       </c>
       <c r="F5">
         <v>0.5006332801854935</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>110</v>
       </c>
       <c r="E6">
-        <v>0.009540086258440215</v>
+        <v>0.008470614573450774</v>
       </c>
       <c r="F6">
         <v>0.5400945907348478</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>119</v>
       </c>
       <c r="E2">
-        <v>0.01768254998056554</v>
+        <v>0.003268045225154847</v>
       </c>
       <c r="F2">
         <v>0.7019971517527316</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>143</v>
       </c>
       <c r="E3">
-        <v>0.0109222369271457</v>
+        <v>0.01065009252508099</v>
       </c>
       <c r="F3">
         <v>0.7029485236667503</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.02038787663932128</v>
+        <v>0.01931794785930824</v>
       </c>
       <c r="F5">
         <v>0.7157722675192579</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>135</v>
       </c>
       <c r="E6">
-        <v>0.009540086258440215</v>
+        <v>0.008470614573450774</v>
       </c>
       <c r="F6">
         <v>0.70029687372033</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>146</v>
       </c>
       <c r="E2">
-        <v>0.01768254998056554</v>
+        <v>0.003268045225154847</v>
       </c>
       <c r="F2">
         <v>0.8007369173669936</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.0109222369271457</v>
+        <v>0.01065009252508099</v>
       </c>
       <c r="F3">
         <v>0.8203611817288382</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>156</v>
       </c>
       <c r="E5">
-        <v>0.02038787663932128</v>
+        <v>0.01931794785930824</v>
       </c>
       <c r="F5">
         <v>0.8262738325310173</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>152</v>
       </c>
       <c r="E6">
-        <v>0.009540086258440215</v>
+        <v>0.008470614573450774</v>
       </c>
       <c r="F6">
         <v>0.8031688528864713</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>165</v>
       </c>
       <c r="E2">
-        <v>0.01768254998056554</v>
+        <v>0.003268045225154847</v>
       </c>
       <c r="F2">
         <v>0.9034916932591356</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>164</v>
       </c>
       <c r="E3">
-        <v>0.0109222369271457</v>
+        <v>0.01065009252508099</v>
       </c>
       <c r="F3">
         <v>0.9017560928646238</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>162</v>
       </c>
       <c r="E5">
-        <v>0.02038787663932128</v>
+        <v>0.01931794785930824</v>
       </c>
       <c r="F5">
         <v>0.902693523103448</v>
       </c>
       <c r="G5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>166</v>
       </c>
       <c r="E6">
-        <v>0.009540086258440215</v>
+        <v>0.008470614573450774</v>
       </c>
       <c r="F6">
         <v>0.9036591875531902</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>30</v>

--- a/on_trucks/Processed_Stand_Alone/30_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/30_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.719832982306476E-05</v>
+        <v>5.132812022675389E-05</v>
       </c>
       <c r="C2">
-        <v>1.093607396617074E-05</v>
+        <v>5.015289786288019E-06</v>
       </c>
       <c r="D2">
-        <v>2.838021991220966E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.412925983255851E-08</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.92626098166792E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.753240991483224E-05</v>
+        <v>2.162976909531695E-05</v>
       </c>
       <c r="H2">
-        <v>9.333757971127291E-05</v>
+        <v>8.750687807841609E-05</v>
       </c>
       <c r="I2">
-        <v>0.0001627745494964791</v>
+        <v>0.0001570197573878409</v>
       </c>
       <c r="J2">
-        <v>0.0001742602494609496</v>
+        <v>0.0001685180136896966</v>
       </c>
       <c r="K2">
-        <v>0.0002523997692192357</v>
+        <v>0.0002467429567287778</v>
       </c>
       <c r="L2">
-        <v>0.0002365884592681458</v>
+        <v>0.0002309143616193728</v>
       </c>
       <c r="M2">
-        <v>0.0001304259295965452</v>
+        <v>0.000124635773497322</v>
       </c>
       <c r="N2">
-        <v>0.0001085686796641576</v>
+        <v>0.0001027546288954489</v>
       </c>
       <c r="O2">
-        <v>6.598448979588598E-05</v>
+        <v>6.012388535984217E-05</v>
       </c>
       <c r="P2">
-        <v>2.955832490856535E-05</v>
+        <v>2.365789884933925E-05</v>
       </c>
       <c r="Q2">
-        <v>2.687308691687177E-05</v>
+        <v>2.09697253156859E-05</v>
       </c>
       <c r="R2">
-        <v>1.866315494226807E-05</v>
+        <v>1.275081812180079E-05</v>
       </c>
       <c r="S2">
-        <v>1.906967294101057E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1.857814994253102E-07</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>3.054981990549829E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>2.347429092738548E-05</v>
+        <v>1.756721371206385E-05</v>
       </c>
       <c r="W2">
-        <v>5.010325984501239E-05</v>
+        <v>4.422529381307367E-05</v>
       </c>
       <c r="X2">
-        <v>5.672129182454041E-05</v>
+        <v>5.085056072322128E-05</v>
       </c>
       <c r="Y2">
-        <v>9.971857969153415E-05</v>
+        <v>9.389485386240321E-05</v>
       </c>
       <c r="Z2">
-        <v>0.0001050478296750489</v>
+        <v>9.922992986096352E-05</v>
       </c>
       <c r="AA2">
-        <v>7.699076976183955E-05</v>
+        <v>7.114219755413488E-05</v>
       </c>
       <c r="AB2">
-        <v>5.577320582747318E-05</v>
+        <v>4.990143826449424E-05</v>
       </c>
       <c r="AC2">
-        <v>5.236526283801519E-05</v>
+        <v>4.648976966126459E-05</v>
       </c>
       <c r="AD2">
-        <v>3.442033589352537E-05</v>
+        <v>2.852522505674858E-05</v>
       </c>
       <c r="AE2">
-        <v>2.598815791960918E-05</v>
+        <v>2.008382890093149E-05</v>
       </c>
       <c r="AF2">
-        <v>7.325145377340661E-06</v>
+        <v>1.400413676821399E-06</v>
       </c>
       <c r="AG2">
-        <v>1.687241494780748E-05</v>
+        <v>1.095812046384481E-05</v>
       </c>
       <c r="AH2">
-        <v>1.390065495700022E-05</v>
+        <v>7.983111700982944E-06</v>
       </c>
       <c r="AI2">
-        <v>9.915912969326474E-06</v>
+        <v>3.994013534326244E-06</v>
       </c>
       <c r="AJ2">
-        <v>1.676667994813456E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>4.487418686118782E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.026188796825625E-05</v>
+        <v>4.340366758251169E-06</v>
       </c>
       <c r="AM2">
-        <v>1.573806895131643E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.419211995609861E-06</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.423015195598096E-05</v>
+        <v>8.312968910965141E-06</v>
       </c>
       <c r="AP2">
-        <v>3.130151990317301E-05</v>
+        <v>2.540299953054398E-05</v>
       </c>
       <c r="AQ2">
-        <v>1.375727195744375E-05</v>
+        <v>7.839571953006855E-06</v>
       </c>
       <c r="AR2">
-        <v>2.687308691687177E-05</v>
+        <v>2.09697253156859E-05</v>
       </c>
       <c r="AS2">
-        <v>4.690051685491964E-05</v>
+        <v>4.101904953688902E-05</v>
       </c>
       <c r="AT2">
-        <v>6.857666378786743E-05</v>
+        <v>6.271889315483998E-05</v>
       </c>
       <c r="AU2">
-        <v>5.454797983126326E-05</v>
+        <v>4.867487283307105E-05</v>
       </c>
       <c r="AV2">
-        <v>3.273202989874792E-05</v>
+        <v>2.683507338084196E-05</v>
       </c>
       <c r="AW2">
-        <v>1.758688394559737E-05</v>
+        <v>1.167337052972939E-05</v>
       </c>
       <c r="AX2">
-        <v>1.949133393970621E-05</v>
+        <v>1.357990249679008E-05</v>
       </c>
       <c r="AY2">
-        <v>4.462027986197325E-05</v>
+        <v>3.87363197550756E-05</v>
       </c>
       <c r="AZ2">
-        <v>3.024961190642694E-05</v>
+        <v>2.434994157238972E-05</v>
       </c>
       <c r="BA2">
-        <v>2.32878519279622E-05</v>
+        <v>1.738057089476394E-05</v>
       </c>
       <c r="BB2">
-        <v>4.254309286839874E-07</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>2.494178492284599E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>8.205473974617484E-06</v>
+        <v>2.281704662364618E-06</v>
       </c>
       <c r="BE2">
-        <v>3.01141749068459E-05</v>
+        <v>2.421435651107396E-05</v>
       </c>
       <c r="BF2">
-        <v>1.79269229445455E-05</v>
+        <v>1.201378126434954E-05</v>
       </c>
       <c r="BG2">
-        <v>3.40505028946694E-05</v>
+        <v>2.815498775097843E-05</v>
       </c>
       <c r="BH2">
-        <v>1.661377994860753E-05</v>
+        <v>1.069920272103153E-05</v>
       </c>
       <c r="BI2">
-        <v>4.797433985159791E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>3.279932289853976E-06</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>7.497216276808383E-06</v>
+        <v>1.572672686745998E-06</v>
       </c>
       <c r="BL2">
-        <v>4.797433985159791E-06</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>1.114609996552106E-05</v>
+        <v>5.225545389172783E-06</v>
       </c>
       <c r="BN2">
-        <v>2.896907391038811E-05</v>
+        <v>2.306800367323986E-05</v>
       </c>
       <c r="BO2">
-        <v>1.9290005940329E-05</v>
+        <v>1.337835440266086E-05</v>
       </c>
       <c r="BP2">
-        <v>3.40505028946694E-05</v>
+        <v>2.815498775097843E-05</v>
       </c>
       <c r="BQ2">
-        <v>1.031798546808272E-05</v>
+        <v>4.396525584695648E-06</v>
       </c>
       <c r="BR2">
-        <v>9.135741971739826E-06</v>
+        <v>3.21298964224522E-06</v>
       </c>
       <c r="BS2">
-        <v>2.3953536925903E-06</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>6.228376980733364E-07</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1.495510595373842E-06</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>3.175274990177719E-08</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>1.085829496641134E-06</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>2.680924091706927E-09</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>1.3449111958397E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>6.396867280212163E-06</v>
+        <v>4.711207723227981E-07</v>
       </c>
       <c r="CA2">
-        <v>1.129926196504727E-05</v>
+        <v>5.378874827666284E-06</v>
       </c>
       <c r="CB2">
-        <v>3.695871988567323E-05</v>
+        <v>3.106638404788796E-05</v>
       </c>
       <c r="CC2">
-        <v>3.969749987720119E-05</v>
+        <v>3.380815811428323E-05</v>
       </c>
       <c r="CD2">
-        <v>4.690051685491964E-05</v>
+        <v>4.101904953688902E-05</v>
       </c>
       <c r="CE2">
-        <v>6.194087480839434E-05</v>
+        <v>5.607584983253185E-05</v>
       </c>
       <c r="CF2">
-        <v>8.362994974130213E-05</v>
+        <v>7.778863558352392E-05</v>
       </c>
       <c r="CG2">
-        <v>8.4208979739511E-05</v>
+        <v>7.836829858590633E-05</v>
       </c>
       <c r="CH2">
-        <v>5.501580982981608E-05</v>
+        <v>4.914321427031014E-05</v>
       </c>
       <c r="CI2">
-        <v>4.820811985087475E-05</v>
+        <v>4.23280820238141E-05</v>
       </c>
       <c r="CJ2">
-        <v>6.24393398068524E-05</v>
+        <v>5.6574859760312E-05</v>
       </c>
       <c r="CK2">
-        <v>5.223879983840639E-05</v>
+        <v>4.63631684104308E-05</v>
       </c>
       <c r="CL2">
-        <v>0.01436226595557229</v>
+        <v>0.01437203425786302</v>
       </c>
       <c r="CM2">
-        <v>0.0266283899176287</v>
+        <v>0.02665156772838225</v>
       </c>
       <c r="CN2">
-        <v>0.04906220684823275</v>
+        <v>0.04910990964005731</v>
       </c>
       <c r="CO2">
-        <v>0.06574691979662085</v>
+        <v>0.06581286256385843</v>
       </c>
       <c r="CP2">
-        <v>0.0003656210988690009</v>
+        <v>0.0003600880616137197</v>
       </c>
       <c r="CQ2">
-        <v>2.369632792669863E-05</v>
+        <v>1.778949344551459E-05</v>
       </c>
       <c r="CR2">
-        <v>0.0001109592336567627</v>
+        <v>0.0001051477962770996</v>
       </c>
       <c r="CS2">
-        <v>0.01028767296817649</v>
+        <v>0.01029298686504004</v>
       </c>
       <c r="CT2">
-        <v>0.0004219574986947319</v>
+        <v>0.0004164860492264781</v>
       </c>
       <c r="CU2">
-        <v>0.0383399798814005</v>
+        <v>0.03837596097583339</v>
       </c>
       <c r="CV2">
-        <v>0.01959280993939231</v>
+        <v>0.01960829634986727</v>
       </c>
       <c r="CW2">
-        <v>0.09528715970524215</v>
+        <v>0.09538539630044637</v>
       </c>
       <c r="CX2">
-        <v>0.001709612994711545</v>
+        <v>0.001705549229310763</v>
       </c>
       <c r="CY2">
-        <v>0.001061060496717754</v>
+        <v>0.001056287724116545</v>
       </c>
       <c r="CZ2">
-        <v>0.02718480491590751</v>
+        <v>0.02720859100778159</v>
       </c>
       <c r="DA2">
-        <v>0.0370960898852483</v>
+        <v>0.03713071114070664</v>
       </c>
       <c r="DB2">
-        <v>0.1011689746870476</v>
+        <v>0.1012736413695409</v>
       </c>
       <c r="DC2">
-        <v>0.01293510295998702</v>
+        <v>0.01294331106654467</v>
       </c>
       <c r="DD2">
-        <v>0.03901193687932188</v>
+        <v>0.03904865256710131</v>
       </c>
       <c r="DE2">
-        <v>0.03551446289014085</v>
+        <v>0.03554735508753313</v>
       </c>
       <c r="DF2">
-        <v>0.02601254691953373</v>
+        <v>0.0260350514815968</v>
       </c>
       <c r="DG2">
-        <v>0.02704949291632608</v>
+        <v>0.0270731310831173</v>
       </c>
       <c r="DH2">
-        <v>0.002037774793696421</v>
+        <v>0.002034069779636672</v>
       </c>
       <c r="DI2">
-        <v>0.04128647587228591</v>
+        <v>0.04132567811979435</v>
       </c>
       <c r="DJ2">
-        <v>0.007364055577220297</v>
+        <v>0.007366173332232744</v>
       </c>
       <c r="DK2">
-        <v>2.887502691067904E-05</v>
+        <v>2.29738538599572E-05</v>
       </c>
       <c r="DL2">
-        <v>0.004803615985140668</v>
+        <v>0.00480293462965295</v>
       </c>
       <c r="DM2">
-        <v>0.006505051979877508</v>
+        <v>0.00650623065942946</v>
       </c>
       <c r="DN2">
-        <v>0.001038533296787439</v>
+        <v>0.00103373589711748</v>
       </c>
       <c r="DO2">
-        <v>0.001594172095068646</v>
+        <v>0.001589982127965884</v>
       </c>
       <c r="DP2">
-        <v>0.005044588384395253</v>
+        <v>0.005044170463504896</v>
       </c>
       <c r="DQ2">
-        <v>0.004277131486769276</v>
+        <v>0.004275874570627004</v>
       </c>
       <c r="DR2">
-        <v>0.0009090805471878832</v>
+        <v>0.0009041416278539575</v>
       </c>
       <c r="DS2">
-        <v>5.181869683970592E-06</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.001799777694432633</v>
+        <v>0.001795812498417559</v>
       </c>
       <c r="DU2">
-        <v>0.008126227974862619</v>
+        <v>0.008129178948033297</v>
       </c>
       <c r="DV2">
-        <v>0.002092348193527606</v>
+        <v>0.002088702839917168</v>
       </c>
       <c r="DW2">
-        <v>0.0008638120473279151</v>
+        <v>0.000858823639799198</v>
       </c>
       <c r="DX2">
-        <v>0.001324683295902273</v>
+        <v>0.001320198719651239</v>
       </c>
       <c r="DY2">
-        <v>0.01086140096640173</v>
+        <v>0.0108673420712139</v>
       </c>
       <c r="DZ2">
-        <v>0.006131342981033526</v>
+        <v>0.006132113116370685</v>
       </c>
       <c r="EA2">
-        <v>6.144441380993008E-05</v>
+        <v>5.5578846095548E-05</v>
       </c>
       <c r="EB2">
-        <v>0.0004390052986419969</v>
+        <v>0.0004335524860812431</v>
       </c>
       <c r="EC2">
-        <v>0.004292067586723074</v>
+        <v>0.004290826998946579</v>
       </c>
       <c r="ED2">
-        <v>0.007950232975407036</v>
+        <v>0.007952991548236586</v>
       </c>
       <c r="EE2">
-        <v>0.003686993988594786</v>
+        <v>0.003685091925395426</v>
       </c>
       <c r="EF2">
-        <v>0.0003176833290172899</v>
+        <v>0.0003120978854817115</v>
       </c>
       <c r="EG2">
-        <v>0.0001804328194418557</v>
+        <v>0.0001746973316155648</v>
       </c>
       <c r="EH2">
-        <v>0.002276279992958638</v>
+        <v>0.00227283571631666</v>
       </c>
       <c r="EI2">
-        <v>0.0008398305474020987</v>
+        <v>0.0008348159229423281</v>
       </c>
       <c r="EJ2">
-        <v>0.003646385188720404</v>
+        <v>0.003644438731379319</v>
       </c>
       <c r="EK2">
-        <v>0.01183337696339506</v>
+        <v>0.01184038064676893</v>
       </c>
       <c r="EL2">
-        <v>0.002564489392067101</v>
+        <v>0.002561360190210635</v>
       </c>
       <c r="EM2">
-        <v>4.572906585854337E-05</v>
+        <v>3.984631789292609E-05</v>
       </c>
       <c r="EN2">
-        <v>0.0005871175681838318</v>
+        <v>0.0005818266741507247</v>
       </c>
       <c r="EO2">
-        <v>0.006823223978893287</v>
+        <v>0.006824750488788926</v>
       </c>
       <c r="EP2">
-        <v>0.008317267474271665</v>
+        <v>0.008320427294653734</v>
       </c>
       <c r="EQ2">
-        <v>0.008487217973745947</v>
+        <v>0.008490563586532203</v>
       </c>
       <c r="ER2">
-        <v>0.006665768579380353</v>
+        <v>0.006667122956700224</v>
       </c>
       <c r="ES2">
-        <v>4.797433985159791E-06</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.005640065782553225</v>
+        <v>0.005640298846377738</v>
       </c>
       <c r="EU2">
-        <v>0.006625971779503459</v>
+        <v>0.006627282650372034</v>
       </c>
       <c r="EV2">
-        <v>0.01296826445988444</v>
+        <v>0.01297650881908513</v>
       </c>
       <c r="EW2">
-        <v>0.01379686595732127</v>
+        <v>0.01380601615595637</v>
       </c>
       <c r="EX2">
-        <v>0.007888359975598433</v>
+        <v>0.007891050907947818</v>
       </c>
       <c r="EY2">
-        <v>0.0008361710374134187</v>
+        <v>0.0008311524123231055</v>
       </c>
       <c r="EZ2">
-        <v>2.226529993112533E-05</v>
+        <v>1.635690102893294E-05</v>
       </c>
       <c r="FA2">
-        <v>7.588553976525843E-05</v>
+        <v>7.003575930374528E-05</v>
       </c>
       <c r="FB2">
-        <v>0.0003098460990415333</v>
+        <v>0.0003042520877300209</v>
       </c>
       <c r="FC2">
-        <v>0.002675563791723508</v>
+        <v>0.002672556018046539</v>
       </c>
       <c r="FD2">
-        <v>0.01199435596289709</v>
+        <v>0.01200153563089845</v>
       </c>
       <c r="FE2">
-        <v>0.005629264282586637</v>
+        <v>0.005629485538051341</v>
       </c>
       <c r="FF2">
-        <v>1.200617596286053E-05</v>
+        <v>6.086561634336315E-06</v>
       </c>
       <c r="FG2">
-        <v>0.0001907651194098941</v>
+        <v>0.0001850409270070223</v>
       </c>
       <c r="FH2">
-        <v>0.003869809688029271</v>
+        <v>0.003868107481661317</v>
       </c>
       <c r="FI2">
-        <v>0.01161891496405847</v>
+        <v>0.01162568419439697</v>
       </c>
       <c r="FJ2">
-        <v>0.01192983396309668</v>
+        <v>0.01193694309469183</v>
       </c>
       <c r="FK2">
-        <v>0.000636086858032352</v>
+        <v>0.0006308494979524867</v>
       </c>
       <c r="FL2">
-        <v>0.002799941691338762</v>
+        <v>0.002797069889424563</v>
       </c>
       <c r="FM2">
-        <v>0.006016402481389078</v>
+        <v>0.00601704696206895</v>
       </c>
       <c r="FN2">
-        <v>0.008519916973644797</v>
+        <v>0.008523298333462244</v>
       </c>
       <c r="FO2">
-        <v>0.015251358952822</v>
+        <v>0.01526209922475104</v>
       </c>
       <c r="FP2">
-        <v>0.006006601281419397</v>
+        <v>0.006007235047282237</v>
       </c>
       <c r="FQ2">
-        <v>0.0008434980373907537</v>
+        <v>0.0008384874222853801</v>
       </c>
       <c r="FR2">
-        <v>0.0001349961695824077</v>
+        <v>0.0001292110097372545</v>
       </c>
       <c r="FS2">
-        <v>0.001554738095190629</v>
+        <v>0.001550505018254906</v>
       </c>
       <c r="FT2">
-        <v>0.002387167392615623</v>
+        <v>0.002383844339721972</v>
       </c>
       <c r="FU2">
-        <v>0.0003210720990068072</v>
+        <v>0.0003154903601247929</v>
       </c>
       <c r="FV2">
-        <v>0.0004614322685726222</v>
+        <v>0.0004560039735076976</v>
       </c>
       <c r="FW2">
-        <v>0.001729857394648922</v>
+        <v>0.001725815760726113</v>
       </c>
       <c r="FX2">
-        <v>0.0048783784849094</v>
+        <v>0.004877778860894188</v>
       </c>
       <c r="FY2">
-        <v>0.003743718988419315</v>
+        <v>0.003741878937830258</v>
       </c>
       <c r="FZ2">
-        <v>0.000128030839603954</v>
+        <v>0.0001222380651568629</v>
       </c>
       <c r="GA2">
-        <v>0.000218735339323372</v>
+        <v>0.0002130417243793452</v>
       </c>
       <c r="GB2">
-        <v>1.129926196504727E-05</v>
+        <v>5.378874827666284E-06</v>
       </c>
       <c r="GC2">
-        <v>0.001105438696580476</v>
+        <v>0.00110071443888491</v>
       </c>
       <c r="GD2">
-        <v>0.005778838982123949</v>
+        <v>0.005779223754866438</v>
       </c>
       <c r="GE2">
-        <v>0.008016441975202229</v>
+        <v>0.008019272928691376</v>
       </c>
       <c r="GF2">
-        <v>0.001300387195977429</v>
+        <v>0.001295876058869961</v>
       </c>
       <c r="GG2">
-        <v>9.047550972012633E-05</v>
+        <v>8.464167922994782E-05</v>
       </c>
       <c r="GH2">
-        <v>0.0006771128979054435</v>
+        <v>0.0006719203881002514</v>
       </c>
       <c r="GI2">
-        <v>5.297689983612317E-05</v>
+        <v>4.710207531000154E-05</v>
       </c>
       <c r="GJ2">
-        <v>0.002440997192449108</v>
+        <v>0.002437732987090232</v>
       </c>
       <c r="GK2">
-        <v>4.797433985159791E-06</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.002323942992811199</v>
+        <v>0.002320550822066884</v>
       </c>
       <c r="GM2">
-        <v>3.30946528976262E-05</v>
+        <v>2.719809280455561E-05</v>
       </c>
       <c r="GN2">
-        <v>0.005397474983303646</v>
+        <v>0.005397442843271945</v>
       </c>
       <c r="GO2">
-        <v>0.008519916973644797</v>
+        <v>0.008523298333462244</v>
       </c>
       <c r="GP2">
-        <v>0.003297434189799837</v>
+        <v>0.003295106254056315</v>
       </c>
       <c r="GQ2">
-        <v>0.001345468795837975</v>
+        <v>0.001341006942603451</v>
       </c>
       <c r="GR2">
-        <v>0.0004800964385148871</v>
+        <v>0.0004746885473970909</v>
       </c>
       <c r="GS2">
-        <v>1.783203994483901E-07</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.70869995558347E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.147770092550745E-07</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.574483064428841E-07</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.279304349785729E-05</v>
+        <v>9.828924993558035E-06</v>
       </c>
       <c r="F3">
-        <v>6.98831353944526E-05</v>
+        <v>5.703131197974696E-05</v>
       </c>
       <c r="G3">
-        <v>8.012299971960909E-05</v>
+        <v>6.729559516746045E-05</v>
       </c>
       <c r="H3">
-        <v>0.0003603559462512603</v>
+        <v>0.0003481968093233702</v>
       </c>
       <c r="I3">
-        <v>0.0001517640699982075</v>
+        <v>0.0001391075069135842</v>
       </c>
       <c r="J3">
-        <v>6.641379562309444E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001771339183262442</v>
+        <v>0.0001645378543673654</v>
       </c>
       <c r="L3">
-        <v>0.0001959237170879296</v>
+        <v>0.0001833724609017777</v>
       </c>
       <c r="M3">
-        <v>2.187830555814178E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.064737229830026E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.713160821193043E-05</v>
+        <v>1.417783582278305E-05</v>
       </c>
       <c r="P3">
-        <v>4.465177405728913E-05</v>
+        <v>3.173978176484701E-05</v>
       </c>
       <c r="Q3">
-        <v>1.298750164407741E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.064737229830026E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.977104469701777E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2.314596747459835E-05</v>
+        <v>1.018269058321577E-05</v>
       </c>
       <c r="U3">
-        <v>6.224273589798212E-05</v>
+        <v>4.937269252847429E-05</v>
       </c>
       <c r="V3">
-        <v>9.526889372144076E-05</v>
+        <v>8.247760737283366E-05</v>
       </c>
       <c r="W3">
-        <v>6.513277570751821E-05</v>
+        <v>5.226962417589537E-05</v>
       </c>
       <c r="X3">
-        <v>7.948673476154122E-05</v>
+        <v>6.665781291716413E-05</v>
       </c>
       <c r="Y3">
-        <v>6.83251024971325E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0001327818912492007</v>
+        <v>0.0001200800616259607</v>
       </c>
       <c r="AA3">
-        <v>0.0001902372874626855</v>
+        <v>0.0001776724709266061</v>
       </c>
       <c r="AB3">
-        <v>2.011593867428803E-05</v>
+        <v>7.145436115214061E-06</v>
       </c>
       <c r="AC3">
-        <v>7.378100513756911E-05</v>
+        <v>6.093847691882504E-05</v>
       </c>
       <c r="AD3">
-        <v>0.0005885061612153489</v>
+        <v>0.000576891090943486</v>
       </c>
       <c r="AE3">
-        <v>0.0001742696185150118</v>
+        <v>0.0001616667241000652</v>
       </c>
       <c r="AF3">
-        <v>5.918641909940428E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>6.096168898240768E-06</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.012601869651692E-05</v>
+        <v>3.722708075940648E-05</v>
       </c>
       <c r="AI3">
-        <v>0.0001308277013779888</v>
+        <v>0.0001181212116252431</v>
       </c>
       <c r="AJ3">
-        <v>0.0001259040317024761</v>
+        <v>0.0001131858005428851</v>
       </c>
       <c r="AK3">
-        <v>8.339755950380393E-05</v>
+        <v>7.057796374899536E-05</v>
       </c>
       <c r="AL3">
-        <v>0.0002393230242277607</v>
+        <v>0.0002268752617679381</v>
       </c>
       <c r="AM3">
-        <v>0.0001673124689735127</v>
+        <v>0.0001546929839404634</v>
       </c>
       <c r="AN3">
-        <v>0.0001508730500569289</v>
+        <v>0.0001382143621693989</v>
       </c>
       <c r="AO3">
-        <v>0.0002000001168192803</v>
+        <v>0.0001874585815670789</v>
       </c>
       <c r="AP3">
-        <v>4.209986722546888E-05</v>
+        <v>2.918178943616803E-05</v>
       </c>
       <c r="AQ3">
-        <v>9.070230402239526E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0001106812487057117</v>
+        <v>9.792671598645846E-05</v>
       </c>
       <c r="AS3">
-        <v>0.0001599011294619463</v>
+        <v>0.0001472639707102667</v>
       </c>
       <c r="AT3">
-        <v>2.519130333980343E-06</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1.652188191114916E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0002278841949816203</v>
+        <v>0.0002154091545042083</v>
       </c>
       <c r="AW3">
-        <v>5.37800264557048E-05</v>
+        <v>4.088980218026219E-05</v>
       </c>
       <c r="AX3">
-        <v>4.416908008910038E-05</v>
+        <v>3.125593672304127E-05</v>
       </c>
       <c r="AY3">
-        <v>3.364386178274974E-05</v>
+        <v>2.070561907444896E-05</v>
       </c>
       <c r="AZ3">
-        <v>5.484763638534551E-05</v>
+        <v>4.195995802450767E-05</v>
       </c>
       <c r="BA3">
-        <v>2.802547215302162E-05</v>
+        <v>1.507383134882781E-05</v>
       </c>
       <c r="BB3">
-        <v>1.979238469561139E-05</v>
+        <v>6.821110561848126E-06</v>
       </c>
       <c r="BC3">
-        <v>0.0001308415313770773</v>
+        <v>0.0001181350746045388</v>
       </c>
       <c r="BD3">
-        <v>0.0003562656065208283</v>
+        <v>0.000344096715416465</v>
       </c>
       <c r="BE3">
-        <v>9.74016595808839E-05</v>
+        <v>8.461545920946695E-05</v>
       </c>
       <c r="BF3">
-        <v>5.886125612083368E-05</v>
+        <v>4.598314898336022E-05</v>
       </c>
       <c r="BG3">
-        <v>0.0004066962731972678</v>
+        <v>0.0003946476434048835</v>
       </c>
       <c r="BH3">
-        <v>0.0003373824077652983</v>
+        <v>0.0003251684861585371</v>
       </c>
       <c r="BI3">
-        <v>5.185868958232774E-05</v>
+        <v>3.896388352146816E-05</v>
       </c>
       <c r="BJ3">
-        <v>3.19911428916698E-05</v>
+        <v>1.904895896753206E-05</v>
       </c>
       <c r="BK3">
-        <v>0.000183962687876204</v>
+        <v>0.0001713829083894411</v>
       </c>
       <c r="BL3">
-        <v>3.70869995558347E-06</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1.066150429736891E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>3.709621255522753E-05</v>
+        <v>2.416620261997284E-05</v>
       </c>
       <c r="BO3">
-        <v>4.416908008910038E-05</v>
+        <v>3.125593672304127E-05</v>
       </c>
       <c r="BP3">
-        <v>1.87275937657849E-05</v>
+        <v>5.75378043984665E-06</v>
       </c>
       <c r="BQ3">
-        <v>0.0001002699533918531</v>
+        <v>8.749059300093974E-05</v>
       </c>
       <c r="BR3">
-        <v>4.910561976376485E-05</v>
+        <v>3.620424849545968E-05</v>
       </c>
       <c r="BS3">
-        <v>0.0001226740319153446</v>
+        <v>0.000109948098220021</v>
       </c>
       <c r="BT3">
-        <v>0.0005213932656383276</v>
+        <v>0.0005096181521744009</v>
       </c>
       <c r="BU3">
-        <v>0.0007793245086397405</v>
+        <v>0.0007681644802367102</v>
       </c>
       <c r="BV3">
-        <v>0.0006265588587075408</v>
+        <v>0.0006150345321760712</v>
       </c>
       <c r="BW3">
-        <v>0.0002928161507023733</v>
+        <v>0.0002804959525599722</v>
       </c>
       <c r="BX3">
-        <v>0.0001635858092191128</v>
+        <v>0.0001509574372721895</v>
       </c>
       <c r="BY3">
-        <v>0.0002965463304565411</v>
+        <v>0.0002842350276221088</v>
       </c>
       <c r="BZ3">
-        <v>0.0003070317797655127</v>
+        <v>0.000294745481436745</v>
       </c>
       <c r="CA3">
-        <v>7.60749389863907E-06</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>1.432545905590125E-05</v>
+        <v>1.341148020323039E-06</v>
       </c>
       <c r="CC3">
-        <v>8.501359439730149E-06</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>7.378100513756911E-05</v>
+        <v>6.093847691882504E-05</v>
       </c>
       <c r="CE3">
-        <v>0.0002075999663184232</v>
+        <v>0.0001950765543220073</v>
       </c>
       <c r="CF3">
-        <v>0.0001032044171984615</v>
+        <v>9.043205458272331E-05</v>
       </c>
       <c r="CG3">
-        <v>5.918641909940428E-06</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>3.768676251630818E-05</v>
+        <v>2.475816085736212E-05</v>
       </c>
       <c r="CI3">
-        <v>0.0002545159532264926</v>
+        <v>0.0002421044211339168</v>
       </c>
       <c r="CJ3">
-        <v>0.000288309630999369</v>
+        <v>0.0002759786862218814</v>
       </c>
       <c r="CK3">
-        <v>0.0002721444020647151</v>
+        <v>0.0002597749082897971</v>
       </c>
       <c r="CL3">
-        <v>0.03830564747552146</v>
+        <v>0.03838397594947553</v>
       </c>
       <c r="CM3">
-        <v>0.004176724424738992</v>
+        <v>0.004173666128836324</v>
       </c>
       <c r="CN3">
-        <v>0.07546367002667549</v>
+        <v>0.07563060872208902</v>
       </c>
       <c r="CO3">
-        <v>0.02147316458484201</v>
+        <v>0.02151135287010326</v>
       </c>
       <c r="CP3">
-        <v>9.786685355022594E-05</v>
+        <v>8.508176252042124E-05</v>
       </c>
       <c r="CQ3">
-        <v>0.002118310260395813</v>
+        <v>0.002110343292759965</v>
       </c>
       <c r="CR3">
-        <v>0.01110823326792788</v>
+        <v>0.01112170444511</v>
       </c>
       <c r="CS3">
-        <v>0.01067972129616835</v>
+        <v>0.01069217060678953</v>
       </c>
       <c r="CT3">
-        <v>1.13828282498311E-05</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.01124863125867515</v>
+        <v>0.01126243724100024</v>
       </c>
       <c r="CV3">
-        <v>0.01824340879769442</v>
+        <v>0.01827389512908648</v>
       </c>
       <c r="CW3">
-        <v>0.08348568449799619</v>
+        <v>0.0836717531801542</v>
       </c>
       <c r="CX3">
-        <v>0.002493589935663546</v>
+        <v>0.002486517892268861</v>
       </c>
       <c r="CY3">
-        <v>0.003752722752682211</v>
+        <v>0.003748653345867803</v>
       </c>
       <c r="CZ3">
-        <v>0.01167759423040497</v>
+        <v>0.01169242315478437</v>
       </c>
       <c r="DA3">
-        <v>0.02460849637821248</v>
+        <v>0.02465416144575344</v>
       </c>
       <c r="DB3">
-        <v>0.05334685348425244</v>
+        <v>0.05346105051374162</v>
       </c>
       <c r="DC3">
-        <v>0.01502427700984666</v>
+        <v>0.01504708672227345</v>
       </c>
       <c r="DD3">
-        <v>0.01657149490787949</v>
+        <v>0.01659799424938711</v>
       </c>
       <c r="DE3">
-        <v>0.05875855312760218</v>
+        <v>0.05888565536223808</v>
       </c>
       <c r="DF3">
-        <v>0.001464038603514644</v>
+        <v>0.001454511403325218</v>
       </c>
       <c r="DG3">
-        <v>0.05161539159836195</v>
+        <v>0.05172545963468562</v>
       </c>
       <c r="DH3">
-        <v>0.003632492160605835</v>
+        <v>0.003628136041564602</v>
       </c>
       <c r="DI3">
-        <v>0.05235331954972987</v>
+        <v>0.05246514731261331</v>
       </c>
       <c r="DJ3">
-        <v>0.004800827383608385</v>
+        <v>0.004799257377383209</v>
       </c>
       <c r="DK3">
-        <v>0.005536247635141571</v>
+        <v>0.005536431375399121</v>
       </c>
       <c r="DL3">
-        <v>0.0005464972639838847</v>
+        <v>0.0005347820156769333</v>
       </c>
       <c r="DM3">
-        <v>0.0002055179364556363</v>
+        <v>0.0001929895594714584</v>
       </c>
       <c r="DN3">
-        <v>0.006625260263371763</v>
+        <v>0.006628040956952831</v>
       </c>
       <c r="DO3">
-        <v>0.002593434029083465</v>
+        <v>0.002586600082514766</v>
       </c>
       <c r="DP3">
-        <v>4.400074710019412E-05</v>
+        <v>3.108720231278904E-05</v>
       </c>
       <c r="DQ3">
-        <v>0.005051523667086607</v>
+        <v>0.005050551492814611</v>
       </c>
       <c r="DR3">
-        <v>1.384684008744394E-06</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>2.997551802450665E-05</v>
+        <v>1.702852746767976E-05</v>
       </c>
       <c r="DT3">
-        <v>0.001323425212781567</v>
+        <v>0.001313562693787814</v>
       </c>
       <c r="DU3">
-        <v>0.007442999509479836</v>
+        <v>0.007447730254509254</v>
       </c>
       <c r="DV3">
-        <v>0.001800052481370134</v>
+        <v>0.001791326568818908</v>
       </c>
       <c r="DW3">
-        <v>1.69984458797419E-05</v>
+        <v>4.020509078801518E-06</v>
       </c>
       <c r="DX3">
-        <v>0.0005247340654181571</v>
+        <v>0.0005129669187131701</v>
       </c>
       <c r="DY3">
-        <v>0.01269023016366866</v>
+        <v>0.01270747390692548</v>
       </c>
       <c r="DZ3">
-        <v>0.004856192179959648</v>
+        <v>0.004854754201397111</v>
       </c>
       <c r="EA3">
-        <v>0.0009119560398988505</v>
+        <v>0.0009011122960704688</v>
       </c>
       <c r="EB3">
-        <v>0.002464797837561048</v>
+        <v>0.002457657134049005</v>
       </c>
       <c r="EC3">
-        <v>0.002335873246057638</v>
+        <v>0.002328425097858812</v>
       </c>
       <c r="ED3">
-        <v>0.007457691508511581</v>
+        <v>0.007462457289347496</v>
       </c>
       <c r="EE3">
-        <v>0.001514350100198937</v>
+        <v>0.001504942877138462</v>
       </c>
       <c r="EF3">
-        <v>0.0002895408109182298</v>
+        <v>0.0002772128021184337</v>
       </c>
       <c r="EG3">
-        <v>0.001012274933287478</v>
+        <v>0.001001670418533989</v>
       </c>
       <c r="EH3">
-        <v>0.001724094886376009</v>
+        <v>0.001715187838800586</v>
       </c>
       <c r="EI3">
-        <v>1.414676406767789E-06</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.01590694895167544</v>
+        <v>0.01593186355965026</v>
       </c>
       <c r="EK3">
-        <v>0.01756500384240372</v>
+        <v>0.01759387239089992</v>
       </c>
       <c r="EL3">
-        <v>0.005003589370245648</v>
+        <v>0.005002502887720226</v>
       </c>
       <c r="EM3">
-        <v>0.002883942109937949</v>
+        <v>0.00287780093396394</v>
       </c>
       <c r="EN3">
-        <v>0.007154237928510252</v>
+        <v>0.007158280067799054</v>
       </c>
       <c r="EO3">
-        <v>0.01008201133555956</v>
+        <v>0.01009303529552046</v>
       </c>
       <c r="EP3">
-        <v>0.009515639372885491</v>
+        <v>0.009525312713475511</v>
       </c>
       <c r="EQ3">
-        <v>0.007871850481217029</v>
+        <v>0.007877603901215937</v>
       </c>
       <c r="ER3">
-        <v>0.004579194698214768</v>
+        <v>0.004577096167596014</v>
       </c>
       <c r="ES3">
-        <v>0.0004409867709374019</v>
+        <v>0.000429019913219797</v>
       </c>
       <c r="ET3">
-        <v>0.01223206519386336</v>
+        <v>0.01224821635746572</v>
       </c>
       <c r="EU3">
-        <v>0.0200881196761214</v>
+        <v>0.02012300506398212</v>
       </c>
       <c r="EV3">
-        <v>0.02642082025877389</v>
+        <v>0.0264708071499585</v>
       </c>
       <c r="EW3">
-        <v>0.02618197027451495</v>
+        <v>0.02623138758345197</v>
       </c>
       <c r="EX3">
-        <v>0.01370804809659083</v>
+        <v>0.01372771901616786</v>
       </c>
       <c r="EY3">
-        <v>0.005641023228236488</v>
+        <v>0.005641456825398961</v>
       </c>
       <c r="EZ3">
-        <v>0.001648745191341822</v>
+        <v>0.001639658458392812</v>
       </c>
       <c r="FA3">
-        <v>0.002101674561492164</v>
+        <v>0.00209366792293567</v>
       </c>
       <c r="FB3">
-        <v>0.000679013455250596</v>
+        <v>0.0006676142164686117</v>
       </c>
       <c r="FC3">
-        <v>0.002338149645907615</v>
+        <v>0.002330706926207966</v>
       </c>
       <c r="FD3">
-        <v>0.01098376427613083</v>
+        <v>0.01099693863383304</v>
       </c>
       <c r="FE3">
-        <v>0.006642958562205383</v>
+        <v>0.006645781460674426</v>
       </c>
       <c r="FF3">
-        <v>0.0007211395524743362</v>
+        <v>0.0007098407712126378</v>
       </c>
       <c r="FG3">
-        <v>0.003474115771043403</v>
+        <v>0.003469381974020685</v>
       </c>
       <c r="FH3">
-        <v>0.008897186413643742</v>
+        <v>0.008905384938032087</v>
       </c>
       <c r="FI3">
-        <v>0.02455909238146838</v>
+        <v>0.02460463963598292</v>
       </c>
       <c r="FJ3">
-        <v>0.01930524072771591</v>
+        <v>0.01933825919499714</v>
       </c>
       <c r="FK3">
-        <v>0.003824053347981271</v>
+        <v>0.003820154042249008</v>
       </c>
       <c r="FL3">
-        <v>8.928990411547745E-06</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.002850393312148934</v>
+        <v>0.002844172132821741</v>
       </c>
       <c r="FN3">
-        <v>0.008626109431508679</v>
+        <v>0.008633661522374183</v>
       </c>
       <c r="FO3">
-        <v>0.01344361311401804</v>
+        <v>0.01346265343915654</v>
       </c>
       <c r="FP3">
-        <v>0.006240045588758782</v>
+        <v>0.006241907666243424</v>
       </c>
       <c r="FQ3">
-        <v>0.000680902155126124</v>
+        <v>0.0006695074203005602</v>
       </c>
       <c r="FR3">
-        <v>0.0005330629248692556</v>
+        <v>0.0005213156398799842</v>
       </c>
       <c r="FS3">
-        <v>0.002961014204858623</v>
+        <v>0.002955056821641343</v>
       </c>
       <c r="FT3">
-        <v>0.001489088101863793</v>
+        <v>0.001479620636865956</v>
       </c>
       <c r="FU3">
-        <v>1.652188191114916E-06</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0001392436908233451</v>
+        <v>0.0001265572705640049</v>
       </c>
       <c r="FW3">
-        <v>0.001452007804307517</v>
+        <v>0.001442451914437939</v>
       </c>
       <c r="FX3">
-        <v>0.003187142589955957</v>
+        <v>0.003181724451965038</v>
       </c>
       <c r="FY3">
-        <v>0.002182068356193927</v>
+        <v>0.002174253431605599</v>
       </c>
       <c r="FZ3">
-        <v>3.665636258421521E-05</v>
+        <v>2.372530374482988E-05</v>
       </c>
       <c r="GA3">
-        <v>0.002509348434625005</v>
+        <v>0.002502313970304419</v>
       </c>
       <c r="GB3">
-        <v>0.0002096924761805193</v>
+        <v>0.0001971740541633746</v>
       </c>
       <c r="GC3">
-        <v>0.0006540499868957774</v>
+        <v>0.0006425912180767393</v>
       </c>
       <c r="GD3">
-        <v>0.002427719640004633</v>
+        <v>0.002420490516628689</v>
       </c>
       <c r="GE3">
-        <v>0.003250151385803453</v>
+        <v>0.003244883504014846</v>
       </c>
       <c r="GF3">
-        <v>0.0001691915288496759</v>
+        <v>0.0001565765247846743</v>
       </c>
       <c r="GG3">
-        <v>0.0001535689098792621</v>
+        <v>0.0001409166507712926</v>
       </c>
       <c r="GH3">
-        <v>4.235314720877683E-06</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.002104996561273233</v>
+        <v>0.002096997844643582</v>
       </c>
       <c r="GJ3">
-        <v>0.002227471853201675</v>
+        <v>0.002219765201703481</v>
       </c>
       <c r="GK3">
-        <v>0.0001324899112684432</v>
+        <v>0.0001197873853645892</v>
       </c>
       <c r="GL3">
-        <v>0.003815100248571312</v>
+        <v>0.003811179592506954</v>
       </c>
       <c r="GM3">
-        <v>4.385691410967324E-06</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.005768674619823807</v>
+        <v>0.005769412625490865</v>
       </c>
       <c r="GO3">
-        <v>0.003414673274960875</v>
+        <v>0.003409797726241475</v>
       </c>
       <c r="GP3">
-        <v>0.0006302204584662282</v>
+        <v>0.0006187048637009625</v>
       </c>
       <c r="GQ3">
-        <v>0.001595265694866312</v>
+        <v>0.001586051430103149</v>
       </c>
       <c r="GR3">
-        <v>1.582489795708289E-05</v>
+        <v>2.844162612673808E-06</v>
       </c>
       <c r="GS3">
-        <v>0.002195623355300605</v>
+        <v>0.002187840755130808</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>5.769387949567741E-05</v>
+        <v>5.551385249588117E-05</v>
       </c>
       <c r="C4">
-        <v>4.632266359507723E-05</v>
+        <v>4.413781227152539E-05</v>
       </c>
       <c r="D4">
-        <v>4.098965664169493E-05</v>
+        <v>3.880254274988664E-05</v>
       </c>
       <c r="E4">
-        <v>1.59024918609907E-07</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2.284207980032931E-06</v>
+        <v>8.067301091139089E-08</v>
       </c>
       <c r="G4">
-        <v>5.592078351117667E-05</v>
+        <v>5.374000426209119E-05</v>
       </c>
       <c r="H4">
-        <v>0.0001712377285031505</v>
+        <v>0.0001691058733341292</v>
       </c>
       <c r="I4">
-        <v>0.0001291195488713204</v>
+        <v>0.0001269698247482385</v>
       </c>
       <c r="J4">
-        <v>0.0001248729689084412</v>
+        <v>0.0001227214431419138</v>
       </c>
       <c r="K4">
-        <v>0.0002583605977415787</v>
+        <v>0.000256265705104216</v>
       </c>
       <c r="L4">
-        <v>0.0002413441278903257</v>
+        <v>0.000239242015887817</v>
       </c>
       <c r="M4">
-        <v>4.766224958336743E-05</v>
+        <v>4.547796658923283E-05</v>
       </c>
       <c r="N4">
-        <v>1.402871587737004E-05</v>
+        <v>1.183016360393752E-05</v>
       </c>
       <c r="O4">
-        <v>0.0001017877991102369</v>
+        <v>9.962647928702872E-05</v>
       </c>
       <c r="P4">
-        <v>4.840846957684446E-05</v>
+        <v>4.622450317214698E-05</v>
       </c>
       <c r="Q4">
-        <v>1.501185986877603E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.527198186650221E-07</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>2.203569180737823E-06</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2.953971674178289E-06</v>
+        <v>7.50720857334619E-07</v>
       </c>
       <c r="U4">
-        <v>2.284207980032931E-06</v>
+        <v>8.067301091139089E-08</v>
       </c>
       <c r="V4">
-        <v>1.178167789701219E-05</v>
+        <v>9.582172300838896E-06</v>
       </c>
       <c r="W4">
-        <v>6.199661945806563E-05</v>
+        <v>5.981841792801654E-05</v>
       </c>
       <c r="X4">
-        <v>7.127772937693618E-06</v>
+        <v>4.926292887385623E-06</v>
       </c>
       <c r="Y4">
-        <v>3.241588571664129E-05</v>
+        <v>3.022513433812003E-05</v>
       </c>
       <c r="Z4">
-        <v>0.000186868318366518</v>
+        <v>0.0001847430945926483</v>
       </c>
       <c r="AA4">
-        <v>0.0001729113984885204</v>
+        <v>0.0001707802533865614</v>
       </c>
       <c r="AB4">
-        <v>8.986769921443467E-05</v>
+        <v>8.770132219931327E-05</v>
       </c>
       <c r="AC4">
-        <v>8.986769921443467E-05</v>
+        <v>8.770132219931327E-05</v>
       </c>
       <c r="AD4">
-        <v>0.000126504558894179</v>
+        <v>0.000124353725341958</v>
       </c>
       <c r="AE4">
-        <v>7.076407938142617E-05</v>
+        <v>6.858959751210238E-05</v>
       </c>
       <c r="AF4">
-        <v>4.23799136295422E-05</v>
+        <v>4.01933895647033E-05</v>
       </c>
       <c r="AG4">
-        <v>4.415033261406634E-05</v>
+        <v>4.196455966277932E-05</v>
       </c>
       <c r="AH4">
-        <v>5.728568949924554E-05</v>
+        <v>5.510548932177738E-05</v>
       </c>
       <c r="AI4">
-        <v>2.593195477331962E-05</v>
+        <v>2.373845253839453E-05</v>
       </c>
       <c r="AJ4">
-        <v>1.356944438138469E-05</v>
+        <v>1.137069725857039E-05</v>
       </c>
       <c r="AK4">
-        <v>1.520228486711146E-05</v>
+        <v>1.300423048913758E-05</v>
       </c>
       <c r="AL4">
-        <v>5.634446950747308E-06</v>
+        <v>3.432333345672904E-06</v>
       </c>
       <c r="AM4">
-        <v>7.127772937693618E-06</v>
+        <v>4.926292887385623E-06</v>
       </c>
       <c r="AN4">
-        <v>4.803463958011223E-05</v>
+        <v>4.585051457523079E-05</v>
       </c>
       <c r="AO4">
-        <v>0.0001117990090227254</v>
+        <v>0.0001096419365305173</v>
       </c>
       <c r="AP4">
-        <v>3.672817467894604E-05</v>
+        <v>3.453925282140686E-05</v>
       </c>
       <c r="AQ4">
-        <v>8.698058923967193E-05</v>
+        <v>8.481298734645851E-05</v>
       </c>
       <c r="AR4">
-        <v>0.0002455439178536138</v>
+        <v>0.0002434435876435419</v>
       </c>
       <c r="AS4">
-        <v>0.0002108701981567091</v>
+        <v>0.0002087551573606197</v>
       </c>
       <c r="AT4">
-        <v>0.0001177583189706329</v>
+        <v>0.0001156037747604309</v>
       </c>
       <c r="AU4">
-        <v>0.0002789457475616366</v>
+        <v>0.0002768595883287011</v>
       </c>
       <c r="AV4">
-        <v>0.0001431428087487381</v>
+        <v>0.0001409990340989887</v>
       </c>
       <c r="AW4">
-        <v>6.043678947170067E-05</v>
+        <v>5.82579261720639E-05</v>
       </c>
       <c r="AX4">
-        <v>9.058619920815401E-06</v>
+        <v>6.857959046842683E-06</v>
       </c>
       <c r="AY4">
-        <v>1.912804683279498E-05</v>
+        <v>1.693165798882164E-05</v>
       </c>
       <c r="AZ4">
-        <v>2.130577181375872E-05</v>
+        <v>1.911030688596555E-05</v>
       </c>
       <c r="BA4">
-        <v>3.078470773089999E-08</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>2.760242975871741E-07</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>2.85537477504016E-05</v>
+        <v>2.636135783083946E-05</v>
       </c>
       <c r="BD4">
-        <v>6.94120093932451E-05</v>
+        <v>6.723695389807337E-05</v>
       </c>
       <c r="BE4">
-        <v>3.428100970033758E-05</v>
+        <v>3.209104961467544E-05</v>
       </c>
       <c r="BF4">
-        <v>5.407238952733413E-05</v>
+        <v>5.189082608321764E-05</v>
       </c>
       <c r="BG4">
-        <v>0.0001099303790390597</v>
+        <v>0.0001077725137665457</v>
       </c>
       <c r="BH4">
-        <v>2.025146782297476E-05</v>
+        <v>1.805555559879457E-05</v>
       </c>
       <c r="BI4">
-        <v>4.89380855722149E-06</v>
+        <v>2.691380730745662E-06</v>
       </c>
       <c r="BJ4">
-        <v>8.368365926849156E-05</v>
+        <v>8.151465862797446E-05</v>
       </c>
       <c r="BK4">
-        <v>0.0001521050586703959</v>
+        <v>0.0001499650863224916</v>
       </c>
       <c r="BL4">
-        <v>0.0002028976182264002</v>
+        <v>0.000200779195003393</v>
       </c>
       <c r="BM4">
-        <v>0.0002742037476030881</v>
+        <v>0.0002721155765410528</v>
       </c>
       <c r="BN4">
-        <v>0.0003468069969684375</v>
+        <v>0.0003447496283802721</v>
       </c>
       <c r="BO4">
-        <v>0.0001217069389361166</v>
+        <v>0.0001195540699575933</v>
       </c>
       <c r="BP4">
-        <v>6.115175946545085E-05</v>
+        <v>5.89731994972041E-05</v>
       </c>
       <c r="BQ4">
-        <v>6.986124938931813E-05</v>
+        <v>6.768638448758899E-05</v>
       </c>
       <c r="BR4">
-        <v>1.680950385306218E-10</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>9.058619920815401E-06</v>
+        <v>6.857959046842683E-06</v>
       </c>
       <c r="BT4">
-        <v>3.8044795667437E-05</v>
+        <v>3.585643239624139E-05</v>
       </c>
       <c r="BU4">
-        <v>0.0001681986485297162</v>
+        <v>0.0001660655040081894</v>
       </c>
       <c r="BV4">
-        <v>0.0002062057881974823</v>
+        <v>0.0002040887684904332</v>
       </c>
       <c r="BW4">
-        <v>0.0001201066789501051</v>
+        <v>0.000117953131049263</v>
       </c>
       <c r="BX4">
-        <v>5.418989452630698E-05</v>
+        <v>5.200838093456889E-05</v>
       </c>
       <c r="BY4">
-        <v>0.000214271398126978</v>
+        <v>0.0002121578003155226</v>
       </c>
       <c r="BZ4">
-        <v>0.0001148554589960078</v>
+        <v>0.0001126996832256581</v>
       </c>
       <c r="CA4">
-        <v>2.360087279369643E-05</v>
+        <v>2.140638157973261E-05</v>
       </c>
       <c r="CB4">
-        <v>0.0001142792290010449</v>
+        <v>0.0001121232087607917</v>
       </c>
       <c r="CC4">
-        <v>0.0001212895589397651</v>
+        <v>0.0001191365128846433</v>
       </c>
       <c r="CD4">
-        <v>3.464378569716643E-06</v>
+        <v>1.261344296832096E-06</v>
       </c>
       <c r="CE4">
-        <v>6.748130941012202E-07</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>6.885061239815246E-06</v>
+        <v>4.683478217246406E-06</v>
       </c>
       <c r="CG4">
-        <v>9.612606915972806E-08</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>5.013625456174129E-06</v>
+        <v>2.811248462917632E-06</v>
       </c>
       <c r="CI4">
-        <v>1.921526183203261E-05</v>
+        <v>1.701890998967776E-05</v>
       </c>
       <c r="CJ4">
-        <v>3.619829968357787E-05</v>
+        <v>3.400915302259198E-05</v>
       </c>
       <c r="CK4">
-        <v>5.211117154447783E-05</v>
+        <v>4.992877603890131E-05</v>
       </c>
       <c r="CL4">
-        <v>4.133504563867576E-05</v>
+        <v>3.914807828074368E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0001230747389241602</v>
+        <v>0.0001209224502450554</v>
       </c>
       <c r="CN4">
-        <v>0.05934399648125316</v>
+        <v>0.05936696911343452</v>
       </c>
       <c r="CO4">
-        <v>0.001311069988539474</v>
+        <v>0.00130942171576811</v>
       </c>
       <c r="CP4">
-        <v>0.0861427692469956</v>
+        <v>0.08617711145980975</v>
       </c>
       <c r="CQ4">
-        <v>0.01022045591065938</v>
+        <v>0.01022258751178432</v>
       </c>
       <c r="CR4">
-        <v>0.006872605939924122</v>
+        <v>0.006873317190553106</v>
       </c>
       <c r="CS4">
-        <v>0.004256579962791731</v>
+        <v>0.004256181344750814</v>
       </c>
       <c r="CT4">
-        <v>0.0004387192561649999</v>
+        <v>0.0004367008820431562</v>
       </c>
       <c r="CU4">
-        <v>0.03047552973360262</v>
+        <v>0.03048625470193381</v>
       </c>
       <c r="CV4">
-        <v>0.005771971949545153</v>
+        <v>0.005772216247936801</v>
       </c>
       <c r="CW4">
-        <v>0.02679372376578659</v>
+        <v>0.02680288670028171</v>
       </c>
       <c r="CX4">
-        <v>0.0805541392958478</v>
+        <v>0.0805861104904287</v>
       </c>
       <c r="CY4">
-        <v>0.05929154948171161</v>
+        <v>0.05931449986285948</v>
       </c>
       <c r="CZ4">
-        <v>0.005027387256053831</v>
+        <v>0.005027315658796654</v>
       </c>
       <c r="DA4">
-        <v>0.005877575948622031</v>
+        <v>0.005877865050303485</v>
       </c>
       <c r="DB4">
-        <v>0.007776759932020593</v>
+        <v>0.007777854776771869</v>
       </c>
       <c r="DC4">
-        <v>0.07486680934556277</v>
+        <v>0.07489636764769443</v>
       </c>
       <c r="DD4">
-        <v>0.03910395465817851</v>
+        <v>0.03911834030059248</v>
       </c>
       <c r="DE4">
-        <v>0.04184774663419406</v>
+        <v>0.04186329635096261</v>
       </c>
       <c r="DF4">
-        <v>0.001055284790775383</v>
+        <v>0.001053527999212652</v>
       </c>
       <c r="DG4">
-        <v>0.06659023941791117</v>
+        <v>0.06661628632308531</v>
       </c>
       <c r="DH4">
-        <v>0.0001612892185901139</v>
+        <v>0.0001591531426910383</v>
       </c>
       <c r="DI4">
-        <v>0.02534834277842118</v>
+        <v>0.02535689249917607</v>
       </c>
       <c r="DJ4">
-        <v>0.01538783986548945</v>
+        <v>0.0153921637680697</v>
       </c>
       <c r="DK4">
-        <v>0.03937410965581699</v>
+        <v>0.03938860991351785</v>
       </c>
       <c r="DL4">
-        <v>0.000857377292505362</v>
+        <v>0.000855536537199997</v>
       </c>
       <c r="DM4">
-        <v>0.001349026888207679</v>
+        <v>0.001347394718936095</v>
       </c>
       <c r="DN4">
-        <v>0.001890974683470322</v>
+        <v>0.001889572439621475</v>
       </c>
       <c r="DO4">
-        <v>0.00235930737937646</v>
+        <v>0.002358103829191522</v>
       </c>
       <c r="DP4">
-        <v>0.002200811180761932</v>
+        <v>0.002199540387374258</v>
       </c>
       <c r="DQ4">
-        <v>0.001630615285746216</v>
+        <v>0.001629102582467312</v>
       </c>
       <c r="DR4">
-        <v>0.00507343745565129</v>
+        <v>0.005073385395537176</v>
       </c>
       <c r="DS4">
-        <v>0.003823435966577995</v>
+        <v>0.003822853583943319</v>
       </c>
       <c r="DT4">
-        <v>1.945196982996346E-05</v>
+        <v>1.725571841275467E-05</v>
       </c>
       <c r="DU4">
-        <v>0.0007864545931253224</v>
+        <v>0.0007845837483320416</v>
       </c>
       <c r="DV4">
-        <v>0.003749454167224696</v>
+        <v>0.003748840397255963</v>
       </c>
       <c r="DW4">
-        <v>0.01050746390815054</v>
+        <v>0.01050971727457415</v>
       </c>
       <c r="DX4">
-        <v>0.001375519787976095</v>
+        <v>0.001373898858516228</v>
       </c>
       <c r="DY4">
-        <v>2.465859478445051E-05</v>
+        <v>2.246455231698588E-05</v>
       </c>
       <c r="DZ4">
-        <v>0.000732990153592674</v>
+        <v>0.0007310966261093474</v>
       </c>
       <c r="EA4">
-        <v>0.009238396919243908</v>
+        <v>0.009240111874465442</v>
       </c>
       <c r="EB4">
-        <v>0.002722608876200714</v>
+        <v>0.002721559459404578</v>
       </c>
       <c r="EC4">
-        <v>0.0003518378369244611</v>
+        <v>0.0003497826027079339</v>
       </c>
       <c r="ED4">
-        <v>0.0007228230936815478</v>
+        <v>0.0007209252527466886</v>
       </c>
       <c r="EE4">
-        <v>0.006175518446017611</v>
+        <v>0.006175933952041446</v>
       </c>
       <c r="EF4">
-        <v>0.00659269994237088</v>
+        <v>0.006593292440778013</v>
       </c>
       <c r="EG4">
-        <v>0.001805264884219542</v>
+        <v>0.001803826277344592</v>
       </c>
       <c r="EH4">
-        <v>0.0003097216772926133</v>
+        <v>0.0003076485749790258</v>
       </c>
       <c r="EI4">
-        <v>0.001055803590770848</v>
+        <v>0.001054047019312912</v>
       </c>
       <c r="EJ4">
-        <v>0.003492379969471872</v>
+        <v>0.003491657133843846</v>
       </c>
       <c r="EK4">
-        <v>2.88925397474401E-06</v>
+        <v>6.859757009302566E-07</v>
       </c>
       <c r="EL4">
-        <v>0.01015906591119601</v>
+        <v>0.01016117146715257</v>
       </c>
       <c r="EM4">
-        <v>0.009756183914717748</v>
+        <v>0.009758118544961234</v>
       </c>
       <c r="EN4">
-        <v>0.0001423088787560278</v>
+        <v>0.0001401647503052152</v>
       </c>
       <c r="EO4">
-        <v>1.017730841103655E-05</v>
+        <v>7.977122149058333E-06</v>
       </c>
       <c r="EP4">
-        <v>0.002606009577219949</v>
+        <v>0.002604910692295438</v>
       </c>
       <c r="EQ4">
-        <v>0.005589534951139899</v>
+        <v>0.00558970184926468</v>
       </c>
       <c r="ER4">
-        <v>0.005150417954978377</v>
+        <v>0.005150398554419307</v>
       </c>
       <c r="ES4">
-        <v>0.005328362953422896</v>
+        <v>0.00532841904736597</v>
       </c>
       <c r="ET4">
-        <v>0.002129835981382351</v>
+        <v>0.002128535076233242</v>
       </c>
       <c r="EU4">
-        <v>0.002181398980931621</v>
+        <v>0.002180119951772364</v>
       </c>
       <c r="EV4">
-        <v>0.00745556393482828</v>
+        <v>0.007456522509765228</v>
       </c>
       <c r="EW4">
-        <v>0.008824024922866078</v>
+        <v>0.00882556407765578</v>
       </c>
       <c r="EX4">
-        <v>0.01437875337431024</v>
+        <v>0.0143826491643673</v>
       </c>
       <c r="EY4">
-        <v>0.01034236590959372</v>
+        <v>0.01034454923195138</v>
       </c>
       <c r="EZ4">
-        <v>0.003684784467789997</v>
+        <v>0.003684143261215542</v>
       </c>
       <c r="FA4">
-        <v>0.0004881490557329166</v>
+        <v>0.0004861516525748092</v>
       </c>
       <c r="FB4">
-        <v>0.0001563391086333846</v>
+        <v>0.0001542009326129793</v>
       </c>
       <c r="FC4">
-        <v>0.0003595847768567424</v>
+        <v>0.0003575328293376692</v>
       </c>
       <c r="FD4">
-        <v>0.0002659466376752665</v>
+        <v>0.0002638549634723248</v>
       </c>
       <c r="FE4">
-        <v>0.008096476929225833</v>
+        <v>0.008097707416314584</v>
       </c>
       <c r="FF4">
-        <v>0.01225398989288354</v>
+        <v>0.01225698423607441</v>
       </c>
       <c r="FG4">
-        <v>0.003088156973005328</v>
+        <v>0.003087262642734912</v>
       </c>
       <c r="FH4">
-        <v>0.0002243989580384494</v>
+        <v>0.0002222896569203551</v>
       </c>
       <c r="FI4">
-        <v>0.002935522674339559</v>
+        <v>0.00293456358782149</v>
       </c>
       <c r="FJ4">
-        <v>0.005761218649639152</v>
+        <v>0.005761458385862546</v>
       </c>
       <c r="FK4">
-        <v>0.01339580488290253</v>
+        <v>0.01339928364967915</v>
       </c>
       <c r="FL4">
-        <v>0.009968247912864023</v>
+        <v>0.009970272512851546</v>
       </c>
       <c r="FM4">
-        <v>3.050324373336036E-07</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.004303538962381245</v>
+        <v>0.004303160267048616</v>
       </c>
       <c r="FO4">
-        <v>0.004825869957815365</v>
+        <v>0.004825712865330803</v>
       </c>
       <c r="FP4">
-        <v>0.01192232389578275</v>
+        <v>0.01192517752718319</v>
       </c>
       <c r="FQ4">
-        <v>0.01271896088881907</v>
+        <v>0.01272215249944738</v>
       </c>
       <c r="FR4">
-        <v>0.004168066963565454</v>
+        <v>0.00416763079321979</v>
       </c>
       <c r="FS4">
-        <v>0.0006486050943303136</v>
+        <v>0.0006466757658517746</v>
       </c>
       <c r="FT4">
-        <v>0.0007242711936688896</v>
+        <v>0.0007223739671013267</v>
       </c>
       <c r="FU4">
-        <v>0.004289424462504625</v>
+        <v>0.004289039778989408</v>
       </c>
       <c r="FV4">
-        <v>0.002138034181310688</v>
+        <v>0.002136736754309476</v>
       </c>
       <c r="FW4">
-        <v>9.363006318154653E-05</v>
+        <v>9.146528237759748E-05</v>
       </c>
       <c r="FX4">
-        <v>0.0002106383781587355</v>
+        <v>0.0002085232390112708</v>
       </c>
       <c r="FY4">
-        <v>0.001293585288692314</v>
+        <v>0.001291929597905711</v>
       </c>
       <c r="FZ4">
-        <v>0.003222210971833515</v>
+        <v>0.003221373514978988</v>
       </c>
       <c r="GA4">
-        <v>0.001547641786471516</v>
+        <v>0.001546093881062327</v>
       </c>
       <c r="GB4">
-        <v>9.962685912912641E-05</v>
+        <v>9.746462251090036E-05</v>
       </c>
       <c r="GC4">
-        <v>0.0003244192971641363</v>
+        <v>0.0003223524304261738</v>
       </c>
       <c r="GD4">
-        <v>0.0001301636488621936</v>
+        <v>0.0001280143677063751</v>
       </c>
       <c r="GE4">
-        <v>0.001988974182613674</v>
+        <v>0.001987613515788418</v>
       </c>
       <c r="GF4">
-        <v>0.006021524247363729</v>
+        <v>0.006021874420192127</v>
       </c>
       <c r="GG4">
-        <v>0.005663567650492754</v>
+        <v>0.005663765957546299</v>
       </c>
       <c r="GH4">
-        <v>0.0001175850889721472</v>
+        <v>0.0001154304712678172</v>
       </c>
       <c r="GI4">
-        <v>3.241588571664129E-05</v>
+        <v>3.022513433812003E-05</v>
       </c>
       <c r="GJ4">
-        <v>0.000680573794050864</v>
+        <v>0.0006786580285332998</v>
       </c>
       <c r="GK4">
-        <v>0.0004538826960324509</v>
+        <v>0.0004518707551138643</v>
       </c>
       <c r="GL4">
-        <v>0.0007402957335288134</v>
+        <v>0.0007384053054926472</v>
       </c>
       <c r="GM4">
-        <v>0.001214791889381075</v>
+        <v>0.001213102769902993</v>
       </c>
       <c r="GN4">
-        <v>0.003027626473534447</v>
+        <v>0.003026706462744983</v>
       </c>
       <c r="GO4">
-        <v>0.0004654243159315615</v>
+        <v>0.0004634172716319068</v>
       </c>
       <c r="GP4">
-        <v>0.006343040944553237</v>
+        <v>0.006343527523255345</v>
       </c>
       <c r="GQ4">
-        <v>0.004035900964720763</v>
+        <v>0.004035408721957384</v>
       </c>
       <c r="GR4">
-        <v>0.001111324990285516</v>
+        <v>0.001109591974198348</v>
       </c>
       <c r="GS4">
-        <v>0.001061057890724918</v>
+        <v>0.001059303548443203</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.526924334114772E-05</v>
+        <v>3.435987142517125E-06</v>
       </c>
       <c r="C5">
-        <v>3.926678526647106E-05</v>
+        <v>7.456884773559558E-06</v>
       </c>
       <c r="D5">
-        <v>4.387243418043456E-05</v>
+        <v>1.208944226851844E-05</v>
       </c>
       <c r="E5">
-        <v>0.0001007162041185562</v>
+        <v>6.926532288551212E-05</v>
       </c>
       <c r="F5">
-        <v>0.0002361002655894943</v>
+        <v>0.0002054403680053623</v>
       </c>
       <c r="G5">
-        <v>6.188481484395163E-06</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001061667580167363</v>
+        <v>7.474772173622307E-05</v>
       </c>
       <c r="I5">
-        <v>0.0005753066892528989</v>
+        <v>0.000546628610885952</v>
       </c>
       <c r="J5">
-        <v>0.0004136366122730005</v>
+        <v>0.0003840139737708349</v>
       </c>
       <c r="K5">
-        <v>0.0003706107630767513</v>
+        <v>0.0003407367453293109</v>
       </c>
       <c r="L5">
-        <v>0.0005667684494123988</v>
+        <v>0.0005380404862360368</v>
       </c>
       <c r="M5">
-        <v>0.0004100111423407267</v>
+        <v>0.0003803673219696992</v>
       </c>
       <c r="N5">
-        <v>0.0003880066727517844</v>
+        <v>0.0003582342908982698</v>
       </c>
       <c r="O5">
-        <v>0.0002514396953029439</v>
+        <v>0.0002208694185940843</v>
       </c>
       <c r="P5">
-        <v>0.0002721517449160293</v>
+        <v>0.0002417024787042801</v>
       </c>
       <c r="Q5">
-        <v>5.23720360216565E-05</v>
+        <v>2.063870317599695E-05</v>
       </c>
       <c r="R5">
-        <v>3.185321440496136E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>2.089540960966023E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001504566871893718</v>
+        <v>0.0001192964155625881</v>
       </c>
       <c r="U5">
-        <v>4.783329510644311E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>6.726832874338411E-05</v>
+        <v>3.562202773769358E-05</v>
       </c>
       <c r="W5">
-        <v>0.0007462500260595669</v>
+        <v>0.0007185706870038465</v>
       </c>
       <c r="X5">
-        <v>0.000408691842365372</v>
+        <v>0.00037904031396212</v>
       </c>
       <c r="Y5">
-        <v>2.368646655752148E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0003608226932595987</v>
+        <v>0.0003308914885501507</v>
       </c>
       <c r="AA5">
-        <v>0.0002623246650996056</v>
+        <v>0.0002318179840092739</v>
       </c>
       <c r="AB5">
-        <v>7.897099852477066E-05</v>
+        <v>4.739307056347783E-05</v>
       </c>
       <c r="AC5">
-        <v>0.0001966397763266418</v>
+        <v>0.0001657493301724206</v>
       </c>
       <c r="AD5">
-        <v>0.0002410719554966199</v>
+        <v>0.0002104411050941227</v>
       </c>
       <c r="AE5">
-        <v>0.000362521493227864</v>
+        <v>0.0003326002137857117</v>
       </c>
       <c r="AF5">
-        <v>0.000180692996624538</v>
+        <v>0.0001497093811425531</v>
       </c>
       <c r="AG5">
-        <v>6.153494885048735E-05</v>
+        <v>2.985515047665016E-05</v>
       </c>
       <c r="AH5">
-        <v>3.165354940869123E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>4.811183210123985E-05</v>
+        <v>1.635360894275125E-05</v>
       </c>
       <c r="AJ5">
-        <v>2.823335047258275E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>7.015093868953509E-06</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0002090164960954367</v>
+        <v>0.0001781983611339654</v>
       </c>
       <c r="AM5">
-        <v>0.0002221302558504631</v>
+        <v>0.000191388738250218</v>
       </c>
       <c r="AN5">
-        <v>0.0001787729066604065</v>
+        <v>0.0001477780730206151</v>
       </c>
       <c r="AO5">
-        <v>0.001019882680947932</v>
+        <v>0.0009938020452659579</v>
       </c>
       <c r="AP5">
-        <v>0.001025595980841204</v>
+        <v>0.0009995487252096417</v>
       </c>
       <c r="AQ5">
-        <v>0.0002751069748608237</v>
+        <v>0.0002446749746295726</v>
       </c>
       <c r="AR5">
-        <v>0.0001348814274803277</v>
+        <v>0.0001036301571375685</v>
       </c>
       <c r="AS5">
-        <v>0.0001108186019298368</v>
+        <v>7.942674412537594E-05</v>
       </c>
       <c r="AT5">
-        <v>3.242417939429535E-08</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>1.223042877152768E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>2.473985253784356E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>1.089008479656617E-06</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>7.109255267194513E-06</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>4.927009207960281E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1.901562964477574E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>5.808124391500479E-05</v>
+        <v>2.638126721217929E-05</v>
       </c>
       <c r="BB5">
-        <v>2.794771447791862E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>8.770562836160214E-07</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0003961487325996854</v>
+        <v>0.0003664239208673371</v>
       </c>
       <c r="BE5">
-        <v>0.0002880013446199486</v>
+        <v>0.0002576446799601943</v>
       </c>
       <c r="BF5">
-        <v>1.014142581055161E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0003997125225331115</v>
+        <v>0.0003700085323031976</v>
       </c>
       <c r="BH5">
-        <v>0.0008900438833734046</v>
+        <v>0.0008632046623398019</v>
       </c>
       <c r="BI5">
-        <v>0.0001593498270232422</v>
+        <v>0.0001282415137150349</v>
       </c>
       <c r="BJ5">
-        <v>0.0001375956974296234</v>
+        <v>0.0001063602852545487</v>
       </c>
       <c r="BK5">
-        <v>0.001047462080432731</v>
+        <v>0.001021542577854626</v>
       </c>
       <c r="BL5">
-        <v>0.0005852118390678644</v>
+        <v>0.0005565916317047752</v>
       </c>
       <c r="BM5">
-        <v>0.0001123314339015762</v>
+        <v>8.094841484327338E-05</v>
       </c>
       <c r="BN5">
-        <v>0.0002580022951803503</v>
+        <v>0.0002274703605712991</v>
       </c>
       <c r="BO5">
-        <v>8.770562836160214E-07</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>5.367290099735549E-05</v>
+        <v>2.194716847712599E-05</v>
       </c>
       <c r="BQ5">
-        <v>5.667365894129939E-06</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>7.228926864958971E-05</v>
+        <v>4.067230256947926E-05</v>
       </c>
       <c r="BS5">
-        <v>0.0005540807496494132</v>
+        <v>0.0005252786583744715</v>
       </c>
       <c r="BT5">
-        <v>0.0003186869940467209</v>
+        <v>0.0002885096108081998</v>
       </c>
       <c r="BU5">
-        <v>1.801508666346653E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0003671794431408505</v>
+        <v>0.0003372853778491572</v>
       </c>
       <c r="BW5">
-        <v>0.0005540807496494132</v>
+        <v>0.0005252786583744715</v>
       </c>
       <c r="BX5">
-        <v>4.590513614246237E-05</v>
+        <v>1.413402032583846E-05</v>
       </c>
       <c r="BY5">
-        <v>0.0003463722935295415</v>
+        <v>0.0003163566621174039</v>
       </c>
       <c r="BZ5">
-        <v>0.001005669081213451</v>
+        <v>0.0009795054023367317</v>
       </c>
       <c r="CA5">
-        <v>0.0009351864425301123</v>
+        <v>0.0009086109676552158</v>
       </c>
       <c r="CB5">
-        <v>0.0002614524951158983</v>
+        <v>0.0002309407183578146</v>
       </c>
       <c r="CC5">
-        <v>0.001069928780013038</v>
+        <v>0.001044140539503895</v>
       </c>
       <c r="CD5">
-        <v>0.009881150815413711</v>
+        <v>0.009906842287370066</v>
       </c>
       <c r="CE5">
-        <v>0.03128644441554899</v>
+        <v>0.03143719667423246</v>
       </c>
       <c r="CF5">
-        <v>0.0269073014973542</v>
+        <v>0.02703246854012004</v>
       </c>
       <c r="CG5">
-        <v>0.01747015467364621</v>
+        <v>0.01754018502787698</v>
       </c>
       <c r="CH5">
-        <v>0.002298235657067471</v>
+        <v>0.002279623820080576</v>
       </c>
       <c r="CI5">
-        <v>0.0008646356838480462</v>
+        <v>0.000837648014982738</v>
       </c>
       <c r="CJ5">
-        <v>0.000365931013164172</v>
+        <v>0.0003360296538994095</v>
       </c>
       <c r="CK5">
-        <v>2.637951950721351E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.002391678455321899</v>
+        <v>0.002373612559450412</v>
       </c>
       <c r="CM5">
-        <v>0.005501501197228399</v>
+        <v>0.005501604492863924</v>
       </c>
       <c r="CN5">
-        <v>0.02729852649004587</v>
+        <v>0.02742597927139055</v>
       </c>
       <c r="CO5">
-        <v>0.03780974329368954</v>
+        <v>0.03799860803543426</v>
       </c>
       <c r="CP5">
-        <v>0.02538038552587798</v>
+        <v>0.0254966315364811</v>
       </c>
       <c r="CQ5">
-        <v>0.03389292136685831</v>
+        <v>0.03405890201082843</v>
       </c>
       <c r="CR5">
-        <v>0.001113022879208013</v>
+        <v>0.001087486416695906</v>
       </c>
       <c r="CS5">
-        <v>0.007252098364526112</v>
+        <v>0.007262429553461036</v>
       </c>
       <c r="CT5">
-        <v>0.0406110242413598</v>
+        <v>0.04081625551400589</v>
       </c>
       <c r="CU5">
-        <v>0.001968418163228676</v>
+        <v>0.001947879362004505</v>
       </c>
       <c r="CV5">
-        <v>0.01003565981252738</v>
+        <v>0.01006225400588978</v>
       </c>
       <c r="CW5">
-        <v>0.01104160479373568</v>
+        <v>0.01107407623751586</v>
       </c>
       <c r="CX5">
-        <v>0.01936054363833252</v>
+        <v>0.0194416186217826</v>
       </c>
       <c r="CY5">
-        <v>0.009081130830358601</v>
+        <v>0.009102148172139616</v>
       </c>
       <c r="CZ5">
-        <v>0.0002508781953134331</v>
+        <v>0.0002203046380314711</v>
       </c>
       <c r="DA5">
-        <v>0.04262144420380386</v>
+        <v>0.04283842138878602</v>
       </c>
       <c r="DB5">
-        <v>0.03405311636386576</v>
+        <v>0.03422003294979163</v>
       </c>
       <c r="DC5">
-        <v>1.035014980665251E-05</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.003952571626163405</v>
+        <v>0.003943625274811558</v>
       </c>
       <c r="DE5">
-        <v>0.001927678763989714</v>
+        <v>0.001906901942142477</v>
       </c>
       <c r="DF5">
-        <v>0.001202155677542954</v>
+        <v>0.001177139974899467</v>
       </c>
       <c r="DG5">
-        <v>0.01274802476185865</v>
+        <v>0.0127904659929114</v>
       </c>
       <c r="DH5">
-        <v>0.0003440543635728419</v>
+        <v>0.0003140251896160713</v>
       </c>
       <c r="DI5">
-        <v>0.001121981079040668</v>
+        <v>0.001096496954961271</v>
       </c>
       <c r="DJ5">
-        <v>0.002063072761460466</v>
+        <v>0.002043086981313386</v>
       </c>
       <c r="DK5">
-        <v>0.000410499652331601</v>
+        <v>0.0003808586860883853</v>
       </c>
       <c r="DL5">
-        <v>0.0005093321904853452</v>
+        <v>0.0004802686550032599</v>
       </c>
       <c r="DM5">
-        <v>0.006846669872099778</v>
+        <v>0.006854632338270532</v>
       </c>
       <c r="DN5">
-        <v>0.01090377579631042</v>
+        <v>0.01093544197186238</v>
       </c>
       <c r="DO5">
-        <v>0.000982024081655155</v>
+        <v>0.0009557222564720984</v>
       </c>
       <c r="DP5">
-        <v>3.141346641317613E-08</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.008669342838051068</v>
+        <v>0.008687954301583235</v>
       </c>
       <c r="DR5">
-        <v>0.003097118542143822</v>
+        <v>0.003083174191806577</v>
       </c>
       <c r="DS5">
-        <v>0.0002901224345803253</v>
+        <v>0.0002597781624242254</v>
       </c>
       <c r="DT5">
-        <v>0.002160475759640916</v>
+        <v>0.002141059058143705</v>
       </c>
       <c r="DU5">
-        <v>0.0003586709732997942</v>
+        <v>0.0003287271971304066</v>
       </c>
       <c r="DV5">
-        <v>0.00741272456152551</v>
+        <v>0.007423994211709367</v>
       </c>
       <c r="DW5">
-        <v>0.002856728946634456</v>
+        <v>0.002841380116055219</v>
       </c>
       <c r="DX5">
-        <v>3.948913126231749E-05</v>
+        <v>7.680529829614445E-06</v>
       </c>
       <c r="DY5">
-        <v>0.001583747370414575</v>
+        <v>0.001560961123634227</v>
       </c>
       <c r="DZ5">
-        <v>0.004232909420926514</v>
+        <v>0.004225600947840546</v>
       </c>
       <c r="EA5">
-        <v>0.001753985367234419</v>
+        <v>0.001732193738804599</v>
       </c>
       <c r="EB5">
-        <v>0.006027676487399105</v>
+        <v>0.006030853970988992</v>
       </c>
       <c r="EC5">
-        <v>0.01806871766246467</v>
+        <v>0.01814224513099276</v>
       </c>
       <c r="ED5">
-        <v>0.006957987870020286</v>
+        <v>0.006966600713460181</v>
       </c>
       <c r="EE5">
-        <v>0.004730676211627908</v>
+        <v>0.004726275949361872</v>
       </c>
       <c r="EF5">
-        <v>0.00604849988701011</v>
+        <v>0.006051799031661337</v>
       </c>
       <c r="EG5">
-        <v>0.008580327839713926</v>
+        <v>0.008598419231625935</v>
       </c>
       <c r="EH5">
-        <v>0.01183703477887653</v>
+        <v>0.0118741535356806</v>
       </c>
       <c r="EI5">
-        <v>0.01181760577923948</v>
+        <v>0.01185461102178743</v>
       </c>
       <c r="EJ5">
-        <v>0.007025209168764548</v>
+        <v>0.007034214753769349</v>
       </c>
       <c r="EK5">
-        <v>7.496252559965153E-06</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.007128383366837188</v>
+        <v>0.007137991748823984</v>
       </c>
       <c r="EM5">
-        <v>0.02741272648791254</v>
+        <v>0.02754084648465936</v>
       </c>
       <c r="EN5">
-        <v>0.04334989119019599</v>
+        <v>0.04357112433890886</v>
       </c>
       <c r="EO5">
-        <v>0.03205045240127682</v>
+        <v>0.0322056683894258</v>
       </c>
       <c r="EP5">
-        <v>0.0301239784372646</v>
+        <v>0.03026793896898074</v>
       </c>
       <c r="EQ5">
-        <v>0.01250109476647146</v>
+        <v>0.01254209330488628</v>
       </c>
       <c r="ER5">
-        <v>0.004173068922044373</v>
+        <v>0.004165410829840436</v>
       </c>
       <c r="ES5">
-        <v>0.002354242556021226</v>
+        <v>0.002335957940280446</v>
       </c>
       <c r="ET5">
-        <v>7.928617451888297E-05</v>
+        <v>4.771008797861979E-05</v>
       </c>
       <c r="EU5">
-        <v>0.003004708543870101</v>
+        <v>0.002990224286568651</v>
       </c>
       <c r="EV5">
-        <v>0.01421685073442003</v>
+        <v>0.01426787360584293</v>
       </c>
       <c r="EW5">
-        <v>0.01757187967174592</v>
+        <v>0.01764250435598355</v>
       </c>
       <c r="EX5">
-        <v>0.008166216847449788</v>
+        <v>0.008181888788946759</v>
       </c>
       <c r="EY5">
-        <v>0.004448306616902755</v>
+        <v>0.004442256605545498</v>
       </c>
       <c r="EZ5">
-        <v>0.01355723674674205</v>
+        <v>0.01360440581238324</v>
       </c>
       <c r="FA5">
-        <v>0.0304286734315727</v>
+        <v>0.03057441414890141</v>
       </c>
       <c r="FB5">
-        <v>0.03011266443747595</v>
+        <v>0.03025655886695864</v>
       </c>
       <c r="FC5">
-        <v>0.01037251980623462</v>
+        <v>0.01040108210975784</v>
       </c>
       <c r="FD5">
-        <v>0.0005808980891484479</v>
+        <v>0.0005522526786291327</v>
       </c>
       <c r="FE5">
-        <v>0.002406539855044279</v>
+        <v>0.002388560787149826</v>
       </c>
       <c r="FF5">
-        <v>0.01368996274426264</v>
+        <v>0.01373790726376955</v>
       </c>
       <c r="FG5">
-        <v>0.01925710564026481</v>
+        <v>0.019337576285477</v>
       </c>
       <c r="FH5">
-        <v>0.01779435966758985</v>
+        <v>0.01786628419493316</v>
       </c>
       <c r="FI5">
-        <v>0.006292179582458015</v>
+        <v>0.006296902429815284</v>
       </c>
       <c r="FJ5">
-        <v>0.001846198565511817</v>
+        <v>0.001824945694238924</v>
       </c>
       <c r="FK5">
-        <v>0.006812688272734577</v>
+        <v>0.006820452200841324</v>
       </c>
       <c r="FL5">
-        <v>0.004961129207322898</v>
+        <v>0.004958075370547848</v>
       </c>
       <c r="FM5">
-        <v>0.001178722477980702</v>
+        <v>0.001153569866475905</v>
       </c>
       <c r="FN5">
-        <v>2.654897950404789E-05</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0009450555823457504</v>
+        <v>0.0009185377680856868</v>
       </c>
       <c r="FP5">
-        <v>0.004269425920244362</v>
+        <v>0.004262330795417872</v>
       </c>
       <c r="FQ5">
-        <v>0.004498092915972715</v>
+        <v>0.004492333781902461</v>
       </c>
       <c r="FR5">
-        <v>0.0005982491288243193</v>
+        <v>0.0005697050920452076</v>
       </c>
       <c r="FS5">
-        <v>0.0005646439294520862</v>
+        <v>0.0005359035537322376</v>
       </c>
       <c r="FT5">
-        <v>0.0004764105711003424</v>
+        <v>0.000447154690505056</v>
       </c>
       <c r="FU5">
-        <v>0.0004068879923990691</v>
+        <v>0.0003772259249721467</v>
       </c>
       <c r="FV5">
-        <v>0.005492250297401212</v>
+        <v>0.005492299544499401</v>
       </c>
       <c r="FW5">
-        <v>0.007080221367736885</v>
+        <v>0.007089548362436483</v>
       </c>
       <c r="FX5">
-        <v>0.003004708543870101</v>
+        <v>0.002990224286568651</v>
       </c>
       <c r="FY5">
-        <v>0.000410499652331601</v>
+        <v>0.0003808586860883853</v>
       </c>
       <c r="FZ5">
-        <v>0.0001386455274100119</v>
+        <v>0.0001074162488841985</v>
       </c>
       <c r="GA5">
-        <v>0.001102310379408129</v>
+        <v>0.001076711328936342</v>
       </c>
       <c r="GB5">
-        <v>0.002496465953364402</v>
+        <v>0.002479012280207031</v>
       </c>
       <c r="GC5">
-        <v>1.96954796320757E-05</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.001585893070374492</v>
+        <v>0.001563119359882133</v>
       </c>
       <c r="GE5">
-        <v>0.0008531258840630567</v>
+        <v>0.0008260709689995383</v>
       </c>
       <c r="GF5">
-        <v>0.002597138251483778</v>
+        <v>0.002580272757915981</v>
       </c>
       <c r="GG5">
-        <v>0.007632230257425003</v>
+        <v>0.007644782373317253</v>
       </c>
       <c r="GH5">
-        <v>0.003454875135460698</v>
+        <v>0.003443020984017839</v>
       </c>
       <c r="GI5">
-        <v>0.004056561224220812</v>
+        <v>0.004048222433839043</v>
       </c>
       <c r="GJ5">
-        <v>0.00120338447752</v>
+        <v>0.001178375954160979</v>
       </c>
       <c r="GK5">
-        <v>0.0008085012848966731</v>
+        <v>0.0007811856498643757</v>
       </c>
       <c r="GL5">
-        <v>0.002517053852979806</v>
+        <v>0.002499720464971103</v>
       </c>
       <c r="GM5">
-        <v>0.0007933336151800149</v>
+        <v>0.000765929362783106</v>
       </c>
       <c r="GN5">
-        <v>0.0003315717538060252</v>
+        <v>0.000301469649992416</v>
       </c>
       <c r="GO5">
-        <v>3.468463235206864E-06</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>2.545734552444032E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.000310763654194734</v>
+        <v>0.0002805399787102896</v>
       </c>
       <c r="GR5">
-        <v>2.96752144456478E-05</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0006880534171467171</v>
+        <v>0.000660034063427734</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.000159681917758786</v>
+        <v>0.0001533362063698184</v>
       </c>
       <c r="C6">
-        <v>0.0002316474367487147</v>
+        <v>0.0002253899459229381</v>
       </c>
       <c r="D6">
-        <v>0.0002121151170228604</v>
+        <v>0.0002058336820600745</v>
       </c>
       <c r="E6">
-        <v>0.0003392762952380909</v>
+        <v>0.0003331507436888569</v>
       </c>
       <c r="F6">
-        <v>0.000315194695576088</v>
+        <v>0.0003090396230518851</v>
       </c>
       <c r="G6">
-        <v>0.0002571130163912928</v>
+        <v>0.0002508867431237244</v>
       </c>
       <c r="H6">
-        <v>0.0003924573144916692</v>
+        <v>0.000386396956100707</v>
       </c>
       <c r="I6">
-        <v>0.0002401937166287635</v>
+        <v>0.0002339467024539551</v>
       </c>
       <c r="J6">
-        <v>0.0001990103572067921</v>
+        <v>0.0001927128574770499</v>
       </c>
       <c r="K6">
-        <v>0.0001170332283573813</v>
+        <v>0.0001106352351054998</v>
       </c>
       <c r="L6">
-        <v>2.187956869290953E-05</v>
+        <v>1.53649291698261E-05</v>
       </c>
       <c r="M6">
-        <v>1.60623747745567E-08</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4.013075443674519E-07</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>6.084289414604016E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>7.47976089501789E-06</v>
+        <v>9.474690410459509E-07</v>
       </c>
       <c r="Q6">
-        <v>6.841780203972262E-06</v>
+        <v>3.087062669047096E-07</v>
       </c>
       <c r="R6">
-        <v>3.686934148252072E-06</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>6.5334519082998E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>6.134388913900846E-05</v>
+        <v>5.487762784795298E-05</v>
       </c>
       <c r="U6">
-        <v>0.0001143592083949125</v>
+        <v>0.0001079579371350296</v>
       </c>
       <c r="V6">
-        <v>0.0001379951580631703</v>
+        <v>0.0001316228614681069</v>
       </c>
       <c r="W6">
-        <v>0.0001195164423225282</v>
+        <v>0.0001131214931747899</v>
       </c>
       <c r="X6">
-        <v>0.0001496710578992933</v>
+        <v>0.0001433130744707819</v>
       </c>
       <c r="Y6">
-        <v>0.0003813135746480771</v>
+        <v>0.0003752395554509559</v>
       </c>
       <c r="Z6">
-        <v>0.0005137984327885872</v>
+        <v>0.0005078868231587628</v>
       </c>
       <c r="AA6">
-        <v>0.0002837355660176323</v>
+        <v>0.0002775419286061598</v>
       </c>
       <c r="AB6">
-        <v>0.000186999457375371</v>
+        <v>0.0001806872338117368</v>
       </c>
       <c r="AC6">
-        <v>0.0002065059671015875</v>
+        <v>0.0002002176560351895</v>
       </c>
       <c r="AD6">
-        <v>5.796744418639851E-05</v>
+        <v>5.149704380374078E-05</v>
       </c>
       <c r="AE6">
-        <v>5.22606192664966E-07</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>9.338568868928609E-08</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1.221601182854229E-05</v>
+        <v>5.689526015166375E-06</v>
       </c>
       <c r="AH6">
-        <v>0.0001874100373696083</v>
+        <v>0.0001810983171247695</v>
       </c>
       <c r="AI6">
-        <v>0.0002337694867189307</v>
+        <v>0.0002275145972562252</v>
       </c>
       <c r="AJ6">
-        <v>0.0002514092764713476</v>
+        <v>0.0002451760111448725</v>
       </c>
       <c r="AK6">
-        <v>0.0003120273456205433</v>
+        <v>0.0003058683903285813</v>
       </c>
       <c r="AL6">
-        <v>0.0002235529668623245</v>
+        <v>0.0002172855532471047</v>
       </c>
       <c r="AM6">
-        <v>0.0001857812873924686</v>
+        <v>0.0001794675705075402</v>
       </c>
       <c r="AN6">
-        <v>0.0002271327368120807</v>
+        <v>0.0002208697115390211</v>
       </c>
       <c r="AO6">
-        <v>0.0001050998285248724</v>
+        <v>9.868720644422982E-05</v>
       </c>
       <c r="AP6">
-        <v>8.682156878141673E-05</v>
+        <v>8.038653988162865E-05</v>
       </c>
       <c r="AQ6">
-        <v>5.729008919590552E-05</v>
+        <v>5.081885846227443E-05</v>
       </c>
       <c r="AR6">
-        <v>8.171424885310046E-05</v>
+        <v>7.527295902937551E-05</v>
       </c>
       <c r="AS6">
-        <v>2.78123096096406E-05</v>
+        <v>2.130494287152817E-05</v>
       </c>
       <c r="AT6">
-        <v>1.226433382786407E-07</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>7.837762889993156E-06</v>
+        <v>1.30590990088405E-06</v>
       </c>
       <c r="AV6">
-        <v>4.046545943204744E-08</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>2.839065160152329E-05</v>
+        <v>2.188399383705487E-05</v>
       </c>
       <c r="AX6">
-        <v>0.0001593029577641049</v>
+        <v>0.0001529567818184353</v>
       </c>
       <c r="AY6">
-        <v>0.0001393993680434615</v>
+        <v>0.0001330287928310414</v>
       </c>
       <c r="AZ6">
-        <v>3.921639644957866E-05</v>
+        <v>3.272300966989381E-05</v>
       </c>
       <c r="BA6">
-        <v>8.543651880085658E-05</v>
+        <v>7.899979200614537E-05</v>
       </c>
       <c r="BB6">
-        <v>4.841153932052032E-05</v>
+        <v>4.192942461521335E-05</v>
       </c>
       <c r="BC6">
-        <v>8.490046880838031E-06</v>
+        <v>1.958993508848909E-06</v>
       </c>
       <c r="BD6">
-        <v>2.05423607116779E-06</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>9.019181873411362E-06</v>
+        <v>2.488777153550427E-06</v>
       </c>
       <c r="BF6">
-        <v>2.402006766286658E-05</v>
+        <v>1.750805211897887E-05</v>
       </c>
       <c r="BG6">
-        <v>3.884393945480627E-05</v>
+        <v>3.235009609026934E-05</v>
       </c>
       <c r="BH6">
-        <v>2.010359271783622E-05</v>
+        <v>1.358677607433548E-05</v>
       </c>
       <c r="BI6">
-        <v>1.802199374705249E-05</v>
+        <v>1.150262532825549E-05</v>
       </c>
       <c r="BJ6">
-        <v>2.902952659255637E-05</v>
+        <v>2.252365200748147E-05</v>
       </c>
       <c r="BK6">
-        <v>6.232233212527552E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>6.5334519082998E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1.012543285788459E-05</v>
+        <v>3.596384260875966E-06</v>
       </c>
       <c r="BN6">
-        <v>3.686934148252072E-06</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>6.800518404551391E-08</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>1.756181275351135E-05</v>
+        <v>1.104188021140934E-05</v>
       </c>
       <c r="BQ6">
-        <v>5.37369692457753E-05</v>
+        <v>4.726138283949034E-05</v>
       </c>
       <c r="BR6">
-        <v>6.00295671574556E-05</v>
+        <v>5.356169467499826E-05</v>
       </c>
       <c r="BS6">
-        <v>4.724474233689689E-05</v>
+        <v>4.076119728705174E-05</v>
       </c>
       <c r="BT6">
-        <v>0.0002457694965505047</v>
+        <v>0.0002395293175719379</v>
       </c>
       <c r="BU6">
-        <v>0.0002316474367487147</v>
+        <v>0.0002253899459229381</v>
       </c>
       <c r="BV6">
-        <v>5.910929717037204E-05</v>
+        <v>5.264029655408495E-05</v>
       </c>
       <c r="BW6">
-        <v>2.749878961404101E-05</v>
+        <v>2.099103854033326E-05</v>
       </c>
       <c r="BX6">
-        <v>3.148973655802611E-05</v>
+        <v>2.498687787711989E-05</v>
       </c>
       <c r="BY6">
-        <v>6.236132912472818E-05</v>
+        <v>5.589631508554851E-05</v>
       </c>
       <c r="BZ6">
-        <v>1.022114285654125E-05</v>
+        <v>3.692211587804599E-06</v>
       </c>
       <c r="CA6">
-        <v>2.05423607116779E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1.463600079457656E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>1.857538673928534E-05</v>
+        <v>1.205669670983544E-05</v>
       </c>
       <c r="CD6">
-        <v>7.092175900457836E-07</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>2.372876966695509E-05</v>
+        <v>1.721639702881424E-05</v>
       </c>
       <c r="CF6">
-        <v>2.372876966695509E-05</v>
+        <v>1.721639702881424E-05</v>
       </c>
       <c r="CG6">
-        <v>7.00708130165218E-07</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>6.86831590359982E-06</v>
+        <v>3.35274495921323E-07</v>
       </c>
       <c r="CI6">
-        <v>3.065781956970248E-05</v>
+        <v>2.415394106449333E-05</v>
       </c>
       <c r="CJ6">
-        <v>3.098880556505692E-05</v>
+        <v>2.448533280653491E-05</v>
       </c>
       <c r="CK6">
-        <v>1.435017479858826E-05</v>
+        <v>7.826305197278929E-06</v>
       </c>
       <c r="CL6">
-        <v>6.322586911259394E-05</v>
+        <v>5.676191488936086E-05</v>
       </c>
       <c r="CM6">
-        <v>0.001069471684989441</v>
+        <v>0.001064241260015093</v>
       </c>
       <c r="CN6">
-        <v>0.03884208945483224</v>
+        <v>0.03888316344980271</v>
       </c>
       <c r="CO6">
-        <v>0.002355286566942399</v>
+        <v>0.0023516323872955</v>
       </c>
       <c r="CP6">
-        <v>0.05185296927221816</v>
+        <v>0.05190999294921985</v>
       </c>
       <c r="CQ6">
-        <v>0.008989798873823767</v>
+        <v>0.008994277761518368</v>
       </c>
       <c r="CR6">
-        <v>0.002453219965567855</v>
+        <v>0.002449685839798192</v>
       </c>
       <c r="CS6">
-        <v>0.002549113464221943</v>
+        <v>0.002545696891671882</v>
       </c>
       <c r="CT6">
-        <v>1.883322273566649E-05</v>
+        <v>1.23148487803189E-05</v>
       </c>
       <c r="CU6">
-        <v>0.01982318972177182</v>
+        <v>0.01984094896727234</v>
       </c>
       <c r="CV6">
-        <v>0.015774653778595</v>
+        <v>0.01578745003451358</v>
       </c>
       <c r="CW6">
-        <v>0.01106870534464529</v>
+        <v>0.01107573270697402</v>
       </c>
       <c r="CX6">
-        <v>0.09613696865067053</v>
+        <v>0.0962482788724002</v>
       </c>
       <c r="CY6">
-        <v>0.03253732554332268</v>
+        <v>0.03257067070049879</v>
       </c>
       <c r="CZ6">
-        <v>0.0002718127961849742</v>
+        <v>0.0002656045429757669</v>
       </c>
       <c r="DA6">
-        <v>0.007223745898611186</v>
+        <v>0.007226059830222857</v>
       </c>
       <c r="DB6">
-        <v>0.00228304316795637</v>
+        <v>0.002279300427100787</v>
       </c>
       <c r="DC6">
-        <v>0.09493606366752581</v>
+        <v>0.09504590173265272</v>
       </c>
       <c r="DD6">
-        <v>0.0188409667355578</v>
+        <v>0.01885752190073987</v>
       </c>
       <c r="DE6">
-        <v>0.06510237508625626</v>
+        <v>0.06517564084779046</v>
       </c>
       <c r="DF6">
-        <v>0.0008722040877581882</v>
+        <v>0.0008667318378269537</v>
       </c>
       <c r="DG6">
-        <v>0.05862213917720955</v>
+        <v>0.05868746099462259</v>
       </c>
       <c r="DH6">
-        <v>0.007986030887912141</v>
+        <v>0.007989279283861901</v>
       </c>
       <c r="DI6">
-        <v>0.02356023466932056</v>
+        <v>0.02358257505610332</v>
       </c>
       <c r="DJ6">
-        <v>0.03061819757025859</v>
+        <v>0.03064919012089485</v>
       </c>
       <c r="DK6">
-        <v>0.02905645759217838</v>
+        <v>0.02908553564845181</v>
       </c>
       <c r="DL6">
-        <v>0.0001519920778667167</v>
+        <v>0.0001456369397131589</v>
       </c>
       <c r="DM6">
-        <v>0.002847865960028806</v>
+        <v>0.002844815619999606</v>
       </c>
       <c r="DN6">
-        <v>0.0004764442233128719</v>
+        <v>0.0004704868221783969</v>
       </c>
       <c r="DO6">
-        <v>0.003371575052678292</v>
+        <v>0.003369166713314832</v>
       </c>
       <c r="DP6">
-        <v>0.005385656324409674</v>
+        <v>0.005385716992240196</v>
       </c>
       <c r="DQ6">
-        <v>0.0006474181309131692</v>
+        <v>0.0006416703220199672</v>
       </c>
       <c r="DR6">
-        <v>0.005092253328527729</v>
+        <v>0.005091954321643165</v>
       </c>
       <c r="DS6">
-        <v>0.0031280489560963</v>
+        <v>0.003125342084745664</v>
       </c>
       <c r="DT6">
-        <v>0.0004017594943611086</v>
+        <v>0.0003957105392582559</v>
       </c>
       <c r="DU6">
-        <v>0.0001589294577693472</v>
+        <v>0.0001525828239602403</v>
       </c>
       <c r="DV6">
-        <v>0.002954903958526475</v>
+        <v>0.0029519848334547</v>
       </c>
       <c r="DW6">
-        <v>0.008307080883406048</v>
+        <v>0.008310722845772231</v>
       </c>
       <c r="DX6">
-        <v>7.383036296375466E-05</v>
+        <v>6.737940849975401E-05</v>
       </c>
       <c r="DY6">
-        <v>0.000521938592674336</v>
+        <v>0.0005160369618440765</v>
       </c>
       <c r="DZ6">
-        <v>0.003612860949291726</v>
+        <v>0.003610748395715516</v>
       </c>
       <c r="EA6">
-        <v>0.0133659528124023</v>
+        <v>0.01337579630762688</v>
       </c>
       <c r="EB6">
-        <v>0.002464542565408937</v>
+        <v>0.002461022319705016</v>
       </c>
       <c r="EC6">
-        <v>0.000204796057125587</v>
+        <v>0.0001985056499272745</v>
       </c>
       <c r="ED6">
-        <v>0.00105974568512595</v>
+        <v>0.001054503337314143</v>
       </c>
       <c r="EE6">
-        <v>0.009405249867992708</v>
+        <v>0.009410238045708395</v>
       </c>
       <c r="EF6">
-        <v>0.005348517524930935</v>
+        <v>0.005348532665322035</v>
       </c>
       <c r="EG6">
-        <v>0.0004174443941409634</v>
+        <v>0.0004114146667281432</v>
       </c>
       <c r="EH6">
-        <v>7.003670901700047E-05</v>
+        <v>6.358110401629235E-05</v>
       </c>
       <c r="EI6">
-        <v>0.001648533176862029</v>
+        <v>0.001644012607547062</v>
       </c>
       <c r="EJ6">
-        <v>0.002194184769203541</v>
+        <v>0.002190333099265082</v>
       </c>
       <c r="EK6">
-        <v>0.0004921878930919017</v>
+        <v>0.0004862497916919954</v>
       </c>
       <c r="EL6">
-        <v>0.01554217078185802</v>
+        <v>0.01555468204322375</v>
       </c>
       <c r="EM6">
-        <v>0.01244392282534345</v>
+        <v>0.0124526360292024</v>
       </c>
       <c r="EN6">
-        <v>0.001624824177194796</v>
+        <v>0.001620274543665012</v>
       </c>
       <c r="EO6">
-        <v>0.001393395980443005</v>
+        <v>0.001388562645410858</v>
       </c>
       <c r="EP6">
-        <v>0.007470729895144645</v>
+        <v>0.007473346597688551</v>
       </c>
       <c r="EQ6">
-        <v>0.01018895985699295</v>
+        <v>0.0101949087633684</v>
       </c>
       <c r="ER6">
-        <v>0.008820104876205504</v>
+        <v>0.008824375740665505</v>
       </c>
       <c r="ES6">
-        <v>0.009377343868384382</v>
+        <v>0.009382297836897712</v>
       </c>
       <c r="ET6">
-        <v>0.00224616166847402</v>
+        <v>0.00224237371559605</v>
       </c>
       <c r="EU6">
-        <v>0.003123038656166622</v>
+        <v>0.003120325642826215</v>
       </c>
       <c r="EV6">
-        <v>0.01140150883997424</v>
+        <v>0.01140894417701365</v>
       </c>
       <c r="EW6">
-        <v>0.01441743079764429</v>
+        <v>0.01442856327099816</v>
       </c>
       <c r="EX6">
-        <v>0.02061860971060771</v>
+        <v>0.0206373440397368</v>
       </c>
       <c r="EY6">
-        <v>0.0189721267337169</v>
+        <v>0.01898884268435662</v>
       </c>
       <c r="EZ6">
-        <v>0.007339890896981035</v>
+        <v>0.007342347207572415</v>
       </c>
       <c r="FA6">
-        <v>0.002744353361481656</v>
+        <v>0.002741176128186495</v>
       </c>
       <c r="FB6">
-        <v>0.0003423911351943726</v>
+        <v>0.0003362694020423244</v>
       </c>
       <c r="FC6">
-        <v>0.0008774940876839403</v>
+        <v>0.0008720283226190596</v>
       </c>
       <c r="FD6">
-        <v>8.131861385865339E-07</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.00630096491156287</v>
+        <v>0.006302147631178546</v>
       </c>
       <c r="FF6">
-        <v>0.01252385782422152</v>
+        <v>0.01253266901821128</v>
       </c>
       <c r="FG6">
-        <v>0.002498705964929437</v>
+        <v>0.002495227599203435</v>
       </c>
       <c r="FH6">
-        <v>2.358475066897647E-05</v>
+        <v>1.707220148188147E-05</v>
       </c>
       <c r="FI6">
-        <v>0.002935491458798939</v>
+        <v>0.002932548536474216</v>
       </c>
       <c r="FJ6">
-        <v>0.008606780879199614</v>
+        <v>0.008610790235601002</v>
       </c>
       <c r="FK6">
-        <v>0.01670526976553335</v>
+        <v>0.01671920683816019</v>
       </c>
       <c r="FL6">
-        <v>0.01015288485749929</v>
+        <v>0.01015878954051864</v>
       </c>
       <c r="FM6">
-        <v>8.753202877144508E-06</v>
+        <v>2.222472100900224E-06</v>
       </c>
       <c r="FN6">
-        <v>0.003938826244716643</v>
+        <v>0.003937113283088727</v>
       </c>
       <c r="FO6">
-        <v>0.005950253416485277</v>
+        <v>0.005951006208462724</v>
       </c>
       <c r="FP6">
-        <v>0.01240071182594993</v>
+        <v>0.01240937205862551</v>
       </c>
       <c r="FQ6">
-        <v>0.009818264862195841</v>
+        <v>0.009823759343706823</v>
       </c>
       <c r="FR6">
-        <v>0.002143285469917938</v>
+        <v>0.002139371403919366</v>
       </c>
       <c r="FS6">
-        <v>4.595465935500383E-05</v>
+        <v>3.946953282768414E-05</v>
       </c>
       <c r="FT6">
-        <v>0.0005039361929270085</v>
+        <v>0.0004980124934468345</v>
       </c>
       <c r="FU6">
-        <v>0.002801910260673816</v>
+        <v>0.002798803584808569</v>
       </c>
       <c r="FV6">
-        <v>0.0005079591928705437</v>
+        <v>0.0005020404250760676</v>
       </c>
       <c r="FW6">
-        <v>8.626695378920102E-05</v>
+        <v>7.983124500204947E-05</v>
       </c>
       <c r="FX6">
-        <v>0.001346324781103672</v>
+        <v>0.001341433742774529</v>
       </c>
       <c r="FY6">
-        <v>0.003375037752629691</v>
+        <v>0.003372633658095479</v>
       </c>
       <c r="FZ6">
-        <v>0.006116199914156136</v>
+        <v>0.006117156135410403</v>
       </c>
       <c r="GA6">
-        <v>0.001967204672389318</v>
+        <v>0.001963074753752661</v>
       </c>
       <c r="GB6">
-        <v>0.0004564831935930347</v>
+        <v>0.0004505013227776837</v>
       </c>
       <c r="GC6">
-        <v>0.0007018575901490847</v>
+        <v>0.0006961765171013407</v>
       </c>
       <c r="GD6">
-        <v>7.904185489060883E-05</v>
+        <v>7.259728905215143E-05</v>
       </c>
       <c r="GE6">
-        <v>0.001773884975102655</v>
+        <v>0.001769518071131772</v>
       </c>
       <c r="GF6">
-        <v>0.004700198234030414</v>
+        <v>0.004699418617518852</v>
       </c>
       <c r="GG6">
-        <v>0.003997046943899487</v>
+        <v>0.003995405353435753</v>
       </c>
       <c r="GH6">
-        <v>1.302711081715811E-05</v>
+        <v>6.501619307868154E-06</v>
       </c>
       <c r="GI6">
-        <v>8.654218878533796E-05</v>
+        <v>8.010681740124705E-05</v>
       </c>
       <c r="GJ6">
-        <v>6.85479230378963E-05</v>
+        <v>6.209049297513914E-05</v>
       </c>
       <c r="GK6">
-        <v>0.002299680967722851</v>
+        <v>0.002295958622691354</v>
       </c>
       <c r="GL6">
-        <v>0.001801182974719514</v>
+        <v>0.001796849534620413</v>
       </c>
       <c r="GM6">
-        <v>0.001304364981692598</v>
+        <v>0.001299422505991956</v>
       </c>
       <c r="GN6">
-        <v>0.001751358475418825</v>
+        <v>0.001746963956827542</v>
       </c>
       <c r="GO6">
-        <v>0.001780998375002815</v>
+        <v>0.001776640191154488</v>
       </c>
       <c r="GP6">
-        <v>0.00662928620695472</v>
+        <v>0.006630871406674669</v>
       </c>
       <c r="GQ6">
-        <v>0.004462792937362513</v>
+        <v>0.004461722292185133</v>
       </c>
       <c r="GR6">
-        <v>0.002069411770954791</v>
+        <v>0.002065407145207342</v>
       </c>
       <c r="GS6">
-        <v>0.001201331483138724</v>
+        <v>0.00119626270148771</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.719832982306476E-05</v>
+        <v>5.132812022675389E-05</v>
       </c>
       <c r="C2">
-        <v>6.81344037892355E-05</v>
+        <v>5.634341001304191E-05</v>
       </c>
       <c r="D2">
-        <v>7.097242578045646E-05</v>
+        <v>5.634341001304191E-05</v>
       </c>
       <c r="E2">
-        <v>7.102655504028902E-05</v>
+        <v>5.634341001304191E-05</v>
       </c>
       <c r="F2">
-        <v>7.695281602195693E-05</v>
+        <v>5.634341001304191E-05</v>
       </c>
       <c r="G2">
-        <v>0.0001044852259367892</v>
+        <v>7.797317910835886E-05</v>
       </c>
       <c r="H2">
-        <v>0.0001978228056480621</v>
+        <v>0.0001654800571867749</v>
       </c>
       <c r="I2">
-        <v>0.0003605973551445412</v>
+        <v>0.0003224998145746158</v>
       </c>
       <c r="J2">
-        <v>0.0005348576046054908</v>
+        <v>0.0004910178282643124</v>
       </c>
       <c r="K2">
-        <v>0.0007872573738247266</v>
+        <v>0.0007377607849930902</v>
       </c>
       <c r="L2">
-        <v>0.001023845833092872</v>
+        <v>0.0009686751466124631</v>
       </c>
       <c r="M2">
-        <v>0.001154271762689418</v>
+        <v>0.001093310920109785</v>
       </c>
       <c r="N2">
-        <v>0.001262840442353575</v>
+        <v>0.001196065549005234</v>
       </c>
       <c r="O2">
-        <v>0.001328824932149461</v>
+        <v>0.001256189434365076</v>
       </c>
       <c r="P2">
-        <v>0.001358383257058026</v>
+        <v>0.001279847333214415</v>
       </c>
       <c r="Q2">
-        <v>0.001385256343974898</v>
+        <v>0.001300817058530101</v>
       </c>
       <c r="R2">
-        <v>0.001403919498917166</v>
+        <v>0.001313567876651902</v>
       </c>
       <c r="S2">
-        <v>0.001405826466211267</v>
+        <v>0.001313567876651902</v>
       </c>
       <c r="T2">
-        <v>0.001406012247710693</v>
+        <v>0.001313567876651902</v>
       </c>
       <c r="U2">
-        <v>0.001409067229701242</v>
+        <v>0.001313567876651902</v>
       </c>
       <c r="V2">
-        <v>0.001432541520628628</v>
+        <v>0.001331135090363966</v>
       </c>
       <c r="W2">
-        <v>0.00148264478047364</v>
+        <v>0.00137536038417704</v>
       </c>
       <c r="X2">
-        <v>0.001539366072298181</v>
+        <v>0.001426210944900261</v>
       </c>
       <c r="Y2">
-        <v>0.001639084651989715</v>
+        <v>0.001520105798762664</v>
       </c>
       <c r="Z2">
-        <v>0.001744132481664763</v>
+        <v>0.001619335728623628</v>
       </c>
       <c r="AA2">
-        <v>0.001821123251426603</v>
+        <v>0.001690477926177762</v>
       </c>
       <c r="AB2">
-        <v>0.001876896457254076</v>
+        <v>0.001740379364442257</v>
       </c>
       <c r="AC2">
-        <v>0.001929261720092091</v>
+        <v>0.001786869134103521</v>
       </c>
       <c r="AD2">
-        <v>0.001963682055985617</v>
+        <v>0.00181539435916027</v>
       </c>
       <c r="AE2">
-        <v>0.001989670213905226</v>
+        <v>0.001835478188061202</v>
       </c>
       <c r="AF2">
-        <v>0.001996995359282566</v>
+        <v>0.001836878601738023</v>
       </c>
       <c r="AG2">
-        <v>0.002013867774230374</v>
+        <v>0.001847836722201868</v>
       </c>
       <c r="AH2">
-        <v>0.002027768429187375</v>
+        <v>0.001855819833902851</v>
       </c>
       <c r="AI2">
-        <v>0.002037684342156701</v>
+        <v>0.001859813847437177</v>
       </c>
       <c r="AJ2">
-        <v>0.002039361010151515</v>
+        <v>0.001859813847437177</v>
       </c>
       <c r="AK2">
-        <v>0.002043848428837633</v>
+        <v>0.001859813847437177</v>
       </c>
       <c r="AL2">
-        <v>0.00205411031680589</v>
+        <v>0.001864154214195428</v>
       </c>
       <c r="AM2">
-        <v>0.002055684123701022</v>
+        <v>0.001864154214195428</v>
       </c>
       <c r="AN2">
-        <v>0.002057103335696631</v>
+        <v>0.001864154214195428</v>
       </c>
       <c r="AO2">
-        <v>0.002071333487652612</v>
+        <v>0.001872467183106393</v>
       </c>
       <c r="AP2">
-        <v>0.002102635007555785</v>
+        <v>0.001897870182636937</v>
       </c>
       <c r="AQ2">
-        <v>0.002116392279513229</v>
+        <v>0.001905709754589944</v>
       </c>
       <c r="AR2">
-        <v>0.002143265366430101</v>
+        <v>0.00192667947990563</v>
       </c>
       <c r="AS2">
-        <v>0.00219016588328502</v>
+        <v>0.001967698529442519</v>
       </c>
       <c r="AT2">
-        <v>0.002258742547072888</v>
+        <v>0.002030417422597359</v>
       </c>
       <c r="AU2">
-        <v>0.002313290526904151</v>
+        <v>0.00207909229543043</v>
       </c>
       <c r="AV2">
-        <v>0.002346022556802899</v>
+        <v>0.002105927368811272</v>
       </c>
       <c r="AW2">
-        <v>0.002363609440748496</v>
+        <v>0.002117600739341001</v>
       </c>
       <c r="AX2">
-        <v>0.002383100774688202</v>
+        <v>0.002131180641837791</v>
       </c>
       <c r="AY2">
-        <v>0.002427721054550176</v>
+        <v>0.002169916961592867</v>
       </c>
       <c r="AZ2">
-        <v>0.002457970666456603</v>
+        <v>0.002194266903165256</v>
       </c>
       <c r="BA2">
-        <v>0.002481258518384565</v>
+        <v>0.00221164747406002</v>
       </c>
       <c r="BB2">
-        <v>0.002481683949313249</v>
+        <v>0.00221164747406002</v>
       </c>
       <c r="BC2">
-        <v>0.002484178127805534</v>
+        <v>0.00221164747406002</v>
       </c>
       <c r="BD2">
-        <v>0.002492383601780151</v>
+        <v>0.002213929178722385</v>
       </c>
       <c r="BE2">
-        <v>0.002522497776686997</v>
+        <v>0.002238143535233459</v>
       </c>
       <c r="BF2">
-        <v>0.002540424699631543</v>
+        <v>0.002250157316497808</v>
       </c>
       <c r="BG2">
-        <v>0.002574475202526212</v>
+        <v>0.002278312304248787</v>
       </c>
       <c r="BH2">
-        <v>0.002591088982474819</v>
+        <v>0.002289011506969819</v>
       </c>
       <c r="BI2">
-        <v>0.002595886416459979</v>
+        <v>0.002289011506969819</v>
       </c>
       <c r="BJ2">
-        <v>0.002599166348749833</v>
+        <v>0.002289011506969819</v>
       </c>
       <c r="BK2">
-        <v>0.002606663565026642</v>
+        <v>0.002290584179656565</v>
       </c>
       <c r="BL2">
-        <v>0.002611460999011802</v>
+        <v>0.002290584179656565</v>
       </c>
       <c r="BM2">
-        <v>0.002622607098977323</v>
+        <v>0.002295809725045738</v>
       </c>
       <c r="BN2">
-        <v>0.002651576172887711</v>
+        <v>0.002318877728718978</v>
       </c>
       <c r="BO2">
-        <v>0.00267086617882804</v>
+        <v>0.002332256083121638</v>
       </c>
       <c r="BP2">
-        <v>0.002704916681722709</v>
+        <v>0.002360411070872617</v>
       </c>
       <c r="BQ2">
-        <v>0.002715234667190792</v>
+        <v>0.002364807596457313</v>
       </c>
       <c r="BR2">
-        <v>0.002724370409162531</v>
+        <v>0.002368020586099558</v>
       </c>
       <c r="BS2">
-        <v>0.002726765762855122</v>
+        <v>0.002368020586099558</v>
       </c>
       <c r="BT2">
-        <v>0.002727388600553195</v>
+        <v>0.002368020586099558</v>
       </c>
       <c r="BU2">
-        <v>0.002728884111148569</v>
+        <v>0.002368020586099558</v>
       </c>
       <c r="BV2">
-        <v>0.002728915863898471</v>
+        <v>0.002368020586099558</v>
       </c>
       <c r="BW2">
-        <v>0.002730001693395112</v>
+        <v>0.002368020586099558</v>
       </c>
       <c r="BX2">
-        <v>0.002730004374319204</v>
+        <v>0.002368020586099558</v>
       </c>
       <c r="BY2">
-        <v>0.002731349285515043</v>
+        <v>0.002368020586099558</v>
       </c>
       <c r="BZ2">
-        <v>0.002737746152795255</v>
+        <v>0.002368491706871881</v>
       </c>
       <c r="CA2">
-        <v>0.002749045414760302</v>
+        <v>0.002373870581699547</v>
       </c>
       <c r="CB2">
-        <v>0.002786004134645976</v>
+        <v>0.002404936965747435</v>
       </c>
       <c r="CC2">
-        <v>0.002825701634523177</v>
+        <v>0.002438745123861718</v>
       </c>
       <c r="CD2">
-        <v>0.002872602151378096</v>
+        <v>0.002479764173398607</v>
       </c>
       <c r="CE2">
-        <v>0.002934543026186491</v>
+        <v>0.002535840023231139</v>
       </c>
       <c r="CF2">
-        <v>0.003018172975927793</v>
+        <v>0.002613628658814663</v>
       </c>
       <c r="CG2">
-        <v>0.003102381955667304</v>
+        <v>0.002691996957400569</v>
       </c>
       <c r="CH2">
-        <v>0.00315739776549712</v>
+        <v>0.002741140171670879</v>
       </c>
       <c r="CI2">
-        <v>0.003205605885347994</v>
+        <v>0.002783468253694694</v>
       </c>
       <c r="CJ2">
-        <v>0.003268045225154847</v>
+        <v>0.002840043113455006</v>
       </c>
       <c r="CK2">
-        <v>0.003320284024993253</v>
+        <v>0.002886406281865437</v>
       </c>
       <c r="CL2">
-        <v>0.01768254998056554</v>
+        <v>0.01725844053972846</v>
       </c>
       <c r="CM2">
-        <v>0.04431093989819424</v>
+        <v>0.04391000826811071</v>
       </c>
       <c r="CN2">
-        <v>0.09337314674642699</v>
+        <v>0.09301991790816802</v>
       </c>
       <c r="CO2">
-        <v>0.1591200665430478</v>
+        <v>0.1588327804720265</v>
       </c>
       <c r="CP2">
-        <v>0.1594856876419168</v>
+        <v>0.1591928685336402</v>
       </c>
       <c r="CQ2">
-        <v>0.1595093839698435</v>
+        <v>0.1592106580270857</v>
       </c>
       <c r="CR2">
-        <v>0.1596203432035003</v>
+        <v>0.1593158058233628</v>
       </c>
       <c r="CS2">
-        <v>0.1699080161716768</v>
+        <v>0.1696087926884028</v>
       </c>
       <c r="CT2">
-        <v>0.1703299736703715</v>
+        <v>0.1700252787376293</v>
       </c>
       <c r="CU2">
-        <v>0.208669953551772</v>
+        <v>0.2084012397134627</v>
       </c>
       <c r="CV2">
-        <v>0.2282627634911643</v>
+        <v>0.22800953606333</v>
       </c>
       <c r="CW2">
-        <v>0.3235499231964065</v>
+        <v>0.3233949323637764</v>
       </c>
       <c r="CX2">
-        <v>0.325259536191118</v>
+        <v>0.3251004815930871</v>
       </c>
       <c r="CY2">
-        <v>0.3263205966878358</v>
+        <v>0.3261567693172037</v>
       </c>
       <c r="CZ2">
-        <v>0.3535054016037433</v>
+        <v>0.3533653603249853</v>
       </c>
       <c r="DA2">
-        <v>0.3906014914889916</v>
+        <v>0.3904960714656919</v>
       </c>
       <c r="DB2">
-        <v>0.4917704661760392</v>
+        <v>0.4917697128352329</v>
       </c>
       <c r="DC2">
-        <v>0.5047055691360263</v>
+        <v>0.5047130239017775</v>
       </c>
       <c r="DD2">
-        <v>0.5437175060153482</v>
+        <v>0.5437616764688789</v>
       </c>
       <c r="DE2">
-        <v>0.579231968905489</v>
+        <v>0.579309031556412</v>
       </c>
       <c r="DF2">
-        <v>0.6052445158250227</v>
+        <v>0.6053440830380088</v>
       </c>
       <c r="DG2">
-        <v>0.6322940087413488</v>
+        <v>0.6324172141211261</v>
       </c>
       <c r="DH2">
-        <v>0.6343317835350452</v>
+        <v>0.6344512839007628</v>
       </c>
       <c r="DI2">
-        <v>0.6756182594073311</v>
+        <v>0.6757769620205571</v>
       </c>
       <c r="DJ2">
-        <v>0.6829823149845514</v>
+        <v>0.6831431353527899</v>
       </c>
       <c r="DK2">
-        <v>0.683011190011462</v>
+        <v>0.6831661092066499</v>
       </c>
       <c r="DL2">
-        <v>0.6878148059966027</v>
+        <v>0.6879690438363029</v>
       </c>
       <c r="DM2">
-        <v>0.6943198579764802</v>
+        <v>0.6944752744957323</v>
       </c>
       <c r="DN2">
-        <v>0.6953583912732677</v>
+        <v>0.6955090103928498</v>
       </c>
       <c r="DO2">
-        <v>0.6969525633683363</v>
+        <v>0.6970989925208158</v>
       </c>
       <c r="DP2">
-        <v>0.7019971517527316</v>
+        <v>0.7021431629843207</v>
       </c>
       <c r="DQ2">
-        <v>0.7062742832395008</v>
+        <v>0.7064190375549477</v>
       </c>
       <c r="DR2">
-        <v>0.7071833637866887</v>
+        <v>0.7073231791828016</v>
       </c>
       <c r="DS2">
-        <v>0.7071885456563727</v>
+        <v>0.7073231791828016</v>
       </c>
       <c r="DT2">
-        <v>0.7089883233508053</v>
+        <v>0.7091189916812192</v>
       </c>
       <c r="DU2">
-        <v>0.7171145513256679</v>
+        <v>0.7172481706292525</v>
       </c>
       <c r="DV2">
-        <v>0.7192068995191956</v>
+        <v>0.7193368734691696</v>
       </c>
       <c r="DW2">
-        <v>0.7200707115665235</v>
+        <v>0.7201956971089688</v>
       </c>
       <c r="DX2">
-        <v>0.7213953948624258</v>
+        <v>0.7215158958286201</v>
       </c>
       <c r="DY2">
-        <v>0.7322567958288275</v>
+        <v>0.7323832378998339</v>
       </c>
       <c r="DZ2">
-        <v>0.7383881388098611</v>
+        <v>0.7385153510162046</v>
       </c>
       <c r="EA2">
-        <v>0.738449583223671</v>
+        <v>0.7385709298623001</v>
       </c>
       <c r="EB2">
-        <v>0.7388885885223131</v>
+        <v>0.7390044823483813</v>
       </c>
       <c r="EC2">
-        <v>0.7431806561090362</v>
+        <v>0.7432953093473279</v>
       </c>
       <c r="ED2">
-        <v>0.7511308890844433</v>
+        <v>0.7512483008955645</v>
       </c>
       <c r="EE2">
-        <v>0.754817883073038</v>
+        <v>0.7549333928209599</v>
       </c>
       <c r="EF2">
-        <v>0.7551355664020553</v>
+        <v>0.7552454907064416</v>
       </c>
       <c r="EG2">
-        <v>0.7553159992214971</v>
+        <v>0.7554201880380572</v>
       </c>
       <c r="EH2">
-        <v>0.7575922792144557</v>
+        <v>0.7576930237543739</v>
       </c>
       <c r="EI2">
-        <v>0.7584321097618578</v>
+        <v>0.7585278396773162</v>
       </c>
       <c r="EJ2">
-        <v>0.7620784949505782</v>
+        <v>0.7621722784086955</v>
       </c>
       <c r="EK2">
-        <v>0.7739118719139733</v>
+        <v>0.7740126590554645</v>
       </c>
       <c r="EL2">
-        <v>0.7764763613060404</v>
+        <v>0.776574019245675</v>
       </c>
       <c r="EM2">
-        <v>0.7765220903718989</v>
+        <v>0.7766138655635679</v>
       </c>
       <c r="EN2">
-        <v>0.7771092079400828</v>
+        <v>0.7771956922377187</v>
       </c>
       <c r="EO2">
-        <v>0.783932431918976</v>
+        <v>0.7840204427265076</v>
       </c>
       <c r="EP2">
-        <v>0.7922496993932476</v>
+        <v>0.7923408700211614</v>
       </c>
       <c r="EQ2">
-        <v>0.8007369173669936</v>
+        <v>0.8008314336076936</v>
       </c>
       <c r="ER2">
-        <v>0.807402685946374</v>
+        <v>0.8074985565643938</v>
       </c>
       <c r="ES2">
-        <v>0.8074074833803592</v>
+        <v>0.8074985565643938</v>
       </c>
       <c r="ET2">
-        <v>0.8130475491629124</v>
+        <v>0.8131388554107716</v>
       </c>
       <c r="EU2">
-        <v>0.8196735209424159</v>
+        <v>0.8197661380611436</v>
       </c>
       <c r="EV2">
-        <v>0.8326417854023003</v>
+        <v>0.8327426468802287</v>
       </c>
       <c r="EW2">
-        <v>0.8464386513596216</v>
+        <v>0.846548663036185</v>
       </c>
       <c r="EX2">
-        <v>0.85432701133522</v>
+        <v>0.8544397139441329</v>
       </c>
       <c r="EY2">
-        <v>0.8551631823726334</v>
+        <v>0.855270866356456</v>
       </c>
       <c r="EZ2">
-        <v>0.8551854476725645</v>
+        <v>0.855287223257485</v>
       </c>
       <c r="FA2">
-        <v>0.8552613332123298</v>
+        <v>0.8553572590167887</v>
       </c>
       <c r="FB2">
-        <v>0.8555711793113713</v>
+        <v>0.8556615111045187</v>
       </c>
       <c r="FC2">
-        <v>0.8582467431030948</v>
+        <v>0.8583340671225652</v>
       </c>
       <c r="FD2">
-        <v>0.8702410990659919</v>
+        <v>0.8703356027534637</v>
       </c>
       <c r="FE2">
-        <v>0.8758703633485785</v>
+        <v>0.875965088291515</v>
       </c>
       <c r="FF2">
-        <v>0.8758823695245413</v>
+        <v>0.8759711748531493</v>
       </c>
       <c r="FG2">
-        <v>0.8760731346439512</v>
+        <v>0.8761562157801563</v>
       </c>
       <c r="FH2">
-        <v>0.8799429443319805</v>
+        <v>0.8800243232618177</v>
       </c>
       <c r="FI2">
-        <v>0.8915618592960389</v>
+        <v>0.8916500074562147</v>
       </c>
       <c r="FJ2">
-        <v>0.9034916932591356</v>
+        <v>0.9035869505509065</v>
       </c>
       <c r="FK2">
-        <v>0.904127780117168</v>
+        <v>0.904217800048859</v>
       </c>
       <c r="FL2">
-        <v>0.9069277218085068</v>
+        <v>0.9070148699382835</v>
       </c>
       <c r="FM2">
-        <v>0.9129441242898959</v>
+        <v>0.9130319169003525</v>
       </c>
       <c r="FN2">
-        <v>0.9214640412635408</v>
+        <v>0.9215552152338147</v>
       </c>
       <c r="FO2">
-        <v>0.9367154002163628</v>
+        <v>0.9368173144585658</v>
       </c>
       <c r="FP2">
-        <v>0.9427220014977822</v>
+        <v>0.942824549505848</v>
       </c>
       <c r="FQ2">
-        <v>0.9435654995351729</v>
+        <v>0.9436630369281335</v>
       </c>
       <c r="FR2">
-        <v>0.9437004957047553</v>
+        <v>0.9437922479378708</v>
       </c>
       <c r="FS2">
-        <v>0.9452552337999459</v>
+        <v>0.9453427529561257</v>
       </c>
       <c r="FT2">
-        <v>0.9476424011925615</v>
+        <v>0.9477265972958476</v>
       </c>
       <c r="FU2">
-        <v>0.9479634732915683</v>
+        <v>0.9480420876559724</v>
       </c>
       <c r="FV2">
-        <v>0.9484249055601409</v>
+        <v>0.9484980916294801</v>
       </c>
       <c r="FW2">
-        <v>0.9501547629547898</v>
+        <v>0.9502239073902062</v>
       </c>
       <c r="FX2">
-        <v>0.9550331414396992</v>
+        <v>0.9551016862511004</v>
       </c>
       <c r="FY2">
-        <v>0.9587768604281185</v>
+        <v>0.9588435651889307</v>
       </c>
       <c r="FZ2">
-        <v>0.9589048912677225</v>
+        <v>0.9589658032540875</v>
       </c>
       <c r="GA2">
-        <v>0.9591236266070459</v>
+        <v>0.9591788449784668</v>
       </c>
       <c r="GB2">
-        <v>0.9591349258690109</v>
+        <v>0.9591842238532945</v>
       </c>
       <c r="GC2">
-        <v>0.9602403645655915</v>
+        <v>0.9602849382921794</v>
       </c>
       <c r="GD2">
-        <v>0.9660192035477154</v>
+        <v>0.9660641620470458</v>
       </c>
       <c r="GE2">
-        <v>0.9740356455229177</v>
+        <v>0.9740834349757372</v>
       </c>
       <c r="GF2">
-        <v>0.9753360327188951</v>
+        <v>0.9753793110346072</v>
       </c>
       <c r="GG2">
-        <v>0.9754265082286152</v>
+        <v>0.9754639527138371</v>
       </c>
       <c r="GH2">
-        <v>0.9761036211265206</v>
+        <v>0.9761358731019374</v>
       </c>
       <c r="GI2">
-        <v>0.9761565980263567</v>
+        <v>0.9761829751772474</v>
       </c>
       <c r="GJ2">
-        <v>0.9785975952188057</v>
+        <v>0.9786207081643377</v>
       </c>
       <c r="GK2">
-        <v>0.9786023926527909</v>
+        <v>0.9786207081643377</v>
       </c>
       <c r="GL2">
-        <v>0.9809263356456022</v>
+        <v>0.9809412589864045</v>
       </c>
       <c r="GM2">
-        <v>0.9809594302984997</v>
+        <v>0.9809684570792091</v>
       </c>
       <c r="GN2">
-        <v>0.9863569052818034</v>
+        <v>0.986365899922481</v>
       </c>
       <c r="GO2">
-        <v>0.9948768222554483</v>
+        <v>0.9948891982559432</v>
       </c>
       <c r="GP2">
-        <v>0.9981742564452482</v>
+        <v>0.9981843045099995</v>
       </c>
       <c r="GQ2">
-        <v>0.9995197252410861</v>
+        <v>0.9995253114526029</v>
       </c>
       <c r="GR2">
-        <v>0.999999821679601</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.70869995558347E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.023476964838544E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.380925271281428E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.717396876913872E-05</v>
+        <v>9.828924993558035E-06</v>
       </c>
       <c r="F3">
-        <v>9.705710416359133E-05</v>
+        <v>6.686023697330499E-05</v>
       </c>
       <c r="G3">
-        <v>0.0001771801038832004</v>
+        <v>0.0001341558321407654</v>
       </c>
       <c r="H3">
-        <v>0.0005375360501344607</v>
+        <v>0.0004823526414641356</v>
       </c>
       <c r="I3">
-        <v>0.0006893001201326682</v>
+        <v>0.0006214601483777198</v>
       </c>
       <c r="J3">
-        <v>0.0006959414996949777</v>
+        <v>0.0006214601483777198</v>
       </c>
       <c r="K3">
-        <v>0.0008730754180212219</v>
+        <v>0.0007859980027450853</v>
       </c>
       <c r="L3">
-        <v>0.001068999135109151</v>
+        <v>0.000969370463646863</v>
       </c>
       <c r="M3">
-        <v>0.001071186965664966</v>
+        <v>0.000969370463646863</v>
       </c>
       <c r="N3">
-        <v>0.001072251702894796</v>
+        <v>0.000969370463646863</v>
       </c>
       <c r="O3">
-        <v>0.001099383311106726</v>
+        <v>0.000983548299469646</v>
       </c>
       <c r="P3">
-        <v>0.001144035085164015</v>
+        <v>0.001015288081234493</v>
       </c>
       <c r="Q3">
-        <v>0.001157022586808092</v>
+        <v>0.001015288081234493</v>
       </c>
       <c r="R3">
-        <v>0.001158087324037922</v>
+        <v>0.001015288081234493</v>
       </c>
       <c r="S3">
-        <v>0.001160064428507624</v>
+        <v>0.001015288081234493</v>
       </c>
       <c r="T3">
-        <v>0.001183210395982222</v>
+        <v>0.001025470771817709</v>
       </c>
       <c r="U3">
-        <v>0.001245453131880205</v>
+        <v>0.001074843464346183</v>
       </c>
       <c r="V3">
-        <v>0.001340722025601645</v>
+        <v>0.001157321071719017</v>
       </c>
       <c r="W3">
-        <v>0.001405854801309164</v>
+        <v>0.001209590695894912</v>
       </c>
       <c r="X3">
-        <v>0.001485341536070705</v>
+        <v>0.001276248508812076</v>
       </c>
       <c r="Y3">
-        <v>0.001492174046320418</v>
+        <v>0.001276248508812076</v>
       </c>
       <c r="Z3">
-        <v>0.001624955937569619</v>
+        <v>0.001396328570438037</v>
       </c>
       <c r="AA3">
-        <v>0.001815193225032304</v>
+        <v>0.001574001041364643</v>
       </c>
       <c r="AB3">
-        <v>0.001835309163706592</v>
+        <v>0.001581146477479857</v>
       </c>
       <c r="AC3">
-        <v>0.001909090168844162</v>
+        <v>0.001642084954398682</v>
       </c>
       <c r="AD3">
-        <v>0.00249759633005951</v>
+        <v>0.002218976045342168</v>
       </c>
       <c r="AE3">
-        <v>0.002671865948574522</v>
+        <v>0.002380642769442234</v>
       </c>
       <c r="AF3">
-        <v>0.002677784590484462</v>
+        <v>0.002380642769442234</v>
       </c>
       <c r="AG3">
-        <v>0.002683880759382703</v>
+        <v>0.002380642769442234</v>
       </c>
       <c r="AH3">
-        <v>0.00273400677807922</v>
+        <v>0.00241786985020164</v>
       </c>
       <c r="AI3">
-        <v>0.002864834479457208</v>
+        <v>0.002535991061826883</v>
       </c>
       <c r="AJ3">
-        <v>0.002990738511159685</v>
+        <v>0.002649176862369768</v>
       </c>
       <c r="AK3">
-        <v>0.003074136070663488</v>
+        <v>0.002719754826118763</v>
       </c>
       <c r="AL3">
-        <v>0.003313459094891249</v>
+        <v>0.002946630087886701</v>
       </c>
       <c r="AM3">
-        <v>0.003480771563864762</v>
+        <v>0.003101323071827165</v>
       </c>
       <c r="AN3">
-        <v>0.003631644613921691</v>
+        <v>0.003239537433996564</v>
       </c>
       <c r="AO3">
-        <v>0.003831644730740971</v>
+        <v>0.003426996015563643</v>
       </c>
       <c r="AP3">
-        <v>0.00387374459796644</v>
+        <v>0.003456177804999811</v>
       </c>
       <c r="AQ3">
-        <v>0.00388281482836868</v>
+        <v>0.003456177804999811</v>
       </c>
       <c r="AR3">
-        <v>0.003993496077074391</v>
+        <v>0.003554104520986269</v>
       </c>
       <c r="AS3">
-        <v>0.004153397206536337</v>
+        <v>0.003701368491696536</v>
       </c>
       <c r="AT3">
-        <v>0.004155916336870317</v>
+        <v>0.003701368491696536</v>
       </c>
       <c r="AU3">
-        <v>0.004157568525061432</v>
+        <v>0.003701368491696536</v>
       </c>
       <c r="AV3">
-        <v>0.004385452720043053</v>
+        <v>0.003916777646200745</v>
       </c>
       <c r="AW3">
-        <v>0.004439232746498757</v>
+        <v>0.003957667448381007</v>
       </c>
       <c r="AX3">
-        <v>0.004483401826587858</v>
+        <v>0.003988923385104048</v>
       </c>
       <c r="AY3">
-        <v>0.004517045688370608</v>
+        <v>0.004009629004178497</v>
       </c>
       <c r="AZ3">
-        <v>0.004571893324755954</v>
+        <v>0.004051588962203005</v>
       </c>
       <c r="BA3">
-        <v>0.004599918796908975</v>
+        <v>0.004066662793551832</v>
       </c>
       <c r="BB3">
-        <v>0.004619711181604587</v>
+        <v>0.004073483904113681</v>
       </c>
       <c r="BC3">
-        <v>0.004750552712981664</v>
+        <v>0.00419161897871822</v>
       </c>
       <c r="BD3">
-        <v>0.005106818319502492</v>
+        <v>0.004535715694134685</v>
       </c>
       <c r="BE3">
-        <v>0.005204219979083376</v>
+        <v>0.004620331153344152</v>
       </c>
       <c r="BF3">
-        <v>0.00526308123520421</v>
+        <v>0.004666314302327512</v>
       </c>
       <c r="BG3">
-        <v>0.005669777508401478</v>
+        <v>0.005060961945732395</v>
       </c>
       <c r="BH3">
-        <v>0.006007159916166776</v>
+        <v>0.005386130431890932</v>
       </c>
       <c r="BI3">
-        <v>0.006059018605749104</v>
+        <v>0.0054250943154124</v>
       </c>
       <c r="BJ3">
-        <v>0.006091009748640774</v>
+        <v>0.005444143274379932</v>
       </c>
       <c r="BK3">
-        <v>0.006274972436516978</v>
+        <v>0.005615526182769373</v>
       </c>
       <c r="BL3">
-        <v>0.006278681136472562</v>
+        <v>0.005615526182769373</v>
       </c>
       <c r="BM3">
-        <v>0.006289342640769931</v>
+        <v>0.005615526182769373</v>
       </c>
       <c r="BN3">
-        <v>0.006326438853325158</v>
+        <v>0.005639692385389346</v>
       </c>
       <c r="BO3">
-        <v>0.006370607933414259</v>
+        <v>0.005670948322112387</v>
       </c>
       <c r="BP3">
-        <v>0.006389335527180044</v>
+        <v>0.005676702102552234</v>
       </c>
       <c r="BQ3">
-        <v>0.006489605480571897</v>
+        <v>0.005764192695553174</v>
       </c>
       <c r="BR3">
-        <v>0.006538711100335662</v>
+        <v>0.005800396944048634</v>
       </c>
       <c r="BS3">
-        <v>0.006661385132251006</v>
+        <v>0.005910345042268655</v>
       </c>
       <c r="BT3">
-        <v>0.007182778397889333</v>
+        <v>0.006419963194443055</v>
       </c>
       <c r="BU3">
-        <v>0.007962102906529074</v>
+        <v>0.007188127674679766</v>
       </c>
       <c r="BV3">
-        <v>0.008588661765236615</v>
+        <v>0.007803162206855837</v>
       </c>
       <c r="BW3">
-        <v>0.008881477915938988</v>
+        <v>0.008083658159415809</v>
       </c>
       <c r="BX3">
-        <v>0.009045063725158101</v>
+        <v>0.008234615596687998</v>
       </c>
       <c r="BY3">
-        <v>0.009341610055614642</v>
+        <v>0.008518850624310107</v>
       </c>
       <c r="BZ3">
-        <v>0.009648641835380153</v>
+        <v>0.008813596105746852</v>
       </c>
       <c r="CA3">
-        <v>0.009656249329278792</v>
+        <v>0.008813596105746852</v>
       </c>
       <c r="CB3">
-        <v>0.009670574788334694</v>
+        <v>0.008814937253767176</v>
       </c>
       <c r="CC3">
-        <v>0.009679076147774425</v>
+        <v>0.008814937253767176</v>
       </c>
       <c r="CD3">
-        <v>0.009752857152911994</v>
+        <v>0.008875875730686001</v>
       </c>
       <c r="CE3">
-        <v>0.009960457119230418</v>
+        <v>0.009070952285008009</v>
       </c>
       <c r="CF3">
-        <v>0.01006366153642888</v>
+        <v>0.009161384339590732</v>
       </c>
       <c r="CG3">
-        <v>0.01006958017833882</v>
+        <v>0.009161384339590732</v>
       </c>
       <c r="CH3">
-        <v>0.01010726694085513</v>
+        <v>0.009186142500448094</v>
       </c>
       <c r="CI3">
-        <v>0.01036178289408162</v>
+        <v>0.009428246921582012</v>
       </c>
       <c r="CJ3">
-        <v>0.01065009252508099</v>
+        <v>0.009704225607803893</v>
       </c>
       <c r="CK3">
-        <v>0.0109222369271457</v>
+        <v>0.009964000516093689</v>
       </c>
       <c r="CL3">
-        <v>0.04922788440266716</v>
+        <v>0.04834797646556922</v>
       </c>
       <c r="CM3">
-        <v>0.05340460882740616</v>
+        <v>0.05252164259440555</v>
       </c>
       <c r="CN3">
-        <v>0.1288682788540816</v>
+        <v>0.1281522513164945</v>
       </c>
       <c r="CO3">
-        <v>0.1503414434389236</v>
+        <v>0.1496636041865978</v>
       </c>
       <c r="CP3">
-        <v>0.1504393102924739</v>
+        <v>0.1497486859491182</v>
       </c>
       <c r="CQ3">
-        <v>0.1525576205528697</v>
+        <v>0.1518590292418782</v>
       </c>
       <c r="CR3">
-        <v>0.1636658538207976</v>
+        <v>0.1629807336869882</v>
       </c>
       <c r="CS3">
-        <v>0.1743455751169659</v>
+        <v>0.1736729042937777</v>
       </c>
       <c r="CT3">
-        <v>0.1743569579452157</v>
+        <v>0.1736729042937777</v>
       </c>
       <c r="CU3">
-        <v>0.1856055892038909</v>
+        <v>0.1849353415347779</v>
       </c>
       <c r="CV3">
-        <v>0.2038489980015853</v>
+        <v>0.2032092366638644</v>
       </c>
       <c r="CW3">
-        <v>0.2873346824995815</v>
+        <v>0.2868809898440186</v>
       </c>
       <c r="CX3">
-        <v>0.2898282724352451</v>
+        <v>0.2893675077362874</v>
       </c>
       <c r="CY3">
-        <v>0.2935809951879273</v>
+        <v>0.2931161610821553</v>
       </c>
       <c r="CZ3">
-        <v>0.3052585894183323</v>
+        <v>0.3048085842369396</v>
       </c>
       <c r="DA3">
-        <v>0.3298670857965448</v>
+        <v>0.3294627456826931</v>
       </c>
       <c r="DB3">
-        <v>0.3832139392807972</v>
+        <v>0.3829237961964347</v>
       </c>
       <c r="DC3">
-        <v>0.3982382162906439</v>
+        <v>0.3979708829187081</v>
       </c>
       <c r="DD3">
-        <v>0.4148097111985234</v>
+        <v>0.4145688771680953</v>
       </c>
       <c r="DE3">
-        <v>0.4735682643261256</v>
+        <v>0.4734545325303333</v>
       </c>
       <c r="DF3">
-        <v>0.4750323029296402</v>
+        <v>0.4749090439336585</v>
       </c>
       <c r="DG3">
-        <v>0.5266476945280022</v>
+        <v>0.5266345035683442</v>
       </c>
       <c r="DH3">
-        <v>0.530280186688608</v>
+        <v>0.5302626396099088</v>
       </c>
       <c r="DI3">
-        <v>0.5826335062383379</v>
+        <v>0.5827277869225221</v>
       </c>
       <c r="DJ3">
-        <v>0.5874343336219463</v>
+        <v>0.5875270442999053</v>
       </c>
       <c r="DK3">
-        <v>0.5929705812570879</v>
+        <v>0.5930634756753045</v>
       </c>
       <c r="DL3">
-        <v>0.5935170785210718</v>
+        <v>0.5935982576909814</v>
       </c>
       <c r="DM3">
-        <v>0.5937225964575275</v>
+        <v>0.5937912472504528</v>
       </c>
       <c r="DN3">
-        <v>0.6003478567208992</v>
+        <v>0.6004192882074056</v>
       </c>
       <c r="DO3">
-        <v>0.6029412907499827</v>
+        <v>0.6030058882899204</v>
       </c>
       <c r="DP3">
-        <v>0.6029852914970829</v>
+        <v>0.6030369754922332</v>
       </c>
       <c r="DQ3">
-        <v>0.6080368151641695</v>
+        <v>0.6080875269850479</v>
       </c>
       <c r="DR3">
-        <v>0.6080381998481783</v>
+        <v>0.6080875269850479</v>
       </c>
       <c r="DS3">
-        <v>0.6080681753662028</v>
+        <v>0.6081045555125155</v>
       </c>
       <c r="DT3">
-        <v>0.6093916005789844</v>
+        <v>0.6094181182063033</v>
       </c>
       <c r="DU3">
-        <v>0.6168346000884642</v>
+        <v>0.6168658484608126</v>
       </c>
       <c r="DV3">
-        <v>0.6186346525698344</v>
+        <v>0.6186571750296315</v>
       </c>
       <c r="DW3">
-        <v>0.6186516510157142</v>
+        <v>0.6186611955387102</v>
       </c>
       <c r="DX3">
-        <v>0.6191763850811324</v>
+        <v>0.6191741624574234</v>
       </c>
       <c r="DY3">
-        <v>0.631866615244801</v>
+        <v>0.6318816363643489</v>
       </c>
       <c r="DZ3">
-        <v>0.6367228074247607</v>
+        <v>0.636736390565746</v>
       </c>
       <c r="EA3">
-        <v>0.6376347634646595</v>
+        <v>0.6376375028618165</v>
       </c>
       <c r="EB3">
-        <v>0.6400995613022206</v>
+        <v>0.6400951599958655</v>
       </c>
       <c r="EC3">
-        <v>0.6424354345482782</v>
+        <v>0.6424235850937243</v>
       </c>
       <c r="ED3">
-        <v>0.6498931260567898</v>
+        <v>0.6498860423830718</v>
       </c>
       <c r="EE3">
-        <v>0.6514074761569888</v>
+        <v>0.6513909852602102</v>
       </c>
       <c r="EF3">
-        <v>0.6516970169679071</v>
+        <v>0.6516681980623287</v>
       </c>
       <c r="EG3">
-        <v>0.6527092919011945</v>
+        <v>0.6526698684808626</v>
       </c>
       <c r="EH3">
-        <v>0.6544333867875706</v>
+        <v>0.6543850563196631</v>
       </c>
       <c r="EI3">
-        <v>0.6544348014639774</v>
+        <v>0.6543850563196631</v>
       </c>
       <c r="EJ3">
-        <v>0.6703417504156528</v>
+        <v>0.6703169198793134</v>
       </c>
       <c r="EK3">
-        <v>0.6879067542580565</v>
+        <v>0.6879107922702133</v>
       </c>
       <c r="EL3">
-        <v>0.6929103436283022</v>
+        <v>0.6929132951579335</v>
       </c>
       <c r="EM3">
-        <v>0.6957942857382401</v>
+        <v>0.6957910960918975</v>
       </c>
       <c r="EN3">
-        <v>0.7029485236667503</v>
+        <v>0.7029493761596965</v>
       </c>
       <c r="EO3">
-        <v>0.7130305350023098</v>
+        <v>0.713042411455217</v>
       </c>
       <c r="EP3">
-        <v>0.7225461743751953</v>
+        <v>0.7225677241686925</v>
       </c>
       <c r="EQ3">
-        <v>0.7304180248564124</v>
+        <v>0.7304453280699085</v>
       </c>
       <c r="ER3">
-        <v>0.7349972195546272</v>
+        <v>0.7350224242375045</v>
       </c>
       <c r="ES3">
-        <v>0.7354382063255646</v>
+        <v>0.7354514441507243</v>
       </c>
       <c r="ET3">
-        <v>0.7476702715194279</v>
+        <v>0.74769966050819</v>
       </c>
       <c r="EU3">
-        <v>0.7677583911955493</v>
+        <v>0.7678226655721722</v>
       </c>
       <c r="EV3">
-        <v>0.7941792114543232</v>
+        <v>0.7942934727221307</v>
       </c>
       <c r="EW3">
-        <v>0.8203611817288382</v>
+        <v>0.8205248603055827</v>
       </c>
       <c r="EX3">
-        <v>0.8340692298254291</v>
+        <v>0.8342525793217506</v>
       </c>
       <c r="EY3">
-        <v>0.8397102530536655</v>
+        <v>0.8398940361471495</v>
       </c>
       <c r="EZ3">
-        <v>0.8413589982450074</v>
+        <v>0.8415336946055423</v>
       </c>
       <c r="FA3">
-        <v>0.8434606728064995</v>
+        <v>0.8436273625284779</v>
       </c>
       <c r="FB3">
-        <v>0.8441396862617501</v>
+        <v>0.8442949767449466</v>
       </c>
       <c r="FC3">
-        <v>0.8464778359076577</v>
+        <v>0.8466256836711545</v>
       </c>
       <c r="FD3">
-        <v>0.8574616001837885</v>
+        <v>0.8576226223049875</v>
       </c>
       <c r="FE3">
-        <v>0.8641045587459939</v>
+        <v>0.8642684037656619</v>
       </c>
       <c r="FF3">
-        <v>0.8648256982984682</v>
+        <v>0.8649782445368746</v>
       </c>
       <c r="FG3">
-        <v>0.8682998140695116</v>
+        <v>0.8684476265108952</v>
       </c>
       <c r="FH3">
-        <v>0.8771970004831554</v>
+        <v>0.8773530114489273</v>
       </c>
       <c r="FI3">
-        <v>0.9017560928646238</v>
+        <v>0.9019576510849102</v>
       </c>
       <c r="FJ3">
-        <v>0.9210613335923397</v>
+        <v>0.9212959102799073</v>
       </c>
       <c r="FK3">
-        <v>0.924885386940321</v>
+        <v>0.9251160643221563</v>
       </c>
       <c r="FL3">
-        <v>0.9248943159307325</v>
+        <v>0.9251160643221563</v>
       </c>
       <c r="FM3">
-        <v>0.9277447092428814</v>
+        <v>0.927960236454978</v>
       </c>
       <c r="FN3">
-        <v>0.9363708186743901</v>
+        <v>0.9365938979773523</v>
       </c>
       <c r="FO3">
-        <v>0.9498144317884081</v>
+        <v>0.9500565514165088</v>
       </c>
       <c r="FP3">
-        <v>0.9560544773771669</v>
+        <v>0.9562984590827522</v>
       </c>
       <c r="FQ3">
-        <v>0.956735379532293</v>
+        <v>0.9569679665030528</v>
       </c>
       <c r="FR3">
-        <v>0.9572684424571622</v>
+        <v>0.9574892821429328</v>
       </c>
       <c r="FS3">
-        <v>0.9602294566620209</v>
+        <v>0.9604443389645742</v>
       </c>
       <c r="FT3">
-        <v>0.9617185447638846</v>
+        <v>0.9619239596014401</v>
       </c>
       <c r="FU3">
-        <v>0.9617201969520758</v>
+        <v>0.9619239596014401</v>
       </c>
       <c r="FV3">
-        <v>0.9618594406428991</v>
+        <v>0.962050516872004</v>
       </c>
       <c r="FW3">
-        <v>0.9633114484472066</v>
+        <v>0.963492968786442</v>
       </c>
       <c r="FX3">
-        <v>0.9664985910371626</v>
+        <v>0.966674693238407</v>
       </c>
       <c r="FY3">
-        <v>0.9686806593933566</v>
+        <v>0.9688489466700126</v>
       </c>
       <c r="FZ3">
-        <v>0.9687173157559408</v>
+        <v>0.9688726719737575</v>
       </c>
       <c r="GA3">
-        <v>0.9712266641905658</v>
+        <v>0.9713749859440619</v>
       </c>
       <c r="GB3">
-        <v>0.9714363566667463</v>
+        <v>0.9715721599982253</v>
       </c>
       <c r="GC3">
-        <v>0.9720904066536421</v>
+        <v>0.9722147512163021</v>
       </c>
       <c r="GD3">
-        <v>0.9745181262936468</v>
+        <v>0.9746352417329308</v>
       </c>
       <c r="GE3">
-        <v>0.9777682776794502</v>
+        <v>0.9778801252369457</v>
       </c>
       <c r="GF3">
-        <v>0.9779374692082998</v>
+        <v>0.9780367017617303</v>
       </c>
       <c r="GG3">
-        <v>0.9780910381181791</v>
+        <v>0.9781776184125016</v>
       </c>
       <c r="GH3">
-        <v>0.9780952734328999</v>
+        <v>0.9781776184125016</v>
       </c>
       <c r="GI3">
-        <v>0.9802002699941732</v>
+        <v>0.9802746162571452</v>
       </c>
       <c r="GJ3">
-        <v>0.9824277418473749</v>
+        <v>0.9824943814588487</v>
       </c>
       <c r="GK3">
-        <v>0.9825602317586434</v>
+        <v>0.9826141688442133</v>
       </c>
       <c r="GL3">
-        <v>0.9863753320072147</v>
+        <v>0.9864253484367203</v>
       </c>
       <c r="GM3">
-        <v>0.9863797176986256</v>
+        <v>0.9864253484367203</v>
       </c>
       <c r="GN3">
-        <v>0.9921483923184494</v>
+        <v>0.9921947610622112</v>
       </c>
       <c r="GO3">
-        <v>0.9955630655934103</v>
+        <v>0.9956045587884527</v>
       </c>
       <c r="GP3">
-        <v>0.9961932860518766</v>
+        <v>0.9962232636521536</v>
       </c>
       <c r="GQ3">
-        <v>0.997788551746743</v>
+        <v>0.9978093150822568</v>
       </c>
       <c r="GR3">
-        <v>0.9978043766447</v>
+        <v>0.9978121592448694</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>5.769387949567741E-05</v>
+        <v>5.551385249588117E-05</v>
       </c>
       <c r="C4">
-        <v>0.0001040165430907546</v>
+        <v>9.965166476740657E-05</v>
       </c>
       <c r="D4">
-        <v>0.0001450061997324496</v>
+        <v>0.0001384542075172932</v>
       </c>
       <c r="E4">
-        <v>0.0001451652246510595</v>
+        <v>0.0001384542075172932</v>
       </c>
       <c r="F4">
-        <v>0.0001474494326310924</v>
+        <v>0.0001385348805282046</v>
       </c>
       <c r="G4">
-        <v>0.0002033702161422691</v>
+        <v>0.0001922748847902958</v>
       </c>
       <c r="H4">
-        <v>0.0003746079446454196</v>
+        <v>0.000361380758124425</v>
       </c>
       <c r="I4">
-        <v>0.00050372749351674</v>
+        <v>0.0004883505828726636</v>
       </c>
       <c r="J4">
-        <v>0.0006286004624251813</v>
+        <v>0.0006110720260145775</v>
       </c>
       <c r="K4">
-        <v>0.0008869610601667599</v>
+        <v>0.0008673377311187935</v>
       </c>
       <c r="L4">
-        <v>0.001128305188057086</v>
+        <v>0.001106579747006611</v>
       </c>
       <c r="M4">
-        <v>0.001175967437640453</v>
+        <v>0.001152057713595843</v>
       </c>
       <c r="N4">
-        <v>0.001189996153517823</v>
+        <v>0.001163887877199781</v>
       </c>
       <c r="O4">
-        <v>0.00129178395262806</v>
+        <v>0.00126351435648681</v>
       </c>
       <c r="P4">
-        <v>0.001340192422204904</v>
+        <v>0.001309738859658957</v>
       </c>
       <c r="Q4">
-        <v>0.001341693608191782</v>
+        <v>0.001309738859658957</v>
       </c>
       <c r="R4">
-        <v>0.001341846328010447</v>
+        <v>0.001309738859658957</v>
       </c>
       <c r="S4">
-        <v>0.001344049897191185</v>
+        <v>0.001309738859658957</v>
       </c>
       <c r="T4">
-        <v>0.001347003868865363</v>
+        <v>0.001310489580516291</v>
       </c>
       <c r="U4">
-        <v>0.001349288076845396</v>
+        <v>0.001310570253527203</v>
       </c>
       <c r="V4">
-        <v>0.001361069754742408</v>
+        <v>0.001320152425828042</v>
       </c>
       <c r="W4">
-        <v>0.001423066374200474</v>
+        <v>0.001379970843756058</v>
       </c>
       <c r="X4">
-        <v>0.001430194147138168</v>
+        <v>0.001384897136643444</v>
       </c>
       <c r="Y4">
-        <v>0.001462610032854809</v>
+        <v>0.001415122270981564</v>
       </c>
       <c r="Z4">
-        <v>0.001649478351221327</v>
+        <v>0.001599865365574212</v>
       </c>
       <c r="AA4">
-        <v>0.001822389749709847</v>
+        <v>0.001770645618960774</v>
       </c>
       <c r="AB4">
-        <v>0.001912257448924282</v>
+        <v>0.001858346941160087</v>
       </c>
       <c r="AC4">
-        <v>0.002002125148138717</v>
+        <v>0.0019460482633594</v>
       </c>
       <c r="AD4">
-        <v>0.002128629707032896</v>
+        <v>0.002070401988701359</v>
       </c>
       <c r="AE4">
-        <v>0.002199393786414322</v>
+        <v>0.002138991586213461</v>
       </c>
       <c r="AF4">
-        <v>0.002241773700043864</v>
+        <v>0.002179184975778164</v>
       </c>
       <c r="AG4">
-        <v>0.00228592403265793</v>
+        <v>0.002221149535440944</v>
       </c>
       <c r="AH4">
-        <v>0.002343209722157176</v>
+        <v>0.002276255024762721</v>
       </c>
       <c r="AI4">
-        <v>0.002369141676930496</v>
+        <v>0.002299993477301115</v>
       </c>
       <c r="AJ4">
-        <v>0.00238271112131188</v>
+        <v>0.002311364174559686</v>
       </c>
       <c r="AK4">
-        <v>0.002397913406178992</v>
+        <v>0.002324368405048823</v>
       </c>
       <c r="AL4">
-        <v>0.002403547853129739</v>
+        <v>0.002327800738394496</v>
       </c>
       <c r="AM4">
-        <v>0.002410675626067432</v>
+        <v>0.002332727031281882</v>
       </c>
       <c r="AN4">
-        <v>0.002458710265647545</v>
+        <v>0.002378577545857113</v>
       </c>
       <c r="AO4">
-        <v>0.00257050927467027</v>
+        <v>0.00248821948238763</v>
       </c>
       <c r="AP4">
-        <v>0.002607237449349216</v>
+        <v>0.002522758735209037</v>
       </c>
       <c r="AQ4">
-        <v>0.002694218038588888</v>
+        <v>0.002607571722555495</v>
       </c>
       <c r="AR4">
-        <v>0.002939761956442502</v>
+        <v>0.002851015310199037</v>
       </c>
       <c r="AS4">
-        <v>0.003150632154599211</v>
+        <v>0.003059770467559657</v>
       </c>
       <c r="AT4">
-        <v>0.003268390473569843</v>
+        <v>0.003175374242320088</v>
       </c>
       <c r="AU4">
-        <v>0.00354733622113148</v>
+        <v>0.003452233830648789</v>
       </c>
       <c r="AV4">
-        <v>0.003690479029880219</v>
+        <v>0.003593232864747778</v>
       </c>
       <c r="AW4">
-        <v>0.003750915819351919</v>
+        <v>0.003651490790919842</v>
       </c>
       <c r="AX4">
-        <v>0.003759974439272735</v>
+        <v>0.003658348749966684</v>
       </c>
       <c r="AY4">
-        <v>0.003779102486105529</v>
+        <v>0.003675280407955506</v>
       </c>
       <c r="AZ4">
-        <v>0.003800408257919288</v>
+        <v>0.003694390714841472</v>
       </c>
       <c r="BA4">
-        <v>0.003800439042627019</v>
+        <v>0.003694390714841472</v>
       </c>
       <c r="BB4">
-        <v>0.003800715066924607</v>
+        <v>0.003694390714841472</v>
       </c>
       <c r="BC4">
-        <v>0.003829268814675008</v>
+        <v>0.003720752072672311</v>
       </c>
       <c r="BD4">
-        <v>0.003898680824068253</v>
+        <v>0.003787989026570385</v>
       </c>
       <c r="BE4">
-        <v>0.003932961833768591</v>
+        <v>0.00382008007618506</v>
       </c>
       <c r="BF4">
-        <v>0.003987034223295926</v>
+        <v>0.003871970902268278</v>
       </c>
       <c r="BG4">
-        <v>0.004096964602334986</v>
+        <v>0.003979743416034823</v>
       </c>
       <c r="BH4">
-        <v>0.00411721607015796</v>
+        <v>0.003997798971633618</v>
       </c>
       <c r="BI4">
-        <v>0.004122109878715182</v>
+        <v>0.004000490352364363</v>
       </c>
       <c r="BJ4">
-        <v>0.004205793537983673</v>
+        <v>0.004082005010992338</v>
       </c>
       <c r="BK4">
-        <v>0.00435789859665407</v>
+        <v>0.00423197009731483</v>
       </c>
       <c r="BL4">
-        <v>0.00456079621488047</v>
+        <v>0.004432749292318222</v>
       </c>
       <c r="BM4">
-        <v>0.004834999962483558</v>
+        <v>0.004704864868859275</v>
       </c>
       <c r="BN4">
-        <v>0.005181806959451995</v>
+        <v>0.005049614497239547</v>
       </c>
       <c r="BO4">
-        <v>0.005303513898388111</v>
+        <v>0.005169168567197141</v>
       </c>
       <c r="BP4">
-        <v>0.005364665657853563</v>
+        <v>0.005228141766694345</v>
       </c>
       <c r="BQ4">
-        <v>0.005434526907242881</v>
+        <v>0.005295828151181934</v>
       </c>
       <c r="BR4">
-        <v>0.00543452707533792</v>
+        <v>0.005295828151181934</v>
       </c>
       <c r="BS4">
-        <v>0.005443585695258735</v>
+        <v>0.005302686110228777</v>
       </c>
       <c r="BT4">
-        <v>0.005481630490926172</v>
+        <v>0.005338542542625018</v>
       </c>
       <c r="BU4">
-        <v>0.005649829139455889</v>
+        <v>0.005504608046633207</v>
       </c>
       <c r="BV4">
-        <v>0.005856034927653371</v>
+        <v>0.005708696815123641</v>
       </c>
       <c r="BW4">
-        <v>0.005976141606603477</v>
+        <v>0.005826649946172904</v>
       </c>
       <c r="BX4">
-        <v>0.006030331501129783</v>
+        <v>0.005878658327107472</v>
       </c>
       <c r="BY4">
-        <v>0.006244602899256761</v>
+        <v>0.006090816127422995</v>
       </c>
       <c r="BZ4">
-        <v>0.006359458358252769</v>
+        <v>0.006203515810648653</v>
       </c>
       <c r="CA4">
-        <v>0.006383059231046465</v>
+        <v>0.006224922192228386</v>
       </c>
       <c r="CB4">
-        <v>0.00649733846004751</v>
+        <v>0.006337045400989178</v>
       </c>
       <c r="CC4">
-        <v>0.006618628018987275</v>
+        <v>0.006456181913873821</v>
       </c>
       <c r="CD4">
-        <v>0.006622092397556991</v>
+        <v>0.006457443258170653</v>
       </c>
       <c r="CE4">
-        <v>0.006622767210651093</v>
+        <v>0.006457443258170653</v>
       </c>
       <c r="CF4">
-        <v>0.006629652271890908</v>
+        <v>0.0064621267363879</v>
       </c>
       <c r="CG4">
-        <v>0.006629748397960068</v>
+        <v>0.0064621267363879</v>
       </c>
       <c r="CH4">
-        <v>0.006634762023416242</v>
+        <v>0.006464937984850818</v>
       </c>
       <c r="CI4">
-        <v>0.006653977285248275</v>
+        <v>0.006481956894840496</v>
       </c>
       <c r="CJ4">
-        <v>0.006690175584931853</v>
+        <v>0.006515966047863087</v>
       </c>
       <c r="CK4">
-        <v>0.00674228675647633</v>
+        <v>0.006565894823901988</v>
       </c>
       <c r="CL4">
-        <v>0.006783621802115006</v>
+        <v>0.006605042902182732</v>
       </c>
       <c r="CM4">
-        <v>0.006906696541039167</v>
+        <v>0.006725965352427788</v>
       </c>
       <c r="CN4">
-        <v>0.06625069302229232</v>
+        <v>0.06609293446586231</v>
       </c>
       <c r="CO4">
-        <v>0.06756176301083179</v>
+        <v>0.06740235618163043</v>
       </c>
       <c r="CP4">
-        <v>0.1537045322578274</v>
+        <v>0.1535794676414402</v>
       </c>
       <c r="CQ4">
-        <v>0.1639249881684867</v>
+        <v>0.1638020551532245</v>
       </c>
       <c r="CR4">
-        <v>0.1707975941084109</v>
+        <v>0.1706753723437776</v>
       </c>
       <c r="CS4">
-        <v>0.1750541740712026</v>
+        <v>0.1749315536885284</v>
       </c>
       <c r="CT4">
-        <v>0.1754928933273676</v>
+        <v>0.1753682545705716</v>
       </c>
       <c r="CU4">
-        <v>0.2059684230609702</v>
+        <v>0.2058545092725054</v>
       </c>
       <c r="CV4">
-        <v>0.2117403950105154</v>
+        <v>0.2116267255204422</v>
       </c>
       <c r="CW4">
-        <v>0.238534118776302</v>
+        <v>0.2384296122207239</v>
       </c>
       <c r="CX4">
-        <v>0.3190882580721497</v>
+        <v>0.3190157227111526</v>
       </c>
       <c r="CY4">
-        <v>0.3783798075538614</v>
+        <v>0.3783302225740121</v>
       </c>
       <c r="CZ4">
-        <v>0.3834071948099152</v>
+        <v>0.3833575382328087</v>
       </c>
       <c r="DA4">
-        <v>0.3892847707585372</v>
+        <v>0.3892354032831122</v>
       </c>
       <c r="DB4">
-        <v>0.3970615306905578</v>
+        <v>0.397013258059884</v>
       </c>
       <c r="DC4">
-        <v>0.4719283400361206</v>
+        <v>0.4719096257075784</v>
       </c>
       <c r="DD4">
-        <v>0.5110322946942991</v>
+        <v>0.5110279660081709</v>
       </c>
       <c r="DE4">
-        <v>0.5528800413284932</v>
+        <v>0.5528912623591336</v>
       </c>
       <c r="DF4">
-        <v>0.5539353261192687</v>
+        <v>0.5539447903583462</v>
       </c>
       <c r="DG4">
-        <v>0.6205255655371799</v>
+        <v>0.6205610766814316</v>
       </c>
       <c r="DH4">
-        <v>0.62068685475577</v>
+        <v>0.6207202298241226</v>
       </c>
       <c r="DI4">
-        <v>0.6460351975341911</v>
+        <v>0.6460771223232986</v>
       </c>
       <c r="DJ4">
-        <v>0.6614230373996806</v>
+        <v>0.6614692860913683</v>
       </c>
       <c r="DK4">
-        <v>0.7007971470554976</v>
+        <v>0.7008578960048862</v>
       </c>
       <c r="DL4">
-        <v>0.7016545243480029</v>
+        <v>0.7017134325420863</v>
       </c>
       <c r="DM4">
-        <v>0.7030035512362106</v>
+        <v>0.7030608272610224</v>
       </c>
       <c r="DN4">
-        <v>0.7048945259196809</v>
+        <v>0.7049503997006439</v>
       </c>
       <c r="DO4">
-        <v>0.7072538332990574</v>
+        <v>0.7073085035298354</v>
       </c>
       <c r="DP4">
-        <v>0.7094546444798194</v>
+        <v>0.7095080439172097</v>
       </c>
       <c r="DQ4">
-        <v>0.7110852597655657</v>
+        <v>0.711137146499677</v>
       </c>
       <c r="DR4">
-        <v>0.7161586972212169</v>
+        <v>0.7162105318952141</v>
       </c>
       <c r="DS4">
-        <v>0.7199821331877949</v>
+        <v>0.7200333854791574</v>
       </c>
       <c r="DT4">
-        <v>0.7200015851576249</v>
+        <v>0.7200506411975701</v>
       </c>
       <c r="DU4">
-        <v>0.7207880397507502</v>
+        <v>0.7208352249459021</v>
       </c>
       <c r="DV4">
-        <v>0.724537493917975</v>
+        <v>0.7245840653431581</v>
       </c>
       <c r="DW4">
-        <v>0.7350449578261254</v>
+        <v>0.7350937826177323</v>
       </c>
       <c r="DX4">
-        <v>0.7364204776141016</v>
+        <v>0.7364676814762485</v>
       </c>
       <c r="DY4">
-        <v>0.736445136208886</v>
+        <v>0.7364901460285656</v>
       </c>
       <c r="DZ4">
-        <v>0.7371781263624786</v>
+        <v>0.7372212426546749</v>
       </c>
       <c r="EA4">
-        <v>0.7464165232817225</v>
+        <v>0.7464613545291404</v>
       </c>
       <c r="EB4">
-        <v>0.7491391321579232</v>
+        <v>0.749182913988545</v>
       </c>
       <c r="EC4">
-        <v>0.7494909699948477</v>
+        <v>0.7495326965912529</v>
       </c>
       <c r="ED4">
-        <v>0.7502137930885292</v>
+        <v>0.7502536218439996</v>
       </c>
       <c r="EE4">
-        <v>0.7563893115345468</v>
+        <v>0.756429555796041</v>
       </c>
       <c r="EF4">
-        <v>0.7629820114769177</v>
+        <v>0.763022848236819</v>
       </c>
       <c r="EG4">
-        <v>0.7647872763611372</v>
+        <v>0.7648266745141635</v>
       </c>
       <c r="EH4">
-        <v>0.7650969980384298</v>
+        <v>0.7651343230891425</v>
       </c>
       <c r="EI4">
-        <v>0.7661528016292006</v>
+        <v>0.7661883701084554</v>
       </c>
       <c r="EJ4">
-        <v>0.7696451815986725</v>
+        <v>0.7696800272422992</v>
       </c>
       <c r="EK4">
-        <v>0.7696480708526472</v>
+        <v>0.7696807132180001</v>
       </c>
       <c r="EL4">
-        <v>0.7798071367638432</v>
+        <v>0.7798418846851527</v>
       </c>
       <c r="EM4">
-        <v>0.7895633206785609</v>
+        <v>0.7896000032301139</v>
       </c>
       <c r="EN4">
-        <v>0.7897056295573169</v>
+        <v>0.7897401679804191</v>
       </c>
       <c r="EO4">
-        <v>0.789715806865728</v>
+        <v>0.7897481451025682</v>
       </c>
       <c r="EP4">
-        <v>0.7923218164429479</v>
+        <v>0.7923530557948636</v>
       </c>
       <c r="EQ4">
-        <v>0.7979113513940878</v>
+        <v>0.7979427576441283</v>
       </c>
       <c r="ER4">
-        <v>0.8030617693490661</v>
+        <v>0.8030931561985476</v>
       </c>
       <c r="ES4">
-        <v>0.808390132302489</v>
+        <v>0.8084215752459135</v>
       </c>
       <c r="ET4">
-        <v>0.8105199682838714</v>
+        <v>0.8105501103221467</v>
       </c>
       <c r="EU4">
-        <v>0.812701367264803</v>
+        <v>0.8127302302739191</v>
       </c>
       <c r="EV4">
-        <v>0.8201569311996313</v>
+        <v>0.8201867527836844</v>
       </c>
       <c r="EW4">
-        <v>0.8289809561224973</v>
+        <v>0.8290123168613401</v>
       </c>
       <c r="EX4">
-        <v>0.8433597094968076</v>
+        <v>0.8433949660257074</v>
       </c>
       <c r="EY4">
-        <v>0.8537020754064013</v>
+        <v>0.8537395152576588</v>
       </c>
       <c r="EZ4">
-        <v>0.8573868598741913</v>
+        <v>0.8574236585188744</v>
       </c>
       <c r="FA4">
-        <v>0.8578750089299242</v>
+        <v>0.8579098101714492</v>
       </c>
       <c r="FB4">
-        <v>0.8580313480385575</v>
+        <v>0.8580640111040622</v>
       </c>
       <c r="FC4">
-        <v>0.8583909328154142</v>
+        <v>0.8584215439333999</v>
       </c>
       <c r="FD4">
-        <v>0.8586568794530895</v>
+        <v>0.8586853988968722</v>
       </c>
       <c r="FE4">
-        <v>0.8667533563823154</v>
+        <v>0.8667831063131868</v>
       </c>
       <c r="FF4">
-        <v>0.8790073462751989</v>
+        <v>0.8790400905492612</v>
       </c>
       <c r="FG4">
-        <v>0.8820955032482043</v>
+        <v>0.8821273531919962</v>
       </c>
       <c r="FH4">
-        <v>0.8823199022062428</v>
+        <v>0.8823496428489166</v>
       </c>
       <c r="FI4">
-        <v>0.8852554248805824</v>
+        <v>0.8852842064367381</v>
       </c>
       <c r="FJ4">
-        <v>0.8910166435302216</v>
+        <v>0.8910456648226006</v>
       </c>
       <c r="FK4">
-        <v>0.9044124484131241</v>
+        <v>0.9044449484722797</v>
       </c>
       <c r="FL4">
-        <v>0.9143806963259881</v>
+        <v>0.9144152209851313</v>
       </c>
       <c r="FM4">
-        <v>0.9143810013584254</v>
+        <v>0.9144152209851313</v>
       </c>
       <c r="FN4">
-        <v>0.9186845403208066</v>
+        <v>0.9187183812521799</v>
       </c>
       <c r="FO4">
-        <v>0.923510410278622</v>
+        <v>0.9235440941175107</v>
       </c>
       <c r="FP4">
-        <v>0.9354327341744048</v>
+        <v>0.9354692716446938</v>
       </c>
       <c r="FQ4">
-        <v>0.9481516950632238</v>
+        <v>0.9481914241441413</v>
       </c>
       <c r="FR4">
-        <v>0.9523197620267893</v>
+        <v>0.9523590549373611</v>
       </c>
       <c r="FS4">
-        <v>0.9529683671211195</v>
+        <v>0.9530057307032128</v>
       </c>
       <c r="FT4">
-        <v>0.9536926383147885</v>
+        <v>0.9537281046703141</v>
       </c>
       <c r="FU4">
-        <v>0.957982062777293</v>
+        <v>0.9580171444493035</v>
       </c>
       <c r="FV4">
-        <v>0.9601200969586037</v>
+        <v>0.960153881203613</v>
       </c>
       <c r="FW4">
-        <v>0.9602137270217852</v>
+        <v>0.9602453464859906</v>
       </c>
       <c r="FX4">
-        <v>0.9604243653999439</v>
+        <v>0.9604538697250018</v>
       </c>
       <c r="FY4">
-        <v>0.9617179506886362</v>
+        <v>0.9617457993229075</v>
       </c>
       <c r="FZ4">
-        <v>0.9649401616604697</v>
+        <v>0.9649671728378865</v>
       </c>
       <c r="GA4">
-        <v>0.9664878034469412</v>
+        <v>0.9665132667189488</v>
       </c>
       <c r="GB4">
-        <v>0.9665874303060703</v>
+        <v>0.9666107313414597</v>
       </c>
       <c r="GC4">
-        <v>0.9669118496032344</v>
+        <v>0.9669330837718859</v>
       </c>
       <c r="GD4">
-        <v>0.9670420132520966</v>
+        <v>0.9670610981395923</v>
       </c>
       <c r="GE4">
-        <v>0.9690309874347103</v>
+        <v>0.9690487116553808</v>
       </c>
       <c r="GF4">
-        <v>0.975052511682074</v>
+        <v>0.9750705860755728</v>
       </c>
       <c r="GG4">
-        <v>0.9807160793325668</v>
+        <v>0.9807343520331191</v>
       </c>
       <c r="GH4">
-        <v>0.980833664421539</v>
+        <v>0.9808497825043869</v>
       </c>
       <c r="GI4">
-        <v>0.9808660803072556</v>
+        <v>0.9808800076387251</v>
       </c>
       <c r="GJ4">
-        <v>0.9815466541013065</v>
+        <v>0.9815586656672584</v>
       </c>
       <c r="GK4">
-        <v>0.9820005367973389</v>
+        <v>0.9820105364223722</v>
       </c>
       <c r="GL4">
-        <v>0.9827408325308677</v>
+        <v>0.9827489417278649</v>
       </c>
       <c r="GM4">
-        <v>0.9839556244202489</v>
+        <v>0.9839620444977678</v>
       </c>
       <c r="GN4">
-        <v>0.9869832508937834</v>
+        <v>0.9869887509605128</v>
       </c>
       <c r="GO4">
-        <v>0.9874486752097149</v>
+        <v>0.9874521682321447</v>
       </c>
       <c r="GP4">
-        <v>0.9937917161542682</v>
+        <v>0.9937956957554001</v>
       </c>
       <c r="GQ4">
-        <v>0.9978276171189889</v>
+        <v>0.9978311044773575</v>
       </c>
       <c r="GR4">
-        <v>0.9989389421092745</v>
+        <v>0.9989406964515558</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999994</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.526924334114772E-05</v>
+        <v>3.435987142517125E-06</v>
       </c>
       <c r="C5">
-        <v>7.453602860761878E-05</v>
+        <v>1.089287191607668E-05</v>
       </c>
       <c r="D5">
-        <v>0.0001184084627880533</v>
+        <v>2.298231418459512E-05</v>
       </c>
       <c r="E5">
-        <v>0.0002191246669066095</v>
+        <v>9.224763707010724E-05</v>
       </c>
       <c r="F5">
-        <v>0.0004552249324961038</v>
+        <v>0.0002976880050754695</v>
       </c>
       <c r="G5">
-        <v>0.000461413413980499</v>
+        <v>0.0002976880050754695</v>
       </c>
       <c r="H5">
-        <v>0.0005675801719972353</v>
+        <v>0.0003724357268116926</v>
       </c>
       <c r="I5">
-        <v>0.001142886861250134</v>
+        <v>0.0009190643376976446</v>
       </c>
       <c r="J5">
-        <v>0.001556523473523135</v>
+        <v>0.00130307831146848</v>
       </c>
       <c r="K5">
-        <v>0.001927134236599886</v>
+        <v>0.001643815056797791</v>
       </c>
       <c r="L5">
-        <v>0.002493902686012285</v>
+        <v>0.002181855543033827</v>
       </c>
       <c r="M5">
-        <v>0.002903913828353011</v>
+        <v>0.002562222865003527</v>
       </c>
       <c r="N5">
-        <v>0.003291920501104796</v>
+        <v>0.002920457155901796</v>
       </c>
       <c r="O5">
-        <v>0.00354336019640774</v>
+        <v>0.00314132657449588</v>
       </c>
       <c r="P5">
-        <v>0.003815511941323769</v>
+        <v>0.00338302905320016</v>
       </c>
       <c r="Q5">
-        <v>0.003867883977345425</v>
+        <v>0.003403667756376157</v>
       </c>
       <c r="R5">
-        <v>0.003899737191750387</v>
+        <v>0.003403667756376157</v>
       </c>
       <c r="S5">
-        <v>0.003901826732711353</v>
+        <v>0.003403667756376157</v>
       </c>
       <c r="T5">
-        <v>0.004052283419900725</v>
+        <v>0.003522964171938745</v>
       </c>
       <c r="U5">
-        <v>0.004057066749411369</v>
+        <v>0.003522964171938745</v>
       </c>
       <c r="V5">
-        <v>0.004124335078154752</v>
+        <v>0.003558586199676439</v>
       </c>
       <c r="W5">
-        <v>0.00487058510421432</v>
+        <v>0.004277156886680285</v>
       </c>
       <c r="X5">
-        <v>0.005279276946579692</v>
+        <v>0.004656197200642405</v>
       </c>
       <c r="Y5">
-        <v>0.005302963413137213</v>
+        <v>0.004656197200642405</v>
       </c>
       <c r="Z5">
-        <v>0.005663786106396811</v>
+        <v>0.004987088689192556</v>
       </c>
       <c r="AA5">
-        <v>0.005926110771496417</v>
+        <v>0.00521890667320183</v>
       </c>
       <c r="AB5">
-        <v>0.006005081770021188</v>
+        <v>0.005266299743765307</v>
       </c>
       <c r="AC5">
-        <v>0.00620172154634783</v>
+        <v>0.005432049073937728</v>
       </c>
       <c r="AD5">
-        <v>0.00644279350184445</v>
+        <v>0.00564249017903185</v>
       </c>
       <c r="AE5">
-        <v>0.006805314995072314</v>
+        <v>0.005975090392817562</v>
       </c>
       <c r="AF5">
-        <v>0.006986007991696852</v>
+        <v>0.006124799773960115</v>
       </c>
       <c r="AG5">
-        <v>0.007047542940547339</v>
+        <v>0.006154654924436765</v>
       </c>
       <c r="AH5">
-        <v>0.00707919648995603</v>
+        <v>0.006154654924436765</v>
       </c>
       <c r="AI5">
-        <v>0.007127308322057269</v>
+        <v>0.006171008533379516</v>
       </c>
       <c r="AJ5">
-        <v>0.007155541672529853</v>
+        <v>0.006171008533379516</v>
       </c>
       <c r="AK5">
-        <v>0.007162556766398806</v>
+        <v>0.006171008533379516</v>
       </c>
       <c r="AL5">
-        <v>0.007371573262494243</v>
+        <v>0.006349206894513482</v>
       </c>
       <c r="AM5">
-        <v>0.007593703518344706</v>
+        <v>0.0065405956327637</v>
       </c>
       <c r="AN5">
-        <v>0.007772476425005112</v>
+        <v>0.006688373705784315</v>
       </c>
       <c r="AO5">
-        <v>0.008792359105953045</v>
+        <v>0.007682175751050273</v>
       </c>
       <c r="AP5">
-        <v>0.009817955086794249</v>
+        <v>0.008681724476259915</v>
       </c>
       <c r="AQ5">
-        <v>0.01009306206165507</v>
+        <v>0.008926399450889487</v>
       </c>
       <c r="AR5">
-        <v>0.0102279434891354</v>
+        <v>0.009030029608027056</v>
       </c>
       <c r="AS5">
-        <v>0.01033876209106523</v>
+        <v>0.009109456352152432</v>
       </c>
       <c r="AT5">
-        <v>0.01033879451524463</v>
+        <v>0.009109456352152432</v>
       </c>
       <c r="AU5">
-        <v>0.01035102494401616</v>
+        <v>0.009109456352152432</v>
       </c>
       <c r="AV5">
-        <v>0.010375764796554</v>
+        <v>0.009109456352152432</v>
       </c>
       <c r="AW5">
-        <v>0.01037685380503366</v>
+        <v>0.009109456352152432</v>
       </c>
       <c r="AX5">
-        <v>0.01038396306030085</v>
+        <v>0.009109456352152432</v>
       </c>
       <c r="AY5">
-        <v>0.01038889006950881</v>
+        <v>0.009109456352152432</v>
       </c>
       <c r="AZ5">
-        <v>0.01040790569915359</v>
+        <v>0.009109456352152432</v>
       </c>
       <c r="BA5">
-        <v>0.01046598694306859</v>
+        <v>0.009135837619364612</v>
       </c>
       <c r="BB5">
-        <v>0.01049393465754651</v>
+        <v>0.009135837619364612</v>
       </c>
       <c r="BC5">
-        <v>0.01049481171383013</v>
+        <v>0.009135837619364612</v>
       </c>
       <c r="BD5">
-        <v>0.01089096044642981</v>
+        <v>0.009502261540231949</v>
       </c>
       <c r="BE5">
-        <v>0.01117896179104976</v>
+        <v>0.009759906220192143</v>
       </c>
       <c r="BF5">
-        <v>0.01118910321686031</v>
+        <v>0.009759906220192143</v>
       </c>
       <c r="BG5">
-        <v>0.01158881573939342</v>
+        <v>0.01012991475249534</v>
       </c>
       <c r="BH5">
-        <v>0.01247885962276683</v>
+        <v>0.01099311941483514</v>
       </c>
       <c r="BI5">
-        <v>0.01263820944979007</v>
+        <v>0.01112136092855018</v>
       </c>
       <c r="BJ5">
-        <v>0.01277580514721969</v>
+        <v>0.01122772121380473</v>
       </c>
       <c r="BK5">
-        <v>0.01382326722765242</v>
+        <v>0.01224926379165935</v>
       </c>
       <c r="BL5">
-        <v>0.01440847906672029</v>
+        <v>0.01280585542336413</v>
       </c>
       <c r="BM5">
-        <v>0.01452081050062187</v>
+        <v>0.0128868038382074</v>
       </c>
       <c r="BN5">
-        <v>0.01477881279580222</v>
+        <v>0.0131142741987787</v>
       </c>
       <c r="BO5">
-        <v>0.01477968985208583</v>
+        <v>0.0131142741987787</v>
       </c>
       <c r="BP5">
-        <v>0.01483336275308319</v>
+        <v>0.01313622136725583</v>
       </c>
       <c r="BQ5">
-        <v>0.01483903011897732</v>
+        <v>0.01313622136725583</v>
       </c>
       <c r="BR5">
-        <v>0.01491131938762691</v>
+        <v>0.0131768936698253</v>
       </c>
       <c r="BS5">
-        <v>0.01546540013727632</v>
+        <v>0.01370217232819978</v>
       </c>
       <c r="BT5">
-        <v>0.01578408713132304</v>
+        <v>0.01399068193900798</v>
       </c>
       <c r="BU5">
-        <v>0.01580210221798651</v>
+        <v>0.01399068193900798</v>
       </c>
       <c r="BV5">
-        <v>0.01616928166112736</v>
+        <v>0.01432796731685713</v>
       </c>
       <c r="BW5">
-        <v>0.01672336241077678</v>
+        <v>0.01485324597523161</v>
       </c>
       <c r="BX5">
-        <v>0.01676926754691924</v>
+        <v>0.01486737999555745</v>
       </c>
       <c r="BY5">
-        <v>0.01711563984044878</v>
+        <v>0.01518373665767485</v>
       </c>
       <c r="BZ5">
-        <v>0.01812130892166223</v>
+        <v>0.01616324206001158</v>
       </c>
       <c r="CA5">
-        <v>0.01905649536419234</v>
+        <v>0.0170718530276668</v>
       </c>
       <c r="CB5">
-        <v>0.01931794785930824</v>
+        <v>0.01730279374602461</v>
       </c>
       <c r="CC5">
-        <v>0.02038787663932128</v>
+        <v>0.01834693428552851</v>
       </c>
       <c r="CD5">
-        <v>0.03026902745473499</v>
+        <v>0.02825377657289857</v>
       </c>
       <c r="CE5">
-        <v>0.06155547187028397</v>
+        <v>0.05969097324713103</v>
       </c>
       <c r="CF5">
-        <v>0.08846277336763818</v>
+        <v>0.08672344178725105</v>
       </c>
       <c r="CG5">
-        <v>0.1059329280412844</v>
+        <v>0.104263626815128</v>
       </c>
       <c r="CH5">
-        <v>0.1082311636983519</v>
+        <v>0.1065432506352086</v>
       </c>
       <c r="CI5">
-        <v>0.1090957993821999</v>
+        <v>0.1073808986501913</v>
       </c>
       <c r="CJ5">
-        <v>0.1094617303953641</v>
+        <v>0.1077169283040908</v>
       </c>
       <c r="CK5">
-        <v>0.1094643683473148</v>
+        <v>0.1077169283040908</v>
       </c>
       <c r="CL5">
-        <v>0.1118560468026367</v>
+        <v>0.1100905408635412</v>
       </c>
       <c r="CM5">
-        <v>0.1173575479998651</v>
+        <v>0.1155921453564051</v>
       </c>
       <c r="CN5">
-        <v>0.144656074489911</v>
+        <v>0.1430181246277956</v>
       </c>
       <c r="CO5">
-        <v>0.1824658177836005</v>
+        <v>0.1810167326632299</v>
       </c>
       <c r="CP5">
-        <v>0.2078462033094785</v>
+        <v>0.206513364199711</v>
       </c>
       <c r="CQ5">
-        <v>0.2417391246763368</v>
+        <v>0.2405722662105394</v>
       </c>
       <c r="CR5">
-        <v>0.2428521475555448</v>
+        <v>0.2416597526272353</v>
       </c>
       <c r="CS5">
-        <v>0.2501042459200709</v>
+        <v>0.2489221821806964</v>
       </c>
       <c r="CT5">
-        <v>0.2907152701614307</v>
+        <v>0.2897384376947023</v>
       </c>
       <c r="CU5">
-        <v>0.2926836883246594</v>
+        <v>0.2916863170567068</v>
       </c>
       <c r="CV5">
-        <v>0.3027193481371868</v>
+        <v>0.3017485710625966</v>
       </c>
       <c r="CW5">
-        <v>0.3137609529309225</v>
+        <v>0.3128226473001124</v>
       </c>
       <c r="CX5">
-        <v>0.333121496569255</v>
+        <v>0.3322642659218951</v>
       </c>
       <c r="CY5">
-        <v>0.3422026273996136</v>
+        <v>0.3413664140940347</v>
       </c>
       <c r="CZ5">
-        <v>0.342453505594927</v>
+        <v>0.3415867187320661</v>
       </c>
       <c r="DA5">
-        <v>0.3850749497987309</v>
+        <v>0.3844251401208522</v>
       </c>
       <c r="DB5">
-        <v>0.4191280661625967</v>
+        <v>0.4186451730706438</v>
       </c>
       <c r="DC5">
-        <v>0.4191384163124033</v>
+        <v>0.4186451730706438</v>
       </c>
       <c r="DD5">
-        <v>0.4230909879385668</v>
+        <v>0.4225887983454554</v>
       </c>
       <c r="DE5">
-        <v>0.4250186667025564</v>
+        <v>0.4244957002875979</v>
       </c>
       <c r="DF5">
-        <v>0.4262208223800994</v>
+        <v>0.4256728402624974</v>
       </c>
       <c r="DG5">
-        <v>0.4389688471419581</v>
+        <v>0.4384633062554087</v>
       </c>
       <c r="DH5">
-        <v>0.4393129015055309</v>
+        <v>0.4387773314450248</v>
       </c>
       <c r="DI5">
-        <v>0.4404348825845715</v>
+        <v>0.4398738283999861</v>
       </c>
       <c r="DJ5">
-        <v>0.442497955346032</v>
+        <v>0.4419169153812995</v>
       </c>
       <c r="DK5">
-        <v>0.4429084549983636</v>
+        <v>0.4422977740673879</v>
       </c>
       <c r="DL5">
-        <v>0.4434177871888489</v>
+        <v>0.4427780427223912</v>
       </c>
       <c r="DM5">
-        <v>0.4502644570609486</v>
+        <v>0.4496326750606617</v>
       </c>
       <c r="DN5">
-        <v>0.4611682328572591</v>
+        <v>0.4605681170325241</v>
       </c>
       <c r="DO5">
-        <v>0.4621502569389142</v>
+        <v>0.4615238392889962</v>
       </c>
       <c r="DP5">
-        <v>0.4621502883523806</v>
+        <v>0.4615238392889962</v>
       </c>
       <c r="DQ5">
-        <v>0.4708196311904317</v>
+        <v>0.4702117935905795</v>
       </c>
       <c r="DR5">
-        <v>0.4739167497325755</v>
+        <v>0.4732949677823861</v>
       </c>
       <c r="DS5">
-        <v>0.4742068721671558</v>
+        <v>0.4735547459448103</v>
       </c>
       <c r="DT5">
-        <v>0.4763673479267967</v>
+        <v>0.475695805002954</v>
       </c>
       <c r="DU5">
-        <v>0.4767260189000965</v>
+        <v>0.4760245322000844</v>
       </c>
       <c r="DV5">
-        <v>0.4841387434616221</v>
+        <v>0.4834485264117938</v>
       </c>
       <c r="DW5">
-        <v>0.4869954724082565</v>
+        <v>0.486289906527849</v>
       </c>
       <c r="DX5">
-        <v>0.4870349615395189</v>
+        <v>0.4862975870576786</v>
       </c>
       <c r="DY5">
-        <v>0.4886187089099334</v>
+        <v>0.4878585481813129</v>
       </c>
       <c r="DZ5">
-        <v>0.4928516183308599</v>
+        <v>0.4920841491291534</v>
       </c>
       <c r="EA5">
-        <v>0.4946056036980944</v>
+        <v>0.493816342867958</v>
       </c>
       <c r="EB5">
-        <v>0.5006332801854935</v>
+        <v>0.499847196838947</v>
       </c>
       <c r="EC5">
-        <v>0.5187019978479581</v>
+        <v>0.5179894419699398</v>
       </c>
       <c r="ED5">
-        <v>0.5256599857179785</v>
+        <v>0.5249560426834</v>
       </c>
       <c r="EE5">
-        <v>0.5303906619296064</v>
+        <v>0.5296823186327619</v>
       </c>
       <c r="EF5">
-        <v>0.5364391618166164</v>
+        <v>0.5357341176644232</v>
       </c>
       <c r="EG5">
-        <v>0.5450194896563304</v>
+        <v>0.5443325368960492</v>
       </c>
       <c r="EH5">
-        <v>0.5568565244352069</v>
+        <v>0.5562066904317298</v>
       </c>
       <c r="EI5">
-        <v>0.5686741302144465</v>
+        <v>0.5680613014535172</v>
       </c>
       <c r="EJ5">
-        <v>0.5756993393832111</v>
+        <v>0.5750955162072865</v>
       </c>
       <c r="EK5">
-        <v>0.575706835635771</v>
+        <v>0.5750955162072865</v>
       </c>
       <c r="EL5">
-        <v>0.5828352190026082</v>
+        <v>0.5822335079561105</v>
       </c>
       <c r="EM5">
-        <v>0.6102479454905206</v>
+        <v>0.6097743544407699</v>
       </c>
       <c r="EN5">
-        <v>0.6535978366807166</v>
+        <v>0.6533454787796787</v>
       </c>
       <c r="EO5">
-        <v>0.6856482890819934</v>
+        <v>0.6855511471691046</v>
       </c>
       <c r="EP5">
-        <v>0.7157722675192579</v>
+        <v>0.7158190861380853</v>
       </c>
       <c r="EQ5">
-        <v>0.7282733622857294</v>
+        <v>0.7283611794429716</v>
       </c>
       <c r="ER5">
-        <v>0.7324464312077738</v>
+        <v>0.7325265902728121</v>
       </c>
       <c r="ES5">
-        <v>0.734800673763795</v>
+        <v>0.7348625482130925</v>
       </c>
       <c r="ET5">
-        <v>0.7348799599383139</v>
+        <v>0.7349102583010712</v>
       </c>
       <c r="EU5">
-        <v>0.737884668482184</v>
+        <v>0.7379004825876398</v>
       </c>
       <c r="EV5">
-        <v>0.7521015192166041</v>
+        <v>0.7521683561934828</v>
       </c>
       <c r="EW5">
-        <v>0.76967339888835</v>
+        <v>0.7698108605494663</v>
       </c>
       <c r="EX5">
-        <v>0.7778396157357997</v>
+        <v>0.7779927493384131</v>
       </c>
       <c r="EY5">
-        <v>0.7822879223527025</v>
+        <v>0.7824350059439587</v>
       </c>
       <c r="EZ5">
-        <v>0.7958451590994445</v>
+        <v>0.7960394117563419</v>
       </c>
       <c r="FA5">
-        <v>0.8262738325310173</v>
+        <v>0.8266138259052432</v>
       </c>
       <c r="FB5">
-        <v>0.8563864969684932</v>
+        <v>0.8568703847722019</v>
       </c>
       <c r="FC5">
-        <v>0.8667590167747279</v>
+        <v>0.8672714668819598</v>
       </c>
       <c r="FD5">
-        <v>0.8673399148638763</v>
+        <v>0.8678237195605889</v>
       </c>
       <c r="FE5">
-        <v>0.8697464547189205</v>
+        <v>0.8702122803477387</v>
       </c>
       <c r="FF5">
-        <v>0.8834364174631831</v>
+        <v>0.8839501876115082</v>
       </c>
       <c r="FG5">
-        <v>0.902693523103448</v>
+        <v>0.9032877638969852</v>
       </c>
       <c r="FH5">
-        <v>0.9204878827710378</v>
+        <v>0.9211540480919184</v>
       </c>
       <c r="FI5">
-        <v>0.9267800623534957</v>
+        <v>0.9274509505217337</v>
       </c>
       <c r="FJ5">
-        <v>0.9286262609190076</v>
+        <v>0.9292758962159726</v>
       </c>
       <c r="FK5">
-        <v>0.9354389491917422</v>
+        <v>0.936096348416814</v>
       </c>
       <c r="FL5">
-        <v>0.9404000783990651</v>
+        <v>0.9410544237873618</v>
       </c>
       <c r="FM5">
-        <v>0.9415788008770458</v>
+        <v>0.9422079936538377</v>
       </c>
       <c r="FN5">
-        <v>0.9416053498565499</v>
+        <v>0.9422079936538377</v>
       </c>
       <c r="FO5">
-        <v>0.9425504054388956</v>
+        <v>0.9431265314219234</v>
       </c>
       <c r="FP5">
-        <v>0.9468198313591399</v>
+        <v>0.9473888622173412</v>
       </c>
       <c r="FQ5">
-        <v>0.9513179242751126</v>
+        <v>0.9518811959992437</v>
       </c>
       <c r="FR5">
-        <v>0.951916173403937</v>
+        <v>0.9524509010912889</v>
       </c>
       <c r="FS5">
-        <v>0.9524808173333891</v>
+        <v>0.9529868046450212</v>
       </c>
       <c r="FT5">
-        <v>0.9529572279044894</v>
+        <v>0.9534339593355262</v>
       </c>
       <c r="FU5">
-        <v>0.9533641158968885</v>
+        <v>0.9538111852604984</v>
       </c>
       <c r="FV5">
-        <v>0.9588563661942897</v>
+        <v>0.9593034848049977</v>
       </c>
       <c r="FW5">
-        <v>0.9659365875620266</v>
+        <v>0.9663930331674342</v>
       </c>
       <c r="FX5">
-        <v>0.9689412961058967</v>
+        <v>0.9693832574540029</v>
       </c>
       <c r="FY5">
-        <v>0.9693517957582284</v>
+        <v>0.9697641161400913</v>
       </c>
       <c r="FZ5">
-        <v>0.9694904412856384</v>
+        <v>0.9698715323889755</v>
       </c>
       <c r="GA5">
-        <v>0.9705927516650465</v>
+        <v>0.9709482437179119</v>
       </c>
       <c r="GB5">
-        <v>0.9730892176184109</v>
+        <v>0.973427255998119</v>
       </c>
       <c r="GC5">
-        <v>0.973108913098043</v>
+        <v>0.973427255998119</v>
       </c>
       <c r="GD5">
-        <v>0.9746948061684175</v>
+        <v>0.9749903753580011</v>
       </c>
       <c r="GE5">
-        <v>0.9755479320524806</v>
+        <v>0.9758164463270007</v>
       </c>
       <c r="GF5">
-        <v>0.9781450703039644</v>
+        <v>0.9783967190849167</v>
       </c>
       <c r="GG5">
-        <v>0.9857773005613893</v>
+        <v>0.9860415014582339</v>
       </c>
       <c r="GH5">
-        <v>0.9892321756968501</v>
+        <v>0.9894845224422517</v>
       </c>
       <c r="GI5">
-        <v>0.9932887369210709</v>
+        <v>0.9935327448760908</v>
       </c>
       <c r="GJ5">
-        <v>0.9944921213985909</v>
+        <v>0.9947111208302517</v>
       </c>
       <c r="GK5">
-        <v>0.9953006226834875</v>
+        <v>0.9954923064801161</v>
       </c>
       <c r="GL5">
-        <v>0.9978176765364674</v>
+        <v>0.9979920269450873</v>
       </c>
       <c r="GM5">
-        <v>0.9986110101516473</v>
+        <v>0.9987579563078703</v>
       </c>
       <c r="GN5">
-        <v>0.9989425819054534</v>
+        <v>0.9990594259578628</v>
       </c>
       <c r="GO5">
-        <v>0.9989460503686886</v>
+        <v>0.9990594259578628</v>
       </c>
       <c r="GP5">
-        <v>0.9989715077142129</v>
+        <v>0.9990594259578628</v>
       </c>
       <c r="GQ5">
-        <v>0.9992822713684076</v>
+        <v>0.999339965936573</v>
       </c>
       <c r="GR5">
-        <v>0.9993119465828533</v>
+        <v>0.999339965936573</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.000159681917758786</v>
+        <v>0.0001533362063698184</v>
       </c>
       <c r="C6">
-        <v>0.0003913293545075007</v>
+        <v>0.0003787261522927565</v>
       </c>
       <c r="D6">
-        <v>0.0006034444715303611</v>
+        <v>0.000584559834352831</v>
       </c>
       <c r="E6">
-        <v>0.000942720766768452</v>
+        <v>0.0009177105780416878</v>
       </c>
       <c r="F6">
-        <v>0.00125791546234454</v>
+        <v>0.001226750201093573</v>
       </c>
       <c r="G6">
-        <v>0.001515028478735833</v>
+        <v>0.001477636944217297</v>
       </c>
       <c r="H6">
-        <v>0.001907485793227502</v>
+        <v>0.001864033900318004</v>
       </c>
       <c r="I6">
-        <v>0.002147679509856265</v>
+        <v>0.00209798060277196</v>
       </c>
       <c r="J6">
-        <v>0.002346689867063058</v>
+        <v>0.00229069346024901</v>
       </c>
       <c r="K6">
-        <v>0.002463723095420439</v>
+        <v>0.00240132869535451</v>
       </c>
       <c r="L6">
-        <v>0.002485602664113348</v>
+        <v>0.002416693624524336</v>
       </c>
       <c r="M6">
-        <v>0.002485618726488123</v>
+        <v>0.002416693624524336</v>
       </c>
       <c r="N6">
-        <v>0.00248602003403249</v>
+        <v>0.002416693624524336</v>
       </c>
       <c r="O6">
-        <v>0.002492104323447094</v>
+        <v>0.002416693624524336</v>
       </c>
       <c r="P6">
-        <v>0.002499584084342112</v>
+        <v>0.002417641093565381</v>
       </c>
       <c r="Q6">
-        <v>0.002506425864546085</v>
+        <v>0.002417949799832286</v>
       </c>
       <c r="R6">
-        <v>0.002510112798694336</v>
+        <v>0.002417949799832286</v>
       </c>
       <c r="S6">
-        <v>0.002516646250602636</v>
+        <v>0.002417949799832286</v>
       </c>
       <c r="T6">
-        <v>0.002577990139741645</v>
+        <v>0.002472827427680239</v>
       </c>
       <c r="U6">
-        <v>0.002692349348136557</v>
+        <v>0.002580785364815269</v>
       </c>
       <c r="V6">
-        <v>0.002830344506199728</v>
+        <v>0.002712408226283376</v>
       </c>
       <c r="W6">
-        <v>0.002949860948522256</v>
+        <v>0.002825529719458166</v>
       </c>
       <c r="X6">
-        <v>0.003099532006421549</v>
+        <v>0.002968842793928948</v>
       </c>
       <c r="Y6">
-        <v>0.003480845581069627</v>
+        <v>0.003344082349379903</v>
       </c>
       <c r="Z6">
-        <v>0.003994644013858214</v>
+        <v>0.003851969172538666</v>
       </c>
       <c r="AA6">
-        <v>0.004278379579875846</v>
+        <v>0.004129511101144826</v>
       </c>
       <c r="AB6">
-        <v>0.004465379037251217</v>
+        <v>0.004310198334956563</v>
       </c>
       <c r="AC6">
-        <v>0.004671885004352804</v>
+        <v>0.004510415990991752</v>
       </c>
       <c r="AD6">
-        <v>0.004729852448539203</v>
+        <v>0.004561913034795494</v>
       </c>
       <c r="AE6">
-        <v>0.004730375054731868</v>
+        <v>0.004561913034795494</v>
       </c>
       <c r="AF6">
-        <v>0.004730468440420557</v>
+        <v>0.004561913034795494</v>
       </c>
       <c r="AG6">
-        <v>0.004742684452249099</v>
+        <v>0.00456760256081066</v>
       </c>
       <c r="AH6">
-        <v>0.004930094489618707</v>
+        <v>0.004748700877935429</v>
       </c>
       <c r="AI6">
-        <v>0.005163863976337638</v>
+        <v>0.004976215475191654</v>
       </c>
       <c r="AJ6">
-        <v>0.005415273252808986</v>
+        <v>0.005221391486336526</v>
       </c>
       <c r="AK6">
-        <v>0.005727300598429528</v>
+        <v>0.005527259876665107</v>
       </c>
       <c r="AL6">
-        <v>0.005950853565291853</v>
+        <v>0.005744545429912212</v>
       </c>
       <c r="AM6">
-        <v>0.006136634852684322</v>
+        <v>0.005924013000419752</v>
       </c>
       <c r="AN6">
-        <v>0.006363767589496402</v>
+        <v>0.006144882711958773</v>
       </c>
       <c r="AO6">
-        <v>0.006468867418021275</v>
+        <v>0.006243569918403003</v>
       </c>
       <c r="AP6">
-        <v>0.006555688986802692</v>
+        <v>0.006323956458284632</v>
       </c>
       <c r="AQ6">
-        <v>0.006612979075998598</v>
+        <v>0.006374775316746907</v>
       </c>
       <c r="AR6">
-        <v>0.006694693324851698</v>
+        <v>0.006450048275776282</v>
       </c>
       <c r="AS6">
-        <v>0.006722505634461339</v>
+        <v>0.00647135321864781</v>
       </c>
       <c r="AT6">
-        <v>0.006722628277799617</v>
+        <v>0.00647135321864781</v>
       </c>
       <c r="AU6">
-        <v>0.006730466040689611</v>
+        <v>0.006472659128548694</v>
       </c>
       <c r="AV6">
-        <v>0.006730506506149043</v>
+        <v>0.006472659128548694</v>
       </c>
       <c r="AW6">
-        <v>0.006758897157750566</v>
+        <v>0.006494543122385748</v>
       </c>
       <c r="AX6">
-        <v>0.006918200115514671</v>
+        <v>0.006647499904204184</v>
       </c>
       <c r="AY6">
-        <v>0.007057599483558132</v>
+        <v>0.006780528697035226</v>
       </c>
       <c r="AZ6">
-        <v>0.007096815880007711</v>
+        <v>0.006813251706705119</v>
       </c>
       <c r="BA6">
-        <v>0.007182252398808568</v>
+        <v>0.006892251498711264</v>
       </c>
       <c r="BB6">
-        <v>0.007230663938129088</v>
+        <v>0.006934180923326478</v>
       </c>
       <c r="BC6">
-        <v>0.007239153985009926</v>
+        <v>0.006936139916835326</v>
       </c>
       <c r="BD6">
-        <v>0.007241208221081093</v>
+        <v>0.006936139916835326</v>
       </c>
       <c r="BE6">
-        <v>0.007250227402954505</v>
+        <v>0.006938628693988877</v>
       </c>
       <c r="BF6">
-        <v>0.007274247470617371</v>
+        <v>0.006956136746107856</v>
       </c>
       <c r="BG6">
-        <v>0.007313091410072177</v>
+        <v>0.006988486842198125</v>
       </c>
       <c r="BH6">
-        <v>0.007333195002790014</v>
+        <v>0.00700207361827246</v>
       </c>
       <c r="BI6">
-        <v>0.007351216996537066</v>
+        <v>0.007013576243600716</v>
       </c>
       <c r="BJ6">
-        <v>0.007380246523129623</v>
+        <v>0.007036099895608197</v>
       </c>
       <c r="BK6">
-        <v>0.007386478756342151</v>
+        <v>0.007036099895608197</v>
       </c>
       <c r="BL6">
-        <v>0.00739301220825045</v>
+        <v>0.007036099895608197</v>
       </c>
       <c r="BM6">
-        <v>0.007403137641108335</v>
+        <v>0.007039696279869074</v>
       </c>
       <c r="BN6">
-        <v>0.007406824575256587</v>
+        <v>0.007039696279869074</v>
       </c>
       <c r="BO6">
-        <v>0.007406892580440632</v>
+        <v>0.007039696279869074</v>
       </c>
       <c r="BP6">
-        <v>0.007424454393194144</v>
+        <v>0.007050738160080484</v>
       </c>
       <c r="BQ6">
-        <v>0.007478191362439919</v>
+        <v>0.007097999542919974</v>
       </c>
       <c r="BR6">
-        <v>0.007538220929597374</v>
+        <v>0.007151561237594972</v>
       </c>
       <c r="BS6">
-        <v>0.007585465671934271</v>
+        <v>0.007192322434882024</v>
       </c>
       <c r="BT6">
-        <v>0.007831235168484775</v>
+        <v>0.007431851752453962</v>
       </c>
       <c r="BU6">
-        <v>0.00806288260523349</v>
+        <v>0.0076572416983769</v>
       </c>
       <c r="BV6">
-        <v>0.008121991902403862</v>
+        <v>0.007709881994930985</v>
       </c>
       <c r="BW6">
-        <v>0.008149490692017904</v>
+        <v>0.007730873033471318</v>
       </c>
       <c r="BX6">
-        <v>0.008180980428575929</v>
+        <v>0.007755859911348438</v>
       </c>
       <c r="BY6">
-        <v>0.008243341757700657</v>
+        <v>0.007811756226433987</v>
       </c>
       <c r="BZ6">
-        <v>0.008253562900557199</v>
+        <v>0.007815448438021792</v>
       </c>
       <c r="CA6">
-        <v>0.008255617136628366</v>
+        <v>0.007815448438021792</v>
       </c>
       <c r="CB6">
-        <v>0.008257080736707825</v>
+        <v>0.007815448438021792</v>
       </c>
       <c r="CC6">
-        <v>0.008275656123447109</v>
+        <v>0.007827505134731627</v>
       </c>
       <c r="CD6">
-        <v>0.008276365341037156</v>
+        <v>0.007827505134731627</v>
       </c>
       <c r="CE6">
-        <v>0.008300094110704112</v>
+        <v>0.007844721531760442</v>
       </c>
       <c r="CF6">
-        <v>0.008323822880371068</v>
+        <v>0.007861937928789257</v>
       </c>
       <c r="CG6">
-        <v>0.008324523588501232</v>
+        <v>0.007861937928789257</v>
       </c>
       <c r="CH6">
-        <v>0.008331391904404833</v>
+        <v>0.007862273203285178</v>
       </c>
       <c r="CI6">
-        <v>0.008362049723974535</v>
+        <v>0.007886427144349671</v>
       </c>
       <c r="CJ6">
-        <v>0.008393038529539591</v>
+        <v>0.007910912477156206</v>
       </c>
       <c r="CK6">
-        <v>0.00840738870433818</v>
+        <v>0.007918738782353486</v>
       </c>
       <c r="CL6">
-        <v>0.008470614573450774</v>
+        <v>0.007975500697242847</v>
       </c>
       <c r="CM6">
-        <v>0.009540086258440215</v>
+        <v>0.00903974195725794</v>
       </c>
       <c r="CN6">
-        <v>0.04838217571327245</v>
+        <v>0.04792290540706065</v>
       </c>
       <c r="CO6">
-        <v>0.05073746228021486</v>
+        <v>0.05027453779435615</v>
       </c>
       <c r="CP6">
-        <v>0.102590431552433</v>
+        <v>0.102184530743576</v>
       </c>
       <c r="CQ6">
-        <v>0.1115802304262568</v>
+        <v>0.1111788085050944</v>
       </c>
       <c r="CR6">
-        <v>0.1140334503918247</v>
+        <v>0.1136284943448926</v>
       </c>
       <c r="CS6">
-        <v>0.1165825638560466</v>
+        <v>0.1161741912365644</v>
       </c>
       <c r="CT6">
-        <v>0.1166013970787823</v>
+        <v>0.1161865060853448</v>
       </c>
       <c r="CU6">
-        <v>0.1364245868005541</v>
+        <v>0.1360274550526171</v>
       </c>
       <c r="CV6">
-        <v>0.1521992405791491</v>
+        <v>0.1518149050871307</v>
       </c>
       <c r="CW6">
-        <v>0.1632679459237944</v>
+        <v>0.1628906377941047</v>
       </c>
       <c r="CX6">
-        <v>0.2594049145744649</v>
+        <v>0.2591389166665049</v>
       </c>
       <c r="CY6">
-        <v>0.2919422401177876</v>
+        <v>0.2917095873670037</v>
       </c>
       <c r="CZ6">
-        <v>0.2922140529139726</v>
+        <v>0.2919751919099794</v>
       </c>
       <c r="DA6">
-        <v>0.2994377988125838</v>
+        <v>0.2992012517402023</v>
       </c>
       <c r="DB6">
-        <v>0.3017208419805401</v>
+        <v>0.3014805521673031</v>
       </c>
       <c r="DC6">
-        <v>0.3966569056480659</v>
+        <v>0.3965264538999558</v>
       </c>
       <c r="DD6">
-        <v>0.4154978723836237</v>
+        <v>0.4153839758006956</v>
       </c>
       <c r="DE6">
-        <v>0.48060024746988</v>
+        <v>0.4805596166484861</v>
       </c>
       <c r="DF6">
-        <v>0.4814724515576382</v>
+        <v>0.481426348486313</v>
       </c>
       <c r="DG6">
-        <v>0.5400945907348478</v>
+        <v>0.5401138094809357</v>
       </c>
       <c r="DH6">
-        <v>0.5480806216227599</v>
+        <v>0.5481030887647976</v>
       </c>
       <c r="DI6">
-        <v>0.5716408562920805</v>
+        <v>0.5716856638209009</v>
       </c>
       <c r="DJ6">
-        <v>0.6022590538623391</v>
+        <v>0.6023348539417958</v>
       </c>
       <c r="DK6">
-        <v>0.6313155114545175</v>
+        <v>0.6314203895902476</v>
       </c>
       <c r="DL6">
-        <v>0.6314675035323842</v>
+        <v>0.6315660265299607</v>
       </c>
       <c r="DM6">
-        <v>0.6343153694924131</v>
+        <v>0.6344108421499604</v>
       </c>
       <c r="DN6">
-        <v>0.6347918137157259</v>
+        <v>0.6348813289721388</v>
       </c>
       <c r="DO6">
-        <v>0.6381633887684042</v>
+        <v>0.6382504956854537</v>
       </c>
       <c r="DP6">
-        <v>0.6435490450928139</v>
+        <v>0.6436362126776939</v>
       </c>
       <c r="DQ6">
-        <v>0.644196463223727</v>
+        <v>0.6442778829997139</v>
       </c>
       <c r="DR6">
-        <v>0.6492887165522547</v>
+        <v>0.649369837321357</v>
       </c>
       <c r="DS6">
-        <v>0.652416765508351</v>
+        <v>0.6524951794061027</v>
       </c>
       <c r="DT6">
-        <v>0.6528185250027121</v>
+        <v>0.6528908899453609</v>
       </c>
       <c r="DU6">
-        <v>0.6529774544604814</v>
+        <v>0.6530434727693212</v>
       </c>
       <c r="DV6">
-        <v>0.6559323584190079</v>
+        <v>0.6559954576027759</v>
       </c>
       <c r="DW6">
-        <v>0.6642394393024139</v>
+        <v>0.6643061804485482</v>
       </c>
       <c r="DX6">
-        <v>0.6643132696653776</v>
+        <v>0.6643735598570479</v>
       </c>
       <c r="DY6">
-        <v>0.664835208258052</v>
+        <v>0.664889596818892</v>
       </c>
       <c r="DZ6">
-        <v>0.6684480692073437</v>
+        <v>0.6685003452146075</v>
       </c>
       <c r="EA6">
-        <v>0.6818140220197459</v>
+        <v>0.6818761415222344</v>
       </c>
       <c r="EB6">
-        <v>0.6842785645851549</v>
+        <v>0.6843371638419394</v>
       </c>
       <c r="EC6">
-        <v>0.6844833606422804</v>
+        <v>0.6845356694918667</v>
       </c>
       <c r="ED6">
-        <v>0.6855431063274063</v>
+        <v>0.6855901728291809</v>
       </c>
       <c r="EE6">
-        <v>0.6949483561953991</v>
+        <v>0.6950004108748893</v>
       </c>
       <c r="EF6">
-        <v>0.70029687372033</v>
+        <v>0.7003489435402113</v>
       </c>
       <c r="EG6">
-        <v>0.7007143181144709</v>
+        <v>0.7007603582069394</v>
       </c>
       <c r="EH6">
-        <v>0.7007843548234879</v>
+        <v>0.7008239393109557</v>
       </c>
       <c r="EI6">
-        <v>0.7024328880003499</v>
+        <v>0.7024679519185028</v>
       </c>
       <c r="EJ6">
-        <v>0.7046270727695534</v>
+        <v>0.7046582850177678</v>
       </c>
       <c r="EK6">
-        <v>0.7051192606626453</v>
+        <v>0.7051445348094598</v>
       </c>
       <c r="EL6">
-        <v>0.7206614314445033</v>
+        <v>0.7206992168526836</v>
       </c>
       <c r="EM6">
-        <v>0.7331053542698468</v>
+        <v>0.733151852881886</v>
       </c>
       <c r="EN6">
-        <v>0.7347301784470416</v>
+        <v>0.734772127425551</v>
       </c>
       <c r="EO6">
-        <v>0.7361235744274846</v>
+        <v>0.7361606900709619</v>
       </c>
       <c r="EP6">
-        <v>0.7435943043226292</v>
+        <v>0.7436340366686504</v>
       </c>
       <c r="EQ6">
-        <v>0.7537832641796222</v>
+        <v>0.7538289454320187</v>
       </c>
       <c r="ER6">
-        <v>0.7626033690558277</v>
+        <v>0.7626533211726843</v>
       </c>
       <c r="ES6">
-        <v>0.7719807129242121</v>
+        <v>0.772035619009582</v>
       </c>
       <c r="ET6">
-        <v>0.7742268745926861</v>
+        <v>0.7742779927251781</v>
       </c>
       <c r="EU6">
-        <v>0.7773499132488527</v>
+        <v>0.7773983183680042</v>
       </c>
       <c r="EV6">
-        <v>0.788751422088827</v>
+        <v>0.7888072625450179</v>
       </c>
       <c r="EW6">
-        <v>0.8031688528864713</v>
+        <v>0.803235825816016</v>
       </c>
       <c r="EX6">
-        <v>0.823787462597079</v>
+        <v>0.8238731698557529</v>
       </c>
       <c r="EY6">
-        <v>0.842759589330796</v>
+        <v>0.8428620125401095</v>
       </c>
       <c r="EZ6">
-        <v>0.850099480227777</v>
+        <v>0.8502043597476819</v>
       </c>
       <c r="FA6">
-        <v>0.8528438335892587</v>
+        <v>0.8529455358758684</v>
       </c>
       <c r="FB6">
-        <v>0.8531862247244532</v>
+        <v>0.8532818052779108</v>
       </c>
       <c r="FC6">
-        <v>0.8540637188121371</v>
+        <v>0.8541538336005298</v>
       </c>
       <c r="FD6">
-        <v>0.8540645319982756</v>
+        <v>0.8541538336005298</v>
       </c>
       <c r="FE6">
-        <v>0.8603654969098384</v>
+        <v>0.8604559812317083</v>
       </c>
       <c r="FF6">
-        <v>0.8728893547340599</v>
+        <v>0.8729886502499196</v>
       </c>
       <c r="FG6">
-        <v>0.8753880606989893</v>
+        <v>0.875483877849123</v>
       </c>
       <c r="FH6">
-        <v>0.8754116454496583</v>
+        <v>0.8755009500506048</v>
       </c>
       <c r="FI6">
-        <v>0.8783471369084572</v>
+        <v>0.878433498587079</v>
       </c>
       <c r="FJ6">
-        <v>0.8869539177876569</v>
+        <v>0.8870442888226799</v>
       </c>
       <c r="FK6">
-        <v>0.9036591875531902</v>
+        <v>0.9037634956608401</v>
       </c>
       <c r="FL6">
-        <v>0.9138120724106895</v>
+        <v>0.9139222852013588</v>
       </c>
       <c r="FM6">
-        <v>0.9138208256135667</v>
+        <v>0.9139245076734597</v>
       </c>
       <c r="FN6">
-        <v>0.9177596518582833</v>
+        <v>0.9178616209565484</v>
       </c>
       <c r="FO6">
-        <v>0.9237099052747686</v>
+        <v>0.9238126271650111</v>
       </c>
       <c r="FP6">
-        <v>0.9361106171007185</v>
+        <v>0.9362219992236366</v>
       </c>
       <c r="FQ6">
-        <v>0.9459288819629144</v>
+        <v>0.9460457585673434</v>
       </c>
       <c r="FR6">
-        <v>0.9480721674328323</v>
+        <v>0.9481851299712628</v>
       </c>
       <c r="FS6">
-        <v>0.9481181220921873</v>
+        <v>0.9482245995040904</v>
       </c>
       <c r="FT6">
-        <v>0.9486220582851143</v>
+        <v>0.9487226119975373</v>
       </c>
       <c r="FU6">
-        <v>0.951423968545788</v>
+        <v>0.9515214155823458</v>
       </c>
       <c r="FV6">
-        <v>0.9519319277386585</v>
+        <v>0.9520234560074219</v>
       </c>
       <c r="FW6">
-        <v>0.9520181946924478</v>
+        <v>0.952103287252424</v>
       </c>
       <c r="FX6">
-        <v>0.9533645194735514</v>
+        <v>0.9534447209951985</v>
       </c>
       <c r="FY6">
-        <v>0.9567395572261811</v>
+        <v>0.956817354653294</v>
       </c>
       <c r="FZ6">
-        <v>0.9628557571403372</v>
+        <v>0.9629345107887044</v>
       </c>
       <c r="GA6">
-        <v>0.9648229618127265</v>
+        <v>0.9648975855424571</v>
       </c>
       <c r="GB6">
-        <v>0.9652794450063196</v>
+        <v>0.9653480868652348</v>
       </c>
       <c r="GC6">
-        <v>0.9659813025964686</v>
+        <v>0.9660442633823361</v>
       </c>
       <c r="GD6">
-        <v>0.9660603444513592</v>
+        <v>0.9661168606713882</v>
       </c>
       <c r="GE6">
-        <v>0.9678342294264619</v>
+        <v>0.96788637874252</v>
       </c>
       <c r="GF6">
-        <v>0.9725344276604924</v>
+        <v>0.9725857973600389</v>
       </c>
       <c r="GG6">
-        <v>0.9765314746043918</v>
+        <v>0.9765812027134747</v>
       </c>
       <c r="GH6">
-        <v>0.976544501715209</v>
+        <v>0.9765877043327825</v>
       </c>
       <c r="GI6">
-        <v>0.9766310439039944</v>
+        <v>0.9766678111501838</v>
       </c>
       <c r="GJ6">
-        <v>0.9766995918270323</v>
+        <v>0.9767299016431589</v>
       </c>
       <c r="GK6">
-        <v>0.9789992727947551</v>
+        <v>0.9790258602658503</v>
       </c>
       <c r="GL6">
-        <v>0.9808004557694746</v>
+        <v>0.9808227098004707</v>
       </c>
       <c r="GM6">
-        <v>0.9821048207511672</v>
+        <v>0.9821221323064626</v>
       </c>
       <c r="GN6">
-        <v>0.9838561792265861</v>
+        <v>0.9838690962632901</v>
       </c>
       <c r="GO6">
-        <v>0.9856371776015889</v>
+        <v>0.9856457364544446</v>
       </c>
       <c r="GP6">
-        <v>0.9922664638085436</v>
+        <v>0.9922766078611193</v>
       </c>
       <c r="GQ6">
-        <v>0.9967292567459061</v>
+        <v>0.9967383301533044</v>
       </c>
       <c r="GR6">
-        <v>0.9987986685168608</v>
+        <v>0.9988037372985117</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>106</v>
       </c>
       <c r="E2">
-        <v>0.003268045225154847</v>
+        <v>0.01725844053972846</v>
       </c>
       <c r="F2">
-        <v>0.5047055691360263</v>
+        <v>0.5047130239017775</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>110</v>
       </c>
       <c r="E3">
-        <v>0.01065009252508099</v>
+        <v>0.04834797646556922</v>
       </c>
       <c r="F3">
-        <v>0.5266476945280022</v>
+        <v>0.5266345035683442</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>107</v>
       </c>
       <c r="E4">
-        <v>0.006783621802115006</v>
+        <v>0.06609293446586231</v>
       </c>
       <c r="F4">
-        <v>0.5110322946942991</v>
+        <v>0.5110279660081709</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E5">
-        <v>0.01931794785930824</v>
+        <v>0.02825377657289857</v>
       </c>
       <c r="F5">
-        <v>0.5006332801854935</v>
+        <v>0.5179894419699398</v>
       </c>
       <c r="G5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>110</v>
       </c>
       <c r="E6">
-        <v>0.008470614573450774</v>
+        <v>0.04792290540706065</v>
       </c>
       <c r="F6">
-        <v>0.5400945907348478</v>
+        <v>0.5401138094809357</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>119</v>
       </c>
       <c r="E2">
-        <v>0.003268045225154847</v>
+        <v>0.01725844053972846</v>
       </c>
       <c r="F2">
-        <v>0.7019971517527316</v>
+        <v>0.7021431629843207</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>143</v>
       </c>
       <c r="E3">
-        <v>0.01065009252508099</v>
+        <v>0.04834797646556922</v>
       </c>
       <c r="F3">
-        <v>0.7029485236667503</v>
+        <v>0.7029493761596965</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>114</v>
       </c>
       <c r="E4">
-        <v>0.006783621802115006</v>
+        <v>0.06609293446586231</v>
       </c>
       <c r="F4">
-        <v>0.7007971470554976</v>
+        <v>0.7008578960048862</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.01931794785930824</v>
+        <v>0.02825377657289857</v>
       </c>
       <c r="F5">
-        <v>0.7157722675192579</v>
+        <v>0.7158190861380853</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>135</v>
       </c>
       <c r="E6">
-        <v>0.008470614573450774</v>
+        <v>0.04792290540706065</v>
       </c>
       <c r="F6">
-        <v>0.70029687372033</v>
+        <v>0.7003489435402113</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>146</v>
       </c>
       <c r="E2">
-        <v>0.003268045225154847</v>
+        <v>0.01725844053972846</v>
       </c>
       <c r="F2">
-        <v>0.8007369173669936</v>
+        <v>0.8008314336076936</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.01065009252508099</v>
+        <v>0.04834797646556922</v>
       </c>
       <c r="F3">
-        <v>0.8203611817288382</v>
+        <v>0.8205248603055827</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>147</v>
       </c>
       <c r="E4">
-        <v>0.006783621802115006</v>
+        <v>0.06609293446586231</v>
       </c>
       <c r="F4">
-        <v>0.8030617693490661</v>
+        <v>0.8030931561985476</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>156</v>
       </c>
       <c r="E5">
-        <v>0.01931794785930824</v>
+        <v>0.02825377657289857</v>
       </c>
       <c r="F5">
-        <v>0.8262738325310173</v>
+        <v>0.8266138259052432</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>152</v>
       </c>
       <c r="E6">
-        <v>0.008470614573450774</v>
+        <v>0.04792290540706065</v>
       </c>
       <c r="F6">
-        <v>0.8031688528864713</v>
+        <v>0.803235825816016</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>165</v>
       </c>
       <c r="E2">
-        <v>0.003268045225154847</v>
+        <v>0.01725844053972846</v>
       </c>
       <c r="F2">
-        <v>0.9034916932591356</v>
+        <v>0.9035869505509065</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>164</v>
       </c>
       <c r="E3">
-        <v>0.01065009252508099</v>
+        <v>0.04834797646556922</v>
       </c>
       <c r="F3">
-        <v>0.9017560928646238</v>
+        <v>0.9019576510849102</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>166</v>
       </c>
       <c r="E4">
-        <v>0.006783621802115006</v>
+        <v>0.06609293446586231</v>
       </c>
       <c r="F4">
-        <v>0.9044124484131241</v>
+        <v>0.9044449484722797</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>162</v>
       </c>
       <c r="E5">
-        <v>0.01931794785930824</v>
+        <v>0.02825377657289857</v>
       </c>
       <c r="F5">
-        <v>0.902693523103448</v>
+        <v>0.9032877638969852</v>
       </c>
       <c r="G5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>166</v>
       </c>
       <c r="E6">
-        <v>0.008470614573450774</v>
+        <v>0.04792290540706065</v>
       </c>
       <c r="F6">
-        <v>0.9036591875531902</v>
+        <v>0.9037634956608401</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>30</v>

--- a/on_trucks/Processed_Stand_Alone/30_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/30_11R22.xlsx
@@ -1994,10 +1994,10 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.132812022675389E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.015289786288019E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2009,40 +2009,40 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.162976909531695E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.750687807841609E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001570197573878409</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001685180136896966</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0002467429567287778</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0002309143616193728</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.000124635773497322</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001027546288954489</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.012388535984217E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.365789884933925E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.09697253156859E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.275081812180079E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -2054,46 +2054,46 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>1.756721371206385E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>4.422529381307367E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>5.085056072322128E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>9.389485386240321E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>9.922992986096352E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>7.114219755413488E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.990143826449424E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>4.648976966126459E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.852522505674858E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>2.008382890093149E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.400413676821399E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.095812046384481E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.983111700982944E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.994013534326244E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>4.340366758251169E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -2111,43 +2111,43 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>8.312968910965141E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.540299953054398E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>7.839571953006855E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>2.09697253156859E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>4.101904953688902E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>6.271889315483998E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>4.867487283307105E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>2.683507338084196E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1.167337052972939E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>1.357990249679008E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>3.87363197550756E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>2.434994157238972E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>1.738057089476394E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
         <v>0</v>
@@ -2156,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="BD2">
-        <v>2.281704662364618E-06</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>2.421435651107396E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>1.201378126434954E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>2.815498775097843E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>1.069920272103153E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -2177,28 +2177,28 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.572672686745998E-06</v>
+        <v>0</v>
       </c>
       <c r="BL2">
         <v>0</v>
       </c>
       <c r="BM2">
-        <v>5.225545389172783E-06</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>2.306800367323986E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>1.337835440266086E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>2.815498775097843E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>4.396525584695648E-06</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>3.21298964224522E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
         <v>0</v>
@@ -2222,373 +2222,373 @@
         <v>0</v>
       </c>
       <c r="BZ2">
-        <v>4.711207723227981E-07</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>5.378874827666284E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>3.106638404788796E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>3.380815811428323E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>4.101904953688902E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>5.607584983253185E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>7.778863558352392E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>7.836829858590633E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>4.914321427031014E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>4.23280820238141E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>5.6574859760312E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>4.63631684104308E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.01437203425786302</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.02665156772838225</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.04910990964005731</v>
+        <v>0.08198297703885665</v>
       </c>
       <c r="CO2">
-        <v>0.06581286256385843</v>
+        <v>0.1537407986509137</v>
       </c>
       <c r="CP2">
-        <v>0.0003600880616137197</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>1.778949344551459E-05</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.0001051477962770996</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.01029298686504004</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0004164860492264781</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.03837596097583339</v>
+        <v>0.03586868952609087</v>
       </c>
       <c r="CV2">
-        <v>0.01960829634986727</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.09538539630044637</v>
+        <v>0.2807878310030645</v>
       </c>
       <c r="CX2">
-        <v>0.001705549229310763</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.001056287724116545</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.02720859100778159</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.03713071114070664</v>
+        <v>0.0305189519114839</v>
       </c>
       <c r="DB2">
-        <v>0.1012736413695409</v>
+        <v>0.3060844142601526</v>
       </c>
       <c r="DC2">
-        <v>0.01294331106654467</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.03904865256710131</v>
+        <v>0.03875865056629411</v>
       </c>
       <c r="DE2">
-        <v>0.03554735508753313</v>
+        <v>0.02371667079805912</v>
       </c>
       <c r="DF2">
-        <v>0.0260350514815968</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.0270731310831173</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.002034069779636672</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.04132567811979435</v>
+        <v>0.04854101624508445</v>
       </c>
       <c r="DJ2">
-        <v>0.007366173332232744</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>2.29738538599572E-05</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.00480293462965295</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.00650623065942946</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.00103373589711748</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.001589982127965884</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.005044170463504896</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.004275874570627004</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0009041416278539575</v>
+        <v>0</v>
       </c>
       <c r="DS2">
         <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.001795812498417559</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.008129178948033297</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.002088702839917168</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.000858823639799198</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.001320198719651239</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0108673420712139</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.006132113116370685</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>5.5578846095548E-05</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0004335524860812431</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.004290826998946579</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.007952991548236586</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.003685091925395426</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0003120978854817115</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0001746973316155648</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.00227283571631666</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0008348159229423281</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.003644438731379319</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.01184038064676893</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.002561360190210635</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>3.984631789292609E-05</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0005818266741507247</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.006824750488788926</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.008320427294653734</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.008490563586532203</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.006667122956700224</v>
+        <v>0</v>
       </c>
       <c r="ES2">
         <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.005640298846377738</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.006627282650372034</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.01297650881908513</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.01380601615595637</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.007891050907947818</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.0008311524123231055</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>1.635690102893294E-05</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>7.003575930374528E-05</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.0003042520877300209</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.002672556018046539</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01200153563089845</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.005629485538051341</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>6.086561634336315E-06</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0001850409270070223</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.003868107481661317</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.01162568419439697</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.01193694309469183</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0006308494979524867</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.002797069889424563</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.00601704696206895</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.008523298333462244</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.01526209922475104</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.006007235047282237</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.0008384874222853801</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0001292110097372545</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.001550505018254906</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.002383844339721972</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0003154903601247929</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0004560039735076976</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.001725815760726113</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.004877778860894188</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.003741878937830258</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0001222380651568629</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0002130417243793452</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>5.378874827666284E-06</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.00110071443888491</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.005779223754866438</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.008019272928691376</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001295876058869961</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>8.464167922994782E-05</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.0006719203881002514</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>4.710207531000154E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.002437732987090232</v>
+        <v>0</v>
       </c>
       <c r="GK2">
         <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.002320550822066884</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>2.719809280455561E-05</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.005397442843271945</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.008523298333462244</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.003295106254056315</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001341006942603451</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0004746885473970909</v>
+        <v>0</v>
       </c>
       <c r="GS2">
         <v>0</v>
@@ -2776,28 +2776,28 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.828924993558035E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.703131197974696E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6.729559516746045E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0003481968093233702</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001391075069135842</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001645378543673654</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001833724609017777</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.417783582278305E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.173978176484701E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2821,40 +2821,40 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1.018269058321577E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>4.937269252847429E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>8.247760737283366E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>5.226962417589537E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>6.665781291716413E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0001200800616259607</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0001776724709266061</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>7.145436115214061E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>6.093847691882504E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.000576891090943486</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0001616667241000652</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -2863,40 +2863,40 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.722708075940648E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0001181212116252431</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0001131858005428851</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>7.057796374899536E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0002268752617679381</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0001546929839404634</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0001382143621693989</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0001874585815670789</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.918178943616803E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>9.792671598645846E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0001472639707102667</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -2905,52 +2905,52 @@
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0002154091545042083</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>4.088980218026219E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>3.125593672304127E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>2.070561907444896E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>4.195995802450767E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1.507383134882781E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>6.821110561848126E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0001181350746045388</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.000344096715416465</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>8.461545920946695E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>4.598314898336022E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0003946476434048835</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0003251684861585371</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>3.896388352146816E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1.904895896753206E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0001713829083894411</v>
+        <v>0</v>
       </c>
       <c r="BL3">
         <v>0</v>
@@ -2959,412 +2959,412 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.416620261997284E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>3.125593672304127E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>5.75378043984665E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>8.749059300093974E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>3.620424849545968E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.000109948098220021</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0005096181521744009</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0007681644802367102</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0006150345321760712</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0002804959525599722</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0001509574372721895</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0002842350276221088</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.000294745481436745</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>1.341148020323039E-06</v>
+        <v>0</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>6.093847691882504E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0001950765543220073</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>9.043205458272331E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>2.475816085736212E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0002421044211339168</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0002759786862218814</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0002597749082897971</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.03838397594947553</v>
+        <v>0.0408482930793157</v>
       </c>
       <c r="CM3">
-        <v>0.004173666128836324</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.07563060872208902</v>
+        <v>0.2235964532788389</v>
       </c>
       <c r="CO3">
-        <v>0.02151135287010326</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>8.508176252042124E-05</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.002110343292759965</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.01112170444511</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.01069217060678953</v>
+        <v>0</v>
       </c>
       <c r="CT3">
         <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.01126243724100024</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01827389512908648</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.0836717531801542</v>
+        <v>0.2630498010373105</v>
       </c>
       <c r="CX3">
-        <v>0.002486517892268861</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.003748653345867803</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.01169242315478437</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.02465416144575344</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.05346105051374162</v>
+        <v>0.1148229703241421</v>
       </c>
       <c r="DC3">
-        <v>0.01504708672227345</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01659799424938711</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.05888565536223808</v>
+        <v>0.1414384381417067</v>
       </c>
       <c r="DF3">
-        <v>0.001454511403325218</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.05172545963468562</v>
+        <v>0.1063074075364163</v>
       </c>
       <c r="DH3">
-        <v>0.003628136041564602</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.05246514731261331</v>
+        <v>0.1099366366022698</v>
       </c>
       <c r="DJ3">
-        <v>0.004799257377383209</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.005536431375399121</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0005347820156769333</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.0001929895594714584</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.006628040956952831</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.002586600082514766</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>3.108720231278904E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.005050551492814611</v>
+        <v>0</v>
       </c>
       <c r="DR3">
         <v>0</v>
       </c>
       <c r="DS3">
-        <v>1.702852746767976E-05</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.001313562693787814</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.007447730254509254</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.001791326568818908</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>4.020509078801518E-06</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.0005129669187131701</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.01270747390692548</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.004854754201397111</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0009011122960704688</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.002457657134049005</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.002328425097858812</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.007462457289347496</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.001504942877138462</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0002772128021184337</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.001001670418533989</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.001715187838800586</v>
+        <v>0</v>
       </c>
       <c r="EI3">
         <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.01593186355965026</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.01759387239089992</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.005002502887720226</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.00287780093396394</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.007158280067799054</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.01009303529552046</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.009525312713475511</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.007877603901215937</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.004577096167596014</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.000429019913219797</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.01224821635746572</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.02012300506398212</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0264708071499585</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.02623138758345197</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.01372771901616786</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.005641456825398961</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.001639658458392812</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.00209366792293567</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0006676142164686117</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.002330706926207966</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01099693863383304</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.006645781460674426</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.0007098407712126378</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.003469381974020685</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.008905384938032087</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.02460463963598292</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.01933825919499714</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.003820154042249008</v>
+        <v>0</v>
       </c>
       <c r="FL3">
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.002844172132821741</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.008633661522374183</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.01346265343915654</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.006241907666243424</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0006695074203005602</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0005213156398799842</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.002955056821641343</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.001479620636865956</v>
+        <v>0</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0001265572705640049</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.001442451914437939</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.003181724451965038</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.002174253431605599</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>2.372530374482988E-05</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.002502313970304419</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0001971740541633746</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0006425912180767393</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.002420490516628689</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.003244883504014846</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0001565765247846743</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0001409166507712926</v>
+        <v>0</v>
       </c>
       <c r="GH3">
         <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.002096997844643582</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.002219765201703481</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0001197873853645892</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.003811179592506954</v>
+        <v>0</v>
       </c>
       <c r="GM3">
         <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.005769412625490865</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.003409797726241475</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0006187048637009625</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.001586051430103149</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>2.844162612673808E-06</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.002187840755130808</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,49 +3540,49 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>5.551385249588117E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.413781227152539E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.880254274988664E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>8.067301091139089E-08</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5.374000426209119E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001691058733341292</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001269698247482385</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001227214431419138</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.000256265705104216</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.000239242015887817</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>4.547796658923283E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.183016360393752E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.962647928702872E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>4.622450317214698E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3594,103 +3594,103 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>7.50720857334619E-07</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>8.067301091139089E-08</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>9.582172300838896E-06</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>5.981841792801654E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>4.926292887385623E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>3.022513433812003E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001847430945926483</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0001707802533865614</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>8.770132219931327E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>8.770132219931327E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.000124353725341958</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>6.858959751210238E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>4.01933895647033E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>4.196455966277932E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>5.510548932177738E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>2.373845253839453E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1.137069725857039E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.300423048913758E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>3.432333345672904E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>4.926292887385623E-06</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>4.585051457523079E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0001096419365305173</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>3.453925282140686E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>8.481298734645851E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0002434435876435419</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0002087551573606197</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0001156037747604309</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0002768595883287011</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0001409990340989887</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>5.82579261720639E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>6.857959046842683E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1.693165798882164E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1.911030688596555E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -3699,445 +3699,445 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>2.636135783083946E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>6.723695389807337E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>3.209104961467544E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>5.189082608321764E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0001077725137665457</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>1.805555559879457E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>2.691380730745662E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>8.151465862797446E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0001499650863224916</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.000200779195003393</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0002721155765410528</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0003447496283802721</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0001195540699575933</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>5.89731994972041E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>6.768638448758899E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>6.857959046842683E-06</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>3.585643239624139E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0001660655040081894</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0002040887684904332</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.000117953131049263</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>5.200838093456889E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0002121578003155226</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0001126996832256581</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>2.140638157973261E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0001121232087607917</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0001191365128846433</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>1.261344296832096E-06</v>
+        <v>0</v>
       </c>
       <c r="CE4">
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>4.683478217246406E-06</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>2.811248462917632E-06</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>1.701890998967776E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>3.400915302259198E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>4.992877603890131E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>3.914807828074368E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0001209224502450554</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.05936696911343452</v>
+        <v>0.1057095258027497</v>
       </c>
       <c r="CO4">
-        <v>0.00130942171576811</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.08617711145980975</v>
+        <v>0.2022500758594575</v>
       </c>
       <c r="CQ4">
-        <v>0.01022258751178432</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.006873317190553106</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.004256181344750814</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.0004367008820431562</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.03048625470193381</v>
+        <v>0.001713059864778674</v>
       </c>
       <c r="CV4">
-        <v>0.005772216247936801</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.02680288670028171</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.0805861104904287</v>
+        <v>0.1821174595540984</v>
       </c>
       <c r="CY4">
-        <v>0.05931449986285948</v>
+        <v>0.1055205894574616</v>
       </c>
       <c r="CZ4">
-        <v>0.005027315658796654</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.005877865050303485</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.007777854776771869</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.07489636764769443</v>
+        <v>0.1616292839740442</v>
       </c>
       <c r="DD4">
-        <v>0.03911834030059248</v>
+        <v>0.03279630743074183</v>
       </c>
       <c r="DE4">
-        <v>0.04186329635096261</v>
+        <v>0.04268061030241414</v>
       </c>
       <c r="DF4">
-        <v>0.001053527999212652</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.06661628632308531</v>
+        <v>0.131813567396914</v>
       </c>
       <c r="DH4">
-        <v>0.0001591531426910383</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.02535689249917607</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0153921637680697</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.03938860991351785</v>
+        <v>0.03376952035733998</v>
       </c>
       <c r="DL4">
-        <v>0.000855536537199997</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.001347394718936095</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.001889572439621475</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.002358103829191522</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.002199540387374258</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.001629102582467312</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.005073385395537176</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.003822853583943319</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>1.725571841275467E-05</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0007845837483320416</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.003748840397255963</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01050971727457415</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.001373898858516228</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>2.246455231698588E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0007310966261093474</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.009240111874465442</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.002721559459404578</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0003497826027079339</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.0007209252527466886</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.006175933952041446</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.006593292440778013</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.001803826277344592</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0003076485749790258</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.001054047019312912</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.003491657133843846</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>6.859757009302566E-07</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.01016117146715257</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.009758118544961234</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0001401647503052152</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>7.977122149058333E-06</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.002604910692295438</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.00558970184926468</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.005150398554419307</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.00532841904736597</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.002128535076233242</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.002180119951772364</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.007456522509765228</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.00882556407765578</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0143826491643673</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.01034454923195138</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.003684143261215542</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.0004861516525748092</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0001542009326129793</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.0003575328293376692</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0002638549634723248</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.008097707416314584</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.01225698423607441</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.003087262642734912</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0002222896569203551</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.00293456358782149</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.005761458385862546</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.01339928364967915</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.009970272512851546</v>
+        <v>0</v>
       </c>
       <c r="FM4">
         <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.004303160267048616</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.004825712865330803</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.01192517752718319</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.01272215249944738</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.00416763079321979</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0006466757658517746</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.0007223739671013267</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.004289039778989408</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.002136736754309476</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>9.146528237759748E-05</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0002085232390112708</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.001291929597905711</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.003221373514978988</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.001546093881062327</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>9.746462251090036E-05</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0003223524304261738</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0001280143677063751</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.001987613515788418</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.006021874420192127</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.005663765957546299</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0001154304712678172</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>3.022513433812003E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0006786580285332998</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0004518707551138643</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0007384053054926472</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001213102769902993</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.003026706462744983</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0004634172716319068</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.006343527523255345</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.004035408721957384</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.001109591974198348</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.001059303548443203</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,52 +4313,52 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.435987142517125E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.456884773559558E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.208944226851844E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6.926532288551212E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002054403680053623</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.474772173622307E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.000546628610885952</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0003840139737708349</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0003407367453293109</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0005380404862360368</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0003803673219696992</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0003582342908982698</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0002208694185940843</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0002417024787042801</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.063870317599695E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -4367,52 +4367,52 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001192964155625881</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>3.562202773769358E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0007185706870038465</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.00037904031396212</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0003308914885501507</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0002318179840092739</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>4.739307056347783E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0001657493301724206</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0002104411050941227</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0003326002137857117</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001497093811425531</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.985515047665016E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.635360894275125E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -4421,28 +4421,28 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001781983611339654</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.000191388738250218</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0001477780730206151</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0009938020452659579</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0009995487252096417</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0002446749746295726</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0001036301571375685</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>7.942674412537594E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>2.638126721217929E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -4475,427 +4475,427 @@
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0003664239208673371</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0002576446799601943</v>
+        <v>0</v>
       </c>
       <c r="BF5">
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0003700085323031976</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0008632046623398019</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0001282415137150349</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0001063602852545487</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.001021542577854626</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0005565916317047752</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>8.094841484327338E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0002274703605712991</v>
+        <v>0</v>
       </c>
       <c r="BO5">
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>2.194716847712599E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>4.067230256947926E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0005252786583744715</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0002885096108081998</v>
+        <v>0</v>
       </c>
       <c r="BU5">
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0003372853778491572</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0005252786583744715</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>1.413402032583846E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0003163566621174039</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0009795054023367317</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0009086109676552158</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0002309407183578146</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001044140539503895</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.009906842287370066</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.03143719667423246</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="CF5">
-        <v>0.02703246854012004</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.01754018502787698</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.002279623820080576</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.000837648014982738</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0003360296538994095</v>
+        <v>0</v>
       </c>
       <c r="CK5">
         <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.002373612559450412</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.005501604492863924</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.02742597927139055</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.03799860803543426</v>
+        <v>0.1386172213930645</v>
       </c>
       <c r="CP5">
-        <v>0.0254966315364811</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.03405890201082843</v>
+        <v>0.06909650198254536</v>
       </c>
       <c r="CR5">
-        <v>0.001087486416695906</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.007262429553461036</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.04081625551400589</v>
+        <v>0.1883379057619276</v>
       </c>
       <c r="CU5">
-        <v>0.001947879362004505</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.01006225400588978</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.01107407623751586</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.0194416186217826</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.009102148172139616</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.0002203046380314711</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.04283842138878602</v>
+        <v>0.2240213870938074</v>
       </c>
       <c r="DB5">
-        <v>0.03422003294979163</v>
+        <v>0.0719398458071991</v>
       </c>
       <c r="DC5">
         <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.003943625274811558</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.001906901942142477</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.001177139974899467</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.0127904659929114</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0003140251896160713</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.001096496954961271</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.002043086981313386</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0003808586860883853</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.0004802686550032599</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.006854632338270532</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.01093544197186238</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0009557222564720984</v>
+        <v>0</v>
       </c>
       <c r="DP5">
         <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.008687954301583235</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.003083174191806577</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0002597781624242254</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.002141059058143705</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0003287271971304066</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.007423994211709367</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.002841380116055219</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>7.680529829614445E-06</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.001560961123634227</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.004225600947840546</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.001732193738804599</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.006030853970988992</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.01814224513099276</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.006966600713460181</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.004726275949361872</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.006051799031661337</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.008598419231625935</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0118741535356806</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.01185461102178743</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.007034214753769349</v>
+        <v>0</v>
       </c>
       <c r="EK5">
         <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.007137991748823984</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.02754084648465936</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.04357112433890886</v>
+        <v>0.236950787381192</v>
       </c>
       <c r="EO5">
-        <v>0.0322056683894258</v>
+        <v>0.03639402779005459</v>
       </c>
       <c r="EP5">
-        <v>0.03026793896898074</v>
+        <v>0.002200526424493303</v>
       </c>
       <c r="EQ5">
-        <v>0.01254209330488628</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.004165410829840436</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.002335957940280446</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>4.771008797861979E-05</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.002990224286568651</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.01426787360584293</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.01764250435598355</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.008181888788946759</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.004442256605545498</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.01360440581238324</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.03057441414890141</v>
+        <v>0.007608639328472101</v>
       </c>
       <c r="FB5">
-        <v>0.03025655886695864</v>
+        <v>0.001999711217825608</v>
       </c>
       <c r="FC5">
-        <v>0.01040108210975784</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.0005522526786291327</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.002388560787149826</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.01373790726376955</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.019337576285477</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.01786628419493316</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.006296902429815284</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.001824945694238924</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.006820452200841324</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.004958075370547848</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.001153569866475905</v>
+        <v>0</v>
       </c>
       <c r="FN5">
         <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0009185377680856868</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.004262330795417872</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.004492333781902461</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0005697050920452076</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0005359035537322376</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.000447154690505056</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0003772259249721467</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.005492299544499401</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.007089548362436483</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.002990224286568651</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0003808586860883853</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0001074162488841985</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.001076711328936342</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.002479012280207031</v>
+        <v>0</v>
       </c>
       <c r="GC5">
         <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.001563119359882133</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0008260709689995383</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.002580272757915981</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.007644782373317253</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.003443020984017839</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.004048222433839043</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.001178375954160979</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0007811856498643757</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.002499720464971103</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.000765929362783106</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.000301469649992416</v>
+        <v>0</v>
       </c>
       <c r="GO5">
         <v>0</v>
@@ -4904,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0002805399787102896</v>
+        <v>0</v>
       </c>
       <c r="GR5">
         <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.000660034063427734</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,37 +5086,37 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001533362063698184</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002253899459229381</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0002058336820600745</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0003331507436888569</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0003090396230518851</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002508867431237244</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.000386396956100707</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002339467024539551</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0001927128574770499</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0001106352351054998</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.53649291698261E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>9.474690410459509E-07</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>3.087062669047096E-07</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5140,37 +5140,37 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5.487762784795298E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001079579371350296</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001316228614681069</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0001131214931747899</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0001433130744707819</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0003752395554509559</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0005078868231587628</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0002775419286061598</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001806872338117368</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0002002176560351895</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>5.149704380374078E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -5179,94 +5179,94 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>5.689526015166375E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0001810983171247695</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0002275145972562252</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0002451760111448725</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0003058683903285813</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0002172855532471047</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0001794675705075402</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0002208697115390211</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>9.868720644422982E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>8.038653988162865E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>5.081885846227443E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>7.527295902937551E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.130494287152817E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>1.30590990088405E-06</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>2.188399383705487E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0001529567818184353</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0001330287928310414</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>3.272300966989381E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>7.899979200614537E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>4.192942461521335E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1.958993508848909E-06</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>2.488777153550427E-06</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>1.750805211897887E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>3.235009609026934E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.358677607433548E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1.150262532825549E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>2.252365200748147E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>3.596384260875966E-06</v>
+        <v>0</v>
       </c>
       <c r="BN6">
         <v>0</v>
@@ -5284,37 +5284,37 @@
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>1.104188021140934E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>4.726138283949034E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>5.356169467499826E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>4.076119728705174E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0002395293175719379</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0002253899459229381</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>5.264029655408495E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>2.099103854033326E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>2.498687787711989E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>5.589631508554851E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>3.692211587804599E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -5323,367 +5323,367 @@
         <v>0</v>
       </c>
       <c r="CC6">
-        <v>1.205669670983544E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>1.721639702881424E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>1.721639702881424E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>3.35274495921323E-07</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>2.415394106449333E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>2.448533280653491E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>7.826305197278929E-06</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>5.676191488936086E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.001064241260015093</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.03888316344980271</v>
+        <v>0.03867116479738528</v>
       </c>
       <c r="CO6">
-        <v>0.0023516323872955</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.05190999294921985</v>
+        <v>0.09557466935332867</v>
       </c>
       <c r="CQ6">
-        <v>0.008994277761518368</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.002449685839798192</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.002545696891671882</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>1.23148487803189E-05</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.01984094896727234</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.01578745003451358</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.01107573270697402</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.0962482788724002</v>
+        <v>0.289252175852151</v>
       </c>
       <c r="CY6">
-        <v>0.03257067070049879</v>
+        <v>0.01109707549688078</v>
       </c>
       <c r="CZ6">
-        <v>0.0002656045429757669</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.007226059830222857</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.002279300427100787</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.09504590173265272</v>
+        <v>0.2839999789877763</v>
       </c>
       <c r="DD6">
-        <v>0.01885752190073987</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.06517564084779046</v>
+        <v>0.1535213750861111</v>
       </c>
       <c r="DF6">
-        <v>0.0008667318378269537</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.05868746099462259</v>
+        <v>0.1251798533174384</v>
       </c>
       <c r="DH6">
-        <v>0.007989279283861901</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.02358257505610332</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.03064919012089485</v>
+        <v>0.00270370710892867</v>
       </c>
       <c r="DK6">
-        <v>0.02908553564845181</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0001456369397131589</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.002844815619999606</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0004704868221783969</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.003369166713314832</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.005385716992240196</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0006416703220199672</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.005091954321643165</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.003125342084745664</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0003957105392582559</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0001525828239602403</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.0029519848334547</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.008310722845772231</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>6.737940849975401E-05</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0005160369618440765</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.003610748395715516</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.01337579630762688</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.002461022319705016</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0001985056499272745</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.001054503337314143</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.009410238045708395</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.005348532665322035</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0004114146667281432</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>6.358110401629235E-05</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.001644012607547062</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.002190333099265082</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0004862497916919954</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01555468204322375</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0124526360292024</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.001620274543665012</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.001388562645410858</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.007473346597688551</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0101949087633684</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.008824375740665505</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.009382297836897712</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.00224237371559605</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.003120325642826215</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.01140894417701365</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.01442856327099816</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.0206373440397368</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01898884268435662</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.007342347207572415</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.002741176128186495</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0003362694020423244</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.0008720283226190596</v>
+        <v>0</v>
       </c>
       <c r="FD6">
         <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.006302147631178546</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.01253266901821128</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.002495227599203435</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>1.707220148188147E-05</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.002932548536474216</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.008610790235601002</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.01671920683816019</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.01015878954051864</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>2.222472100900224E-06</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.003937113283088727</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.005951006208462724</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.01240937205862551</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.009823759343706823</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.002139371403919366</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>3.946953282768414E-05</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0004980124934468345</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.002798803584808569</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0005020404250760676</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>7.983124500204947E-05</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.001341433742774529</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.003372633658095479</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.006117156135410403</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.001963074753752661</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0004505013227776837</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0006961765171013407</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>7.259728905215143E-05</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.001769518071131772</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.004699418617518852</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.003995405353435753</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>6.501619307868154E-06</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>8.010681740124705E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>6.209049297513914E-05</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.002295958622691354</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.001796849534620413</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.001299422505991956</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.001746963956827542</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.001776640191154488</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.006630871406674669</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.004461722292185133</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.002065407145207342</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.00119626270148771</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,598 +6645,598 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.132812022675389E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.634341001304191E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.634341001304191E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.634341001304191E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.634341001304191E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.797317910835886E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001654800571867749</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0003224998145746158</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0004910178282643124</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0007377607849930902</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0009686751466124631</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.001093310920109785</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001196065549005234</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001256189434365076</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.001279847333214415</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.001300817058530101</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.001313567876651902</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.001313567876651902</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.001313567876651902</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.001313567876651902</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.001331135090363966</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.00137536038417704</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.001426210944900261</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.001520105798762664</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.001619335728623628</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.001690477926177762</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.001740379364442257</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.001786869134103521</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.00181539435916027</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.001835478188061202</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.001836878601738023</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.001847836722201868</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.001855819833902851</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.001859813847437177</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.001859813847437177</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.001859813847437177</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.001864154214195428</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.001864154214195428</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.001864154214195428</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.001872467183106393</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.001897870182636937</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.001905709754589944</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.00192667947990563</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.001967698529442519</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.002030417422597359</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.00207909229543043</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.002105927368811272</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.002117600739341001</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.002131180641837791</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.002169916961592867</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.002194266903165256</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.00221164747406002</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.00221164747406002</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.00221164747406002</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.002213929178722385</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.002238143535233459</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.002250157316497808</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.002278312304248787</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.002289011506969819</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.002289011506969819</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.002289011506969819</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.002290584179656565</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.002290584179656565</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.002295809725045738</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.002318877728718978</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.002332256083121638</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.002360411070872617</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.002364807596457313</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.002368020586099558</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.002368020586099558</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.002368020586099558</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.002368020586099558</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.002368020586099558</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.002368020586099558</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.002368020586099558</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.002368020586099558</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.002368491706871881</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.002373870581699547</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.002404936965747435</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.002438745123861718</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.002479764173398607</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.002535840023231139</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.002613628658814663</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.002691996957400569</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.002741140171670879</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.002783468253694694</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.002840043113455006</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.002886406281865437</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.01725844053972846</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.04391000826811071</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.09301991790816802</v>
+        <v>0.08198297703885665</v>
       </c>
       <c r="CO2">
-        <v>0.1588327804720265</v>
+        <v>0.2357237756897703</v>
       </c>
       <c r="CP2">
-        <v>0.1591928685336402</v>
+        <v>0.2357237756897703</v>
       </c>
       <c r="CQ2">
-        <v>0.1592106580270857</v>
+        <v>0.2357237756897703</v>
       </c>
       <c r="CR2">
-        <v>0.1593158058233628</v>
+        <v>0.2357237756897703</v>
       </c>
       <c r="CS2">
-        <v>0.1696087926884028</v>
+        <v>0.2357237756897703</v>
       </c>
       <c r="CT2">
-        <v>0.1700252787376293</v>
+        <v>0.2357237756897703</v>
       </c>
       <c r="CU2">
-        <v>0.2084012397134627</v>
+        <v>0.2715924652158612</v>
       </c>
       <c r="CV2">
-        <v>0.22800953606333</v>
+        <v>0.2715924652158612</v>
       </c>
       <c r="CW2">
-        <v>0.3233949323637764</v>
+        <v>0.5523802962189257</v>
       </c>
       <c r="CX2">
-        <v>0.3251004815930871</v>
+        <v>0.5523802962189257</v>
       </c>
       <c r="CY2">
-        <v>0.3261567693172037</v>
+        <v>0.5523802962189257</v>
       </c>
       <c r="CZ2">
-        <v>0.3533653603249853</v>
+        <v>0.5523802962189257</v>
       </c>
       <c r="DA2">
-        <v>0.3904960714656919</v>
+        <v>0.5828992481304096</v>
       </c>
       <c r="DB2">
-        <v>0.4917697128352329</v>
+        <v>0.8889836623905623</v>
       </c>
       <c r="DC2">
-        <v>0.5047130239017775</v>
+        <v>0.8889836623905623</v>
       </c>
       <c r="DD2">
-        <v>0.5437616764688789</v>
+        <v>0.9277423129568564</v>
       </c>
       <c r="DE2">
-        <v>0.579309031556412</v>
+        <v>0.9514589837549156</v>
       </c>
       <c r="DF2">
-        <v>0.6053440830380088</v>
+        <v>0.9514589837549156</v>
       </c>
       <c r="DG2">
-        <v>0.6324172141211261</v>
+        <v>0.9514589837549156</v>
       </c>
       <c r="DH2">
-        <v>0.6344512839007628</v>
+        <v>0.9514589837549156</v>
       </c>
       <c r="DI2">
-        <v>0.6757769620205571</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.6831431353527899</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.6831661092066499</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.6879690438363029</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.6944752744957323</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.6955090103928498</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.6970989925208158</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.7021431629843207</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.7064190375549477</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.7073231791828016</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.7073231791828016</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.7091189916812192</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.7172481706292525</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.7193368734691696</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.7201956971089688</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.7215158958286201</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.7323832378998339</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.7385153510162046</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.7385709298623001</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.7390044823483813</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.7432953093473279</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.7512483008955645</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.7549333928209599</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.7552454907064416</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.7554201880380572</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.7576930237543739</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.7585278396773162</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.7621722784086955</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.7740126590554645</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.776574019245675</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.7766138655635679</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.7771956922377187</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.7840204427265076</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.7923408700211614</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.8008314336076936</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.8074985565643938</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.8074985565643938</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.8131388554107716</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.8197661380611436</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.8327426468802287</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.846548663036185</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8544397139441329</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.855270866356456</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.855287223257485</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8553572590167887</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8556615111045187</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8583340671225652</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8703356027534637</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.875965088291515</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8759711748531493</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8761562157801563</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8800243232618177</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8916500074562147</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9035869505509065</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.904217800048859</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9070148699382835</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9130319169003525</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9215552152338147</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9368173144585658</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.942824549505848</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9436630369281335</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9437922479378708</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9453427529561257</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9477265972958476</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9480420876559724</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9484980916294801</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9502239073902062</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9551016862511004</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9588435651889307</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9589658032540875</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9591788449784668</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9591842238532945</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9602849382921794</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9660641620470458</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9740834349757372</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9753793110346072</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9754639527138371</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9761358731019374</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9761829751772474</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9786207081643377</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9786207081643377</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9809412589864045</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9809684570792091</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.986365899922481</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9948891982559432</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9981843045099995</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9995253114526029</v>
+        <v>1</v>
       </c>
       <c r="GR2">
         <v>1</v>
@@ -7427,592 +7427,592 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.828924993558035E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.686023697330499E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001341558321407654</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0004823526414641356</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0006214601483777198</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0006214601483777198</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0007859980027450853</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.000969370463646863</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.000969370463646863</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.000969370463646863</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.000983548299469646</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001015288081234493</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001015288081234493</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001015288081234493</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001015288081234493</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001025470771817709</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001074843464346183</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001157321071719017</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001209590695894912</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001276248508812076</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001276248508812076</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001396328570438037</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001574001041364643</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.001581146477479857</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.001642084954398682</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002218976045342168</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002380642769442234</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002380642769442234</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002380642769442234</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.00241786985020164</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.002535991061826883</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002649176862369768</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.002719754826118763</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.002946630087886701</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.003101323071827165</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.003239537433996564</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.003426996015563643</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.003456177804999811</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.003456177804999811</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.003554104520986269</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.003701368491696536</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.003701368491696536</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.003701368491696536</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.003916777646200745</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.003957667448381007</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.003988923385104048</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.004009629004178497</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.004051588962203005</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.004066662793551832</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.004073483904113681</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.00419161897871822</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.004535715694134685</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.004620331153344152</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.004666314302327512</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.005060961945732395</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.005386130431890932</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0054250943154124</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.005444143274379932</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.005615526182769373</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.005615526182769373</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.005615526182769373</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.005639692385389346</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.005670948322112387</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.005676702102552234</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.005764192695553174</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.005800396944048634</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.005910345042268655</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.006419963194443055</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.007188127674679766</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.007803162206855837</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.008083658159415809</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.008234615596687998</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.008518850624310107</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.008813596105746852</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.008813596105746852</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.008814937253767176</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.008814937253767176</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.008875875730686001</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.009070952285008009</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.009161384339590732</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.009161384339590732</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.009186142500448094</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.009428246921582012</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.009704225607803893</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.009964000516093689</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.04834797646556922</v>
+        <v>0.0408482930793157</v>
       </c>
       <c r="CM3">
-        <v>0.05252164259440555</v>
+        <v>0.0408482930793157</v>
       </c>
       <c r="CN3">
-        <v>0.1281522513164945</v>
+        <v>0.2644447463581546</v>
       </c>
       <c r="CO3">
-        <v>0.1496636041865978</v>
+        <v>0.2644447463581546</v>
       </c>
       <c r="CP3">
-        <v>0.1497486859491182</v>
+        <v>0.2644447463581546</v>
       </c>
       <c r="CQ3">
-        <v>0.1518590292418782</v>
+        <v>0.2644447463581546</v>
       </c>
       <c r="CR3">
-        <v>0.1629807336869882</v>
+        <v>0.2644447463581546</v>
       </c>
       <c r="CS3">
-        <v>0.1736729042937777</v>
+        <v>0.2644447463581546</v>
       </c>
       <c r="CT3">
-        <v>0.1736729042937777</v>
+        <v>0.2644447463581546</v>
       </c>
       <c r="CU3">
-        <v>0.1849353415347779</v>
+        <v>0.2644447463581546</v>
       </c>
       <c r="CV3">
-        <v>0.2032092366638644</v>
+        <v>0.2644447463581546</v>
       </c>
       <c r="CW3">
-        <v>0.2868809898440186</v>
+        <v>0.5274945473954651</v>
       </c>
       <c r="CX3">
-        <v>0.2893675077362874</v>
+        <v>0.5274945473954651</v>
       </c>
       <c r="CY3">
-        <v>0.2931161610821553</v>
+        <v>0.5274945473954651</v>
       </c>
       <c r="CZ3">
-        <v>0.3048085842369396</v>
+        <v>0.5274945473954651</v>
       </c>
       <c r="DA3">
-        <v>0.3294627456826931</v>
+        <v>0.5274945473954651</v>
       </c>
       <c r="DB3">
-        <v>0.3829237961964347</v>
+        <v>0.6423175177196072</v>
       </c>
       <c r="DC3">
-        <v>0.3979708829187081</v>
+        <v>0.6423175177196072</v>
       </c>
       <c r="DD3">
-        <v>0.4145688771680953</v>
+        <v>0.6423175177196072</v>
       </c>
       <c r="DE3">
-        <v>0.4734545325303333</v>
+        <v>0.783755955861314</v>
       </c>
       <c r="DF3">
-        <v>0.4749090439336585</v>
+        <v>0.783755955861314</v>
       </c>
       <c r="DG3">
-        <v>0.5266345035683442</v>
+        <v>0.8900633633977303</v>
       </c>
       <c r="DH3">
-        <v>0.5302626396099088</v>
+        <v>0.8900633633977303</v>
       </c>
       <c r="DI3">
-        <v>0.5827277869225221</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.5875270442999053</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.5930634756753045</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.5935982576909814</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.5937912472504528</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.6004192882074056</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.6030058882899204</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.6030369754922332</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.6080875269850479</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.6080875269850479</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.6081045555125155</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.6094181182063033</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.6168658484608126</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.6186571750296315</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.6186611955387102</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.6191741624574234</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.6318816363643489</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.636736390565746</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.6376375028618165</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.6400951599958655</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.6424235850937243</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.6498860423830718</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.6513909852602102</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.6516681980623287</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.6526698684808626</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.6543850563196631</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.6543850563196631</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.6703169198793134</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.6879107922702133</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.6929132951579335</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.6957910960918975</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.7029493761596965</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.713042411455217</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.7225677241686925</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7304453280699085</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7350224242375045</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.7354514441507243</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.74769966050819</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.7678226655721722</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.7942934727221307</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8205248603055827</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8342525793217506</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8398940361471495</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8415336946055423</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8436273625284779</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8442949767449466</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8466256836711545</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8576226223049875</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8642684037656619</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8649782445368746</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8684476265108952</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8773530114489273</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9019576510849102</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9212959102799073</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9251160643221563</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9251160643221563</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.927960236454978</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9365938979773523</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9500565514165088</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9562984590827522</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9569679665030528</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9574892821429328</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9604443389645742</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9619239596014401</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9619239596014401</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.962050516872004</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.963492968786442</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.966674693238407</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9688489466700126</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9688726719737575</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9713749859440619</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9715721599982253</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9722147512163021</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9746352417329308</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9778801252369457</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9780367017617303</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9781776184125016</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9781776184125016</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9802746162571452</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9824943814588487</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9826141688442133</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9864253484367203</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9864253484367203</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9921947610622112</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9956045587884527</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9962232636521536</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9978093150822568</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9978121592448694</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>5.551385249588117E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>9.965166476740657E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001384542075172932</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001384542075172932</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001385348805282046</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001922748847902958</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.000361380758124425</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0004883505828726636</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0006110720260145775</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0008673377311187935</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001106579747006611</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001152057713595843</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001163887877199781</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.00126351435648681</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001309738859658957</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001309738859658957</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001309738859658957</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001309738859658957</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001310489580516291</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001310570253527203</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001320152425828042</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001379970843756058</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001384897136643444</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001415122270981564</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001599865365574212</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001770645618960774</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001858346941160087</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0019460482633594</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002070401988701359</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002138991586213461</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002179184975778164</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002221149535440944</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002276255024762721</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.002299993477301115</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.002311364174559686</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.002324368405048823</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.002327800738394496</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.002332727031281882</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.002378577545857113</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.00248821948238763</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.002522758735209037</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.002607571722555495</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.002851015310199037</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.003059770467559657</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.003175374242320088</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.003452233830648789</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.003593232864747778</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.003651490790919842</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.003658348749966684</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.003675280407955506</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.003694390714841472</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.003694390714841472</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.003694390714841472</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.003720752072672311</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.003787989026570385</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.00382008007618506</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.003871970902268278</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.003979743416034823</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.003997798971633618</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.004000490352364363</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.004082005010992338</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.00423197009731483</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.004432749292318222</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.004704864868859275</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.005049614497239547</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.005169168567197141</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.005228141766694345</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.005295828151181934</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.005295828151181934</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.005302686110228777</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.005338542542625018</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.005504608046633207</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.005708696815123641</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.005826649946172904</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.005878658327107472</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.006090816127422995</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.006203515810648653</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.006224922192228386</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.006337045400989178</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.006456181913873821</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.006457443258170653</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.006457443258170653</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0064621267363879</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0064621267363879</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.006464937984850818</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.006481956894840496</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.006515966047863087</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.006565894823901988</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.006605042902182732</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.006725965352427788</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.06609293446586231</v>
+        <v>0.1057095258027497</v>
       </c>
       <c r="CO4">
-        <v>0.06740235618163043</v>
+        <v>0.1057095258027497</v>
       </c>
       <c r="CP4">
-        <v>0.1535794676414402</v>
+        <v>0.3079596016622072</v>
       </c>
       <c r="CQ4">
-        <v>0.1638020551532245</v>
+        <v>0.3079596016622072</v>
       </c>
       <c r="CR4">
-        <v>0.1706753723437776</v>
+        <v>0.3079596016622072</v>
       </c>
       <c r="CS4">
-        <v>0.1749315536885284</v>
+        <v>0.3079596016622072</v>
       </c>
       <c r="CT4">
-        <v>0.1753682545705716</v>
+        <v>0.3079596016622072</v>
       </c>
       <c r="CU4">
-        <v>0.2058545092725054</v>
+        <v>0.3096726615269859</v>
       </c>
       <c r="CV4">
-        <v>0.2116267255204422</v>
+        <v>0.3096726615269859</v>
       </c>
       <c r="CW4">
-        <v>0.2384296122207239</v>
+        <v>0.3096726615269859</v>
       </c>
       <c r="CX4">
-        <v>0.3190157227111526</v>
+        <v>0.4917901210810842</v>
       </c>
       <c r="CY4">
-        <v>0.3783302225740121</v>
+        <v>0.5973107105385459</v>
       </c>
       <c r="CZ4">
-        <v>0.3833575382328087</v>
+        <v>0.5973107105385459</v>
       </c>
       <c r="DA4">
-        <v>0.3892354032831122</v>
+        <v>0.5973107105385459</v>
       </c>
       <c r="DB4">
-        <v>0.397013258059884</v>
+        <v>0.5973107105385459</v>
       </c>
       <c r="DC4">
-        <v>0.4719096257075784</v>
+        <v>0.7589399945125901</v>
       </c>
       <c r="DD4">
-        <v>0.5110279660081709</v>
+        <v>0.7917363019433319</v>
       </c>
       <c r="DE4">
-        <v>0.5528912623591336</v>
+        <v>0.834416912245746</v>
       </c>
       <c r="DF4">
-        <v>0.5539447903583462</v>
+        <v>0.834416912245746</v>
       </c>
       <c r="DG4">
-        <v>0.6205610766814316</v>
+        <v>0.96623047964266</v>
       </c>
       <c r="DH4">
-        <v>0.6207202298241226</v>
+        <v>0.96623047964266</v>
       </c>
       <c r="DI4">
-        <v>0.6460771223232986</v>
+        <v>0.96623047964266</v>
       </c>
       <c r="DJ4">
-        <v>0.6614692860913683</v>
+        <v>0.96623047964266</v>
       </c>
       <c r="DK4">
-        <v>0.7008578960048862</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL4">
-        <v>0.7017134325420863</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM4">
-        <v>0.7030608272610224</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN4">
-        <v>0.7049503997006439</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO4">
-        <v>0.7073085035298354</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP4">
-        <v>0.7095080439172097</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ4">
-        <v>0.711137146499677</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR4">
-        <v>0.7162105318952141</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS4">
-        <v>0.7200333854791574</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT4">
-        <v>0.7200506411975701</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU4">
-        <v>0.7208352249459021</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV4">
-        <v>0.7245840653431581</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW4">
-        <v>0.7350937826177323</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX4">
-        <v>0.7364676814762485</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY4">
-        <v>0.7364901460285656</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ4">
-        <v>0.7372212426546749</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA4">
-        <v>0.7464613545291404</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB4">
-        <v>0.749182913988545</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC4">
-        <v>0.7495326965912529</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED4">
-        <v>0.7502536218439996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE4">
-        <v>0.756429555796041</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF4">
-        <v>0.763022848236819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG4">
-        <v>0.7648266745141635</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH4">
-        <v>0.7651343230891425</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI4">
-        <v>0.7661883701084554</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ4">
-        <v>0.7696800272422992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK4">
-        <v>0.7696807132180001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL4">
-        <v>0.7798418846851527</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM4">
-        <v>0.7896000032301139</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN4">
-        <v>0.7897401679804191</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO4">
-        <v>0.7897481451025682</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP4">
-        <v>0.7923530557948636</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ4">
-        <v>0.7979427576441283</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER4">
-        <v>0.8030931561985476</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES4">
-        <v>0.8084215752459135</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET4">
-        <v>0.8105501103221467</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU4">
-        <v>0.8127302302739191</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV4">
-        <v>0.8201867527836844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW4">
-        <v>0.8290123168613401</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX4">
-        <v>0.8433949660257074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY4">
-        <v>0.8537395152576588</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ4">
-        <v>0.8574236585188744</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4">
-        <v>0.8579098101714492</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB4">
-        <v>0.8580640111040622</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC4">
-        <v>0.8584215439333999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD4">
-        <v>0.8586853988968722</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE4">
-        <v>0.8667831063131868</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF4">
-        <v>0.8790400905492612</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG4">
-        <v>0.8821273531919962</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH4">
-        <v>0.8823496428489166</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI4">
-        <v>0.8852842064367381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ4">
-        <v>0.8910456648226006</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK4">
-        <v>0.9044449484722797</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL4">
-        <v>0.9144152209851313</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM4">
-        <v>0.9144152209851313</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN4">
-        <v>0.9187183812521799</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO4">
-        <v>0.9235440941175107</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP4">
-        <v>0.9354692716446938</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ4">
-        <v>0.9481914241441413</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR4">
-        <v>0.9523590549373611</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS4">
-        <v>0.9530057307032128</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT4">
-        <v>0.9537281046703141</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU4">
-        <v>0.9580171444493035</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV4">
-        <v>0.960153881203613</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.9602453464859906</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.9604538697250018</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.9617457993229075</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.9649671728378865</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.9665132667189488</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.9666107313414597</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.9669330837718859</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.9670610981395923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.9690487116553808</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9750705860755728</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9807343520331191</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.9808497825043869</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.9808800076387251</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9815586656672584</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.9820105364223722</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.9827489417278649</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.9839620444977678</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.9869887509605128</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9874521682321447</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9937956957554001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.9978311044773575</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.9989406964515558</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.435987142517125E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.089287191607668E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.298231418459512E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>9.224763707010724E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002976880050754695</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0002976880050754695</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0003724357268116926</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0009190643376976446</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00130307831146848</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001643815056797791</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.002181855543033827</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.002562222865003527</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.002920457155901796</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.00314132657449588</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.00338302905320016</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.003403667756376157</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.003403667756376157</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.003403667756376157</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.003522964171938745</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.003522964171938745</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.003558586199676439</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.004277156886680285</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.004656197200642405</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.004656197200642405</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.004987088689192556</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.00521890667320183</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.005266299743765307</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.005432049073937728</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.00564249017903185</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.005975090392817562</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.006124799773960115</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.006154654924436765</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.006154654924436765</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.006171008533379516</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.006171008533379516</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.006171008533379516</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.006349206894513482</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0065405956327637</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.006688373705784315</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.007682175751050273</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.008681724476259915</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.008926399450889487</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.009030029608027056</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.009109456352152432</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.009109456352152432</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.009109456352152432</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.009109456352152432</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.009109456352152432</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.009109456352152432</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.009109456352152432</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.009109456352152432</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.009135837619364612</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.009135837619364612</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.009135837619364612</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.009502261540231949</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.009759906220192143</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.009759906220192143</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01012991475249534</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01099311941483514</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01112136092855018</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.01122772121380473</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01224926379165935</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.01280585542336413</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0128868038382074</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0131142741987787</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0131142741987787</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.01313622136725583</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.01313622136725583</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0131768936698253</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01370217232819978</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01399068193900798</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.01399068193900798</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.01432796731685713</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.01485324597523161</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01486737999555745</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01518373665767485</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01616324206001158</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0170718530276668</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.01730279374602461</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.01834693428552851</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.02825377657289857</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.05969097324713103</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="CF5">
-        <v>0.08672344178725105</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="CG5">
-        <v>0.104263626815128</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="CH5">
-        <v>0.1065432506352086</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="CI5">
-        <v>0.1073808986501913</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="CJ5">
-        <v>0.1077169283040908</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="CK5">
-        <v>0.1077169283040908</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="CL5">
-        <v>0.1100905408635412</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="CM5">
-        <v>0.1155921453564051</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="CN5">
-        <v>0.1430181246277956</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="CO5">
-        <v>0.1810167326632299</v>
+        <v>0.1614506672124829</v>
       </c>
       <c r="CP5">
-        <v>0.206513364199711</v>
+        <v>0.1614506672124829</v>
       </c>
       <c r="CQ5">
-        <v>0.2405722662105394</v>
+        <v>0.2305471691950282</v>
       </c>
       <c r="CR5">
-        <v>0.2416597526272353</v>
+        <v>0.2305471691950282</v>
       </c>
       <c r="CS5">
-        <v>0.2489221821806964</v>
+        <v>0.2305471691950282</v>
       </c>
       <c r="CT5">
-        <v>0.2897384376947023</v>
+        <v>0.4188850749569558</v>
       </c>
       <c r="CU5">
-        <v>0.2916863170567068</v>
+        <v>0.4188850749569558</v>
       </c>
       <c r="CV5">
-        <v>0.3017485710625966</v>
+        <v>0.4188850749569558</v>
       </c>
       <c r="CW5">
-        <v>0.3128226473001124</v>
+        <v>0.4188850749569558</v>
       </c>
       <c r="CX5">
-        <v>0.3322642659218951</v>
+        <v>0.4188850749569558</v>
       </c>
       <c r="CY5">
-        <v>0.3413664140940347</v>
+        <v>0.4188850749569558</v>
       </c>
       <c r="CZ5">
-        <v>0.3415867187320661</v>
+        <v>0.4188850749569558</v>
       </c>
       <c r="DA5">
-        <v>0.3844251401208522</v>
+        <v>0.6429064620507632</v>
       </c>
       <c r="DB5">
-        <v>0.4186451730706438</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DC5">
-        <v>0.4186451730706438</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DD5">
-        <v>0.4225887983454554</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DE5">
-        <v>0.4244957002875979</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DF5">
-        <v>0.4256728402624974</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DG5">
-        <v>0.4384633062554087</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DH5">
-        <v>0.4387773314450248</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DI5">
-        <v>0.4398738283999861</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DJ5">
-        <v>0.4419169153812995</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DK5">
-        <v>0.4422977740673879</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DL5">
-        <v>0.4427780427223912</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DM5">
-        <v>0.4496326750606617</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DN5">
-        <v>0.4605681170325241</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DO5">
-        <v>0.4615238392889962</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DP5">
-        <v>0.4615238392889962</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DQ5">
-        <v>0.4702117935905795</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DR5">
-        <v>0.4732949677823861</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DS5">
-        <v>0.4735547459448103</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DT5">
-        <v>0.475695805002954</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DU5">
-        <v>0.4760245322000844</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DV5">
-        <v>0.4834485264117938</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DW5">
-        <v>0.486289906527849</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DX5">
-        <v>0.4862975870576786</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DY5">
-        <v>0.4878585481813129</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="DZ5">
-        <v>0.4920841491291534</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EA5">
-        <v>0.493816342867958</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EB5">
-        <v>0.499847196838947</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EC5">
-        <v>0.5179894419699398</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="ED5">
-        <v>0.5249560426834</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EE5">
-        <v>0.5296823186327619</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EF5">
-        <v>0.5357341176644232</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EG5">
-        <v>0.5443325368960492</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EH5">
-        <v>0.5562066904317298</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EI5">
-        <v>0.5680613014535172</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EJ5">
-        <v>0.5750955162072865</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EK5">
-        <v>0.5750955162072865</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EL5">
-        <v>0.5822335079561105</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EM5">
-        <v>0.6097743544407699</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="EN5">
-        <v>0.6533454787796787</v>
+        <v>0.9517970952391543</v>
       </c>
       <c r="EO5">
-        <v>0.6855511471691046</v>
+        <v>0.988191123029209</v>
       </c>
       <c r="EP5">
-        <v>0.7158190861380853</v>
+        <v>0.9903916494537023</v>
       </c>
       <c r="EQ5">
-        <v>0.7283611794429716</v>
+        <v>0.9903916494537023</v>
       </c>
       <c r="ER5">
-        <v>0.7325265902728121</v>
+        <v>0.9903916494537023</v>
       </c>
       <c r="ES5">
-        <v>0.7348625482130925</v>
+        <v>0.9903916494537023</v>
       </c>
       <c r="ET5">
-        <v>0.7349102583010712</v>
+        <v>0.9903916494537023</v>
       </c>
       <c r="EU5">
-        <v>0.7379004825876398</v>
+        <v>0.9903916494537023</v>
       </c>
       <c r="EV5">
-        <v>0.7521683561934828</v>
+        <v>0.9903916494537023</v>
       </c>
       <c r="EW5">
-        <v>0.7698108605494663</v>
+        <v>0.9903916494537023</v>
       </c>
       <c r="EX5">
-        <v>0.7779927493384131</v>
+        <v>0.9903916494537023</v>
       </c>
       <c r="EY5">
-        <v>0.7824350059439587</v>
+        <v>0.9903916494537023</v>
       </c>
       <c r="EZ5">
-        <v>0.7960394117563419</v>
+        <v>0.9903916494537023</v>
       </c>
       <c r="FA5">
-        <v>0.8266138259052432</v>
+        <v>0.9980002887821744</v>
       </c>
       <c r="FB5">
-        <v>0.8568703847722019</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8672714668819598</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8678237195605889</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8702122803477387</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8839501876115082</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.9032877638969852</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.9211540480919184</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9274509505217337</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9292758962159726</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.936096348416814</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9410544237873618</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9422079936538377</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9422079936538377</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9431265314219234</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9473888622173412</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9518811959992437</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9524509010912889</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9529868046450212</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9534339593355262</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9538111852604984</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9593034848049977</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9663930331674342</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9693832574540029</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9697641161400913</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9698715323889755</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9709482437179119</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.973427255998119</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.973427255998119</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9749903753580011</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9758164463270007</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9783967190849167</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9860415014582339</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9894845224422517</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9935327448760908</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9947111208302517</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9954923064801161</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9979920269450873</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9987579563078703</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9990594259578628</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9990594259578628</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9990594259578628</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.999339965936573</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.999339965936573</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001533362063698184</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0003787261522927565</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.000584559834352831</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0009177105780416878</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.001226750201093573</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.001477636944217297</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001864033900318004</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.00209798060277196</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.00229069346024901</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.00240132869535451</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.002416693624524336</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.002416693624524336</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.002416693624524336</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.002416693624524336</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.002417641093565381</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.002417949799832286</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.002417949799832286</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.002417949799832286</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.002472827427680239</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002580785364815269</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.002712408226283376</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.002825529719458166</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.002968842793928948</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.003344082349379903</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.003851969172538666</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.004129511101144826</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.004310198334956563</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.004510415990991752</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.004561913034795494</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.004561913034795494</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.004561913034795494</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.00456760256081066</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.004748700877935429</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.004976215475191654</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.005221391486336526</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.005527259876665107</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.005744545429912212</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.005924013000419752</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.006144882711958773</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.006243569918403003</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.006323956458284632</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.006374775316746907</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.006450048275776282</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.00647135321864781</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.00647135321864781</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.006472659128548694</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.006472659128548694</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.006494543122385748</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.006647499904204184</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.006780528697035226</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.006813251706705119</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.006892251498711264</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.006934180923326478</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.006936139916835326</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.006936139916835326</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.006938628693988877</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.006956136746107856</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.006988486842198125</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.00700207361827246</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.007013576243600716</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.007036099895608197</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.007036099895608197</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.007036099895608197</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.007039696279869074</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.007039696279869074</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.007039696279869074</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.007050738160080484</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.007097999542919974</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.007151561237594972</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.007192322434882024</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.007431851752453962</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0076572416983769</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.007709881994930985</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.007730873033471318</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.007755859911348438</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.007811756226433987</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.007815448438021792</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.007815448438021792</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.007815448438021792</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.007827505134731627</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.007827505134731627</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.007844721531760442</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.007861937928789257</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.007861937928789257</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.007862273203285178</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.007886427144349671</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.007910912477156206</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.007918738782353486</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.007975500697242847</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.00903974195725794</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.04792290540706065</v>
+        <v>0.03867116479738528</v>
       </c>
       <c r="CO6">
-        <v>0.05027453779435615</v>
+        <v>0.03867116479738528</v>
       </c>
       <c r="CP6">
-        <v>0.102184530743576</v>
+        <v>0.1342458341507139</v>
       </c>
       <c r="CQ6">
-        <v>0.1111788085050944</v>
+        <v>0.1342458341507139</v>
       </c>
       <c r="CR6">
-        <v>0.1136284943448926</v>
+        <v>0.1342458341507139</v>
       </c>
       <c r="CS6">
-        <v>0.1161741912365644</v>
+        <v>0.1342458341507139</v>
       </c>
       <c r="CT6">
-        <v>0.1161865060853448</v>
+        <v>0.1342458341507139</v>
       </c>
       <c r="CU6">
-        <v>0.1360274550526171</v>
+        <v>0.1342458341507139</v>
       </c>
       <c r="CV6">
-        <v>0.1518149050871307</v>
+        <v>0.1342458341507139</v>
       </c>
       <c r="CW6">
-        <v>0.1628906377941047</v>
+        <v>0.1342458341507139</v>
       </c>
       <c r="CX6">
-        <v>0.2591389166665049</v>
+        <v>0.423498010002865</v>
       </c>
       <c r="CY6">
-        <v>0.2917095873670037</v>
+        <v>0.4345950854997457</v>
       </c>
       <c r="CZ6">
-        <v>0.2919751919099794</v>
+        <v>0.4345950854997457</v>
       </c>
       <c r="DA6">
-        <v>0.2992012517402023</v>
+        <v>0.4345950854997457</v>
       </c>
       <c r="DB6">
-        <v>0.3014805521673031</v>
+        <v>0.4345950854997457</v>
       </c>
       <c r="DC6">
-        <v>0.3965264538999558</v>
+        <v>0.7185950644875221</v>
       </c>
       <c r="DD6">
-        <v>0.4153839758006956</v>
+        <v>0.7185950644875221</v>
       </c>
       <c r="DE6">
-        <v>0.4805596166484861</v>
+        <v>0.8721164395736332</v>
       </c>
       <c r="DF6">
-        <v>0.481426348486313</v>
+        <v>0.8721164395736332</v>
       </c>
       <c r="DG6">
-        <v>0.5401138094809357</v>
+        <v>0.9972962928910716</v>
       </c>
       <c r="DH6">
-        <v>0.5481030887647976</v>
+        <v>0.9972962928910716</v>
       </c>
       <c r="DI6">
-        <v>0.5716856638209009</v>
+        <v>0.9972962928910716</v>
       </c>
       <c r="DJ6">
-        <v>0.6023348539417958</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.6314203895902476</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.6315660265299607</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.6344108421499604</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.6348813289721388</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.6382504956854537</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.6436362126776939</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.6442778829997139</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.649369837321357</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.6524951794061027</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.6528908899453609</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.6530434727693212</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.6559954576027759</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.6643061804485482</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.6643735598570479</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.664889596818892</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.6685003452146075</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.6818761415222344</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.6843371638419394</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.6845356694918667</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.6855901728291809</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.6950004108748893</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.7003489435402113</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.7007603582069394</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.7008239393109557</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.7024679519185028</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.7046582850177678</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.7051445348094598</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.7206992168526836</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.733151852881886</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.734772127425551</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.7361606900709619</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.7436340366686504</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.7538289454320187</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.7626533211726843</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.772035619009582</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.7742779927251781</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.7773983183680042</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.7888072625450179</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.803235825816016</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8238731698557529</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8428620125401095</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8502043597476819</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8529455358758684</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8532818052779108</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8541538336005298</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8541538336005298</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8604559812317083</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8729886502499196</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.875483877849123</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8755009500506048</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.878433498587079</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8870442888226799</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9037634956608401</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9139222852013588</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9139245076734597</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9178616209565484</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9238126271650111</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9362219992236366</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9460457585673434</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9481851299712628</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9482245995040904</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9487226119975373</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9515214155823458</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9520234560074219</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.952103287252424</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9534447209951985</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.956817354653294</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9629345107887044</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9648975855424571</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9653480868652348</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9660442633823361</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9661168606713882</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.96788637874252</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9725857973600389</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9765812027134747</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9765877043327825</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9766678111501838</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9767299016431589</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9790258602658503</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9808227098004707</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9821221323064626</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9838690962632901</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9856457364544446</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9922766078611193</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9967383301533044</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9988037372985117</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0.01725844053972846</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5047130239017775</v>
+        <v>0.5523802962189257</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.04834797646556922</v>
+        <v>0.0408482930793157</v>
       </c>
       <c r="F3">
-        <v>0.5266345035683442</v>
+        <v>0.5274945473954651</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.06609293446586231</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5110279660081709</v>
+        <v>0.5973107105385459</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.02825377657289857</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="F5">
-        <v>0.5179894419699398</v>
+        <v>0.6429064620507632</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -10734,16 +10734,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.04792290540706065</v>
+        <v>0.03867116479738528</v>
       </c>
       <c r="F6">
-        <v>0.5401138094809357</v>
+        <v>0.7185950644875221</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>0.01725844053972846</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7021431629843207</v>
+        <v>0.8889836623905623</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>0.04834797646556922</v>
+        <v>0.0408482930793157</v>
       </c>
       <c r="F3">
-        <v>0.7029493761596965</v>
+        <v>0.783755955861314</v>
       </c>
       <c r="G3">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.06609293446586231</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7008578960048862</v>
+        <v>0.7589399945125901</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>0.02825377657289857</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="F5">
-        <v>0.7158190861380853</v>
+        <v>0.7148463078579623</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -10993,16 +10993,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.04792290540706065</v>
+        <v>0.03867116479738528</v>
       </c>
       <c r="F6">
-        <v>0.7003489435402113</v>
+        <v>0.7185950644875221</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>0.01725844053972846</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8008314336076936</v>
+        <v>0.8889836623905623</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>0.04834797646556922</v>
+        <v>0.0408482930793157</v>
       </c>
       <c r="F3">
-        <v>0.8205248603055827</v>
+        <v>0.8900633633977303</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>0.06609293446586231</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8030931561985476</v>
+        <v>0.834416912245746</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E5">
-        <v>0.02825377657289857</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="F5">
-        <v>0.8266138259052432</v>
+        <v>0.9517970952391543</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -11252,16 +11252,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.04792290540706065</v>
+        <v>0.03867116479738528</v>
       </c>
       <c r="F6">
-        <v>0.803235825816016</v>
+        <v>0.8721164395736332</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>0.01725844053972846</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9035869505509065</v>
+        <v>0.9277423129568564</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="E3">
-        <v>0.04834797646556922</v>
+        <v>0.0408482930793157</v>
       </c>
       <c r="F3">
-        <v>0.9019576510849102</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>0.06609293446586231</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9044449484722797</v>
+        <v>0.96623047964266</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E5">
-        <v>0.02825377657289857</v>
+        <v>0.02283344581941832</v>
       </c>
       <c r="F5">
-        <v>0.9032877638969852</v>
+        <v>0.9517970952391543</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -11511,16 +11511,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="E6">
-        <v>0.04792290540706065</v>
+        <v>0.03867116479738528</v>
       </c>
       <c r="F6">
-        <v>0.9037634956608401</v>
+        <v>0.9972962928910716</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>30</v>

--- a/on_trucks/Processed_Stand_Alone/30_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/30_11R22.xlsx
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01339556254618188</v>
       </c>
       <c r="M2">
-        <v>0.01652491711308257</v>
+        <v>0.03580354991029035</v>
       </c>
       <c r="N2">
-        <v>0.08344411578804298</v>
+        <v>0.07678607119123629</v>
       </c>
       <c r="O2">
-        <v>0.1332139620911351</v>
+        <v>0.1072660205279442</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.005952018973828889</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.05146013201697877</v>
+        <v>0.05719850407295976</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.02295081927270881</v>
       </c>
       <c r="W2">
-        <v>0.2213313426272254</v>
+        <v>0.1612306897790239</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -794,37 +794,37 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01818468129546526</v>
+        <v>0.03682001935811269</v>
       </c>
       <c r="AA2">
-        <v>0.04774965679825888</v>
+        <v>0.05492614229002482</v>
       </c>
       <c r="AB2">
-        <v>0.2388765667214739</v>
+        <v>0.1719757006885846</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.01078839417983216</v>
       </c>
       <c r="AD2">
-        <v>0.0534645534662591</v>
+        <v>0.05842604783211498</v>
       </c>
       <c r="AE2">
-        <v>0.04303172531817766</v>
+        <v>0.05203679616644637</v>
       </c>
       <c r="AF2">
-        <v>0.01468788153105996</v>
+        <v>0.03467851626785574</v>
       </c>
       <c r="AG2">
-        <v>0.0177810508918159</v>
+        <v>0.03657282883678646</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.06024941434102447</v>
+        <v>0.06258121870525894</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.0006110994008091101</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06831107696049944</v>
+        <v>0.07043327325188499</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.192785301294597</v>
+        <v>0.1513734770218871</v>
       </c>
       <c r="O3">
-        <v>0.01192459276183421</v>
+        <v>0.03376758165726178</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -907,22 +907,22 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.011189963278938</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.01025654852942181</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.01149578800263902</v>
       </c>
       <c r="V3">
-        <v>0.0011053586155523</v>
+        <v>0.02673230169371726</v>
       </c>
       <c r="W3">
-        <v>0.2196579376826046</v>
+        <v>0.1688475900498538</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -931,34 +931,34 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.01243018515183603</v>
       </c>
       <c r="AA3">
-        <v>0.02242751961894987</v>
+        <v>0.04059718067299548</v>
       </c>
       <c r="AB3">
-        <v>0.1186970319291394</v>
+        <v>0.1031970802498829</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.01972016366855219</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.02309042191550195</v>
       </c>
       <c r="AE3">
-        <v>0.13682547551108</v>
+        <v>0.1149852229389015</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.1128968746437626</v>
+        <v>0.09942548886148123</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.1153688309819806</v>
+        <v>0.1010328951401408</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.001424837915103977</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1017402499582359</v>
+        <v>0.09388225790065369</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.1735818655263008</v>
+        <v>0.1420679133840544</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.005555451940145354</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.02435024004049186</v>
+        <v>0.04197517972226385</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01448012803020709</v>
+        <v>0.03535509172522318</v>
       </c>
       <c r="X4">
-        <v>0.1585999778103164</v>
+        <v>0.1320192518351022</v>
       </c>
       <c r="Y4">
-        <v>0.1015996510878436</v>
+        <v>0.09378795533414672</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1074,34 +1074,34 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.001161553250747734</v>
       </c>
       <c r="AC4">
-        <v>0.1433534971050721</v>
+        <v>0.1217931223029625</v>
       </c>
       <c r="AD4">
-        <v>0.04748114949697634</v>
+        <v>0.0574895584743941</v>
       </c>
       <c r="AE4">
-        <v>0.05483665230535983</v>
+        <v>0.06242304613929991</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.1211658335071088</v>
+        <v>0.1069113980313232</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01060537950528823</v>
+        <v>0.03275621785483168</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.01484669020595838</v>
       </c>
       <c r="AK4">
-        <v>0.04820537562679915</v>
+        <v>0.05797531189889297</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.01739209388684516</v>
       </c>
       <c r="E5">
-        <v>0.09426283393273378</v>
+        <v>0.08292699929028143</v>
       </c>
       <c r="F5">
-        <v>0.07217079939720873</v>
+        <v>0.06951972152744759</v>
       </c>
       <c r="G5">
-        <v>0.02456199159147453</v>
+        <v>0.04062675066130009</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1166,52 +1166,52 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.003983264800466442</v>
       </c>
       <c r="N5">
-        <v>0.07414446324220324</v>
+        <v>0.07071750434540185</v>
       </c>
       <c r="O5">
-        <v>0.1271717722326604</v>
+        <v>0.1028988708694959</v>
       </c>
       <c r="P5">
-        <v>0.06446776686211095</v>
+        <v>0.0648448828815036</v>
       </c>
       <c r="Q5">
-        <v>0.107412068817288</v>
+        <v>0.09090704495707919</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.009342930586954602</v>
       </c>
       <c r="T5">
-        <v>0.1413037602941853</v>
+        <v>0.1114753326243984</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.01786514194210568</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.02094496464466046</v>
       </c>
       <c r="X5">
-        <v>0.03409868383321603</v>
+        <v>0.04641440600911714</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.0149427355635791</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.151445988595684</v>
+        <v>0.1176304774461035</v>
       </c>
       <c r="AB5">
-        <v>0.1082202254525974</v>
+        <v>0.09139750139141284</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0007396457486375253</v>
+        <v>0.02616937657184687</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.05945116432204905</v>
+        <v>0.06460918676665227</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.09900528054507271</v>
+        <v>0.09054365738162641</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.005104882389918577</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1327,55 +1327,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001632186586948515</v>
+        <v>0.02669898367668975</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.01862907311524694</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.009248748103500496</v>
       </c>
       <c r="X6">
-        <v>0.2336321837845446</v>
+        <v>0.1788145580980664</v>
       </c>
       <c r="Y6">
-        <v>0.04028417730697124</v>
+        <v>0.05204195713327261</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.00158462475684634</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.2299813364980574</v>
+        <v>0.1764208049135104</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.02474112736482985</v>
       </c>
       <c r="AE6">
-        <v>0.1392845348929744</v>
+        <v>0.1169535797368293</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.1195840989580782</v>
+        <v>0.1040365833368858</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.003104080622455396</v>
       </c>
       <c r="AI6">
-        <v>0.01299310239438579</v>
+        <v>0.03414800201667413</v>
       </c>
       <c r="AJ6">
-        <v>0.03444987463421897</v>
+        <v>0.04821657647321163</v>
       </c>
       <c r="AK6">
-        <v>0.02970206007669903</v>
+        <v>0.04510357411378401</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1587,106 +1587,106 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01339556254618188</v>
       </c>
       <c r="M2">
-        <v>0.01652491711308257</v>
+        <v>0.04919911245647223</v>
       </c>
       <c r="N2">
-        <v>0.09996903290112555</v>
+        <v>0.1259851836477085</v>
       </c>
       <c r="O2">
-        <v>0.2331829949922606</v>
+        <v>0.2332512041756527</v>
       </c>
       <c r="P2">
-        <v>0.2331829949922606</v>
+        <v>0.2332512041756527</v>
       </c>
       <c r="Q2">
-        <v>0.2331829949922606</v>
+        <v>0.2332512041756527</v>
       </c>
       <c r="R2">
-        <v>0.2331829949922606</v>
+        <v>0.2332512041756527</v>
       </c>
       <c r="S2">
-        <v>0.2331829949922606</v>
+        <v>0.2392032231494816</v>
       </c>
       <c r="T2">
-        <v>0.2331829949922606</v>
+        <v>0.2392032231494816</v>
       </c>
       <c r="U2">
-        <v>0.2846431270092394</v>
+        <v>0.2964017272224413</v>
       </c>
       <c r="V2">
-        <v>0.2846431270092394</v>
+        <v>0.3193525464951502</v>
       </c>
       <c r="W2">
-        <v>0.5059744696364649</v>
+        <v>0.480583236274174</v>
       </c>
       <c r="X2">
-        <v>0.5059744696364649</v>
+        <v>0.480583236274174</v>
       </c>
       <c r="Y2">
-        <v>0.5059744696364649</v>
+        <v>0.480583236274174</v>
       </c>
       <c r="Z2">
-        <v>0.5241591509319301</v>
+        <v>0.5174032556322867</v>
       </c>
       <c r="AA2">
-        <v>0.571908807730189</v>
+        <v>0.5723293979223115</v>
       </c>
       <c r="AB2">
-        <v>0.810785374451663</v>
+        <v>0.7443050986108961</v>
       </c>
       <c r="AC2">
-        <v>0.810785374451663</v>
+        <v>0.7550934927907282</v>
       </c>
       <c r="AD2">
-        <v>0.8642499279179221</v>
+        <v>0.8135195406228433</v>
       </c>
       <c r="AE2">
-        <v>0.9072816532360998</v>
+        <v>0.8655563367892897</v>
       </c>
       <c r="AF2">
-        <v>0.9219695347671597</v>
+        <v>0.9002348530571455</v>
       </c>
       <c r="AG2">
-        <v>0.9397505856589756</v>
+        <v>0.9368076818939319</v>
       </c>
       <c r="AH2">
-        <v>0.9397505856589756</v>
+        <v>0.9368076818939319</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9993889005991908</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1724,106 +1724,106 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06831107696049944</v>
+        <v>0.07043327325188499</v>
       </c>
       <c r="M3">
-        <v>0.06831107696049944</v>
+        <v>0.07043327325188499</v>
       </c>
       <c r="N3">
-        <v>0.2610963782550965</v>
+        <v>0.2218067502737721</v>
       </c>
       <c r="O3">
-        <v>0.2730209710169307</v>
+        <v>0.2555743319310338</v>
       </c>
       <c r="P3">
-        <v>0.2730209710169307</v>
+        <v>0.2555743319310338</v>
       </c>
       <c r="Q3">
-        <v>0.2730209710169307</v>
+        <v>0.2555743319310338</v>
       </c>
       <c r="R3">
-        <v>0.2730209710169307</v>
+        <v>0.2667642952099719</v>
       </c>
       <c r="S3">
-        <v>0.2730209710169307</v>
+        <v>0.2770208437393937</v>
       </c>
       <c r="T3">
-        <v>0.2730209710169307</v>
+        <v>0.2770208437393937</v>
       </c>
       <c r="U3">
-        <v>0.2730209710169307</v>
+        <v>0.2885166317420327</v>
       </c>
       <c r="V3">
-        <v>0.274126329632483</v>
+        <v>0.3152489334357499</v>
       </c>
       <c r="W3">
-        <v>0.4937842673150876</v>
+        <v>0.4840965234856037</v>
       </c>
       <c r="X3">
-        <v>0.4937842673150876</v>
+        <v>0.4840965234856037</v>
       </c>
       <c r="Y3">
-        <v>0.4937842673150876</v>
+        <v>0.4840965234856037</v>
       </c>
       <c r="Z3">
-        <v>0.4937842673150876</v>
+        <v>0.4965267086374398</v>
       </c>
       <c r="AA3">
-        <v>0.5162117869340375</v>
+        <v>0.5371238893104352</v>
       </c>
       <c r="AB3">
-        <v>0.6349088188631768</v>
+        <v>0.6403209695603181</v>
       </c>
       <c r="AC3">
-        <v>0.6349088188631768</v>
+        <v>0.6600411332288704</v>
       </c>
       <c r="AD3">
-        <v>0.6349088188631768</v>
+        <v>0.6831315551443723</v>
       </c>
       <c r="AE3">
-        <v>0.7717342943742569</v>
+        <v>0.7981167780832739</v>
       </c>
       <c r="AF3">
-        <v>0.7717342943742569</v>
+        <v>0.7981167780832739</v>
       </c>
       <c r="AG3">
-        <v>0.8846311690180195</v>
+        <v>0.897542266944755</v>
       </c>
       <c r="AH3">
-        <v>0.8846311690180195</v>
+        <v>0.897542266944755</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9985751620848958</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9985751620848958</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.9985751620848958</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0.9985751620848958</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0.9985751620848958</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1867,100 +1867,100 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1017402499582359</v>
+        <v>0.09388225790065369</v>
       </c>
       <c r="O4">
-        <v>0.1017402499582359</v>
+        <v>0.09388225790065369</v>
       </c>
       <c r="P4">
-        <v>0.2753221154845367</v>
+        <v>0.235950171284708</v>
       </c>
       <c r="Q4">
-        <v>0.2753221154845367</v>
+        <v>0.2415056232248534</v>
       </c>
       <c r="R4">
-        <v>0.2753221154845367</v>
+        <v>0.2415056232248534</v>
       </c>
       <c r="S4">
-        <v>0.2753221154845367</v>
+        <v>0.2415056232248534</v>
       </c>
       <c r="T4">
-        <v>0.2753221154845367</v>
+        <v>0.2415056232248534</v>
       </c>
       <c r="U4">
-        <v>0.2996723555250285</v>
+        <v>0.2834808029471172</v>
       </c>
       <c r="V4">
-        <v>0.2996723555250285</v>
+        <v>0.2834808029471172</v>
       </c>
       <c r="W4">
-        <v>0.3141524835552356</v>
+        <v>0.3188358946723404</v>
       </c>
       <c r="X4">
-        <v>0.472752461365552</v>
+        <v>0.4508551465074426</v>
       </c>
       <c r="Y4">
-        <v>0.5743521124533956</v>
+        <v>0.5446431018415894</v>
       </c>
       <c r="Z4">
-        <v>0.5743521124533956</v>
+        <v>0.5446431018415894</v>
       </c>
       <c r="AA4">
-        <v>0.5743521124533956</v>
+        <v>0.5446431018415894</v>
       </c>
       <c r="AB4">
-        <v>0.5743521124533956</v>
+        <v>0.5458046550923371</v>
       </c>
       <c r="AC4">
-        <v>0.7177056095584676</v>
+        <v>0.6675977773952996</v>
       </c>
       <c r="AD4">
-        <v>0.765186759055444</v>
+        <v>0.7250873358696936</v>
       </c>
       <c r="AE4">
-        <v>0.8200234113608038</v>
+        <v>0.7875103820089936</v>
       </c>
       <c r="AF4">
-        <v>0.8200234113608038</v>
+        <v>0.7875103820089936</v>
       </c>
       <c r="AG4">
-        <v>0.9411892448679127</v>
+        <v>0.8944217800403168</v>
       </c>
       <c r="AH4">
-        <v>0.9411892448679127</v>
+        <v>0.8944217800403168</v>
       </c>
       <c r="AI4">
-        <v>0.9517946243732009</v>
+        <v>0.9271779978951484</v>
       </c>
       <c r="AJ4">
-        <v>0.9517946243732009</v>
+        <v>0.9420246881011068</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1974,130 +1974,130 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.01739209388684516</v>
       </c>
       <c r="E5">
-        <v>0.09426283393273378</v>
+        <v>0.1003190931771266</v>
       </c>
       <c r="F5">
-        <v>0.1664336333299425</v>
+        <v>0.1698388147045742</v>
       </c>
       <c r="G5">
-        <v>0.1909956249214171</v>
+        <v>0.2104655653658743</v>
       </c>
       <c r="H5">
-        <v>0.1909956249214171</v>
+        <v>0.2104655653658743</v>
       </c>
       <c r="I5">
-        <v>0.1909956249214171</v>
+        <v>0.2104655653658743</v>
       </c>
       <c r="J5">
-        <v>0.1909956249214171</v>
+        <v>0.2104655653658743</v>
       </c>
       <c r="K5">
-        <v>0.1909956249214171</v>
+        <v>0.2104655653658743</v>
       </c>
       <c r="L5">
-        <v>0.1909956249214171</v>
+        <v>0.2104655653658743</v>
       </c>
       <c r="M5">
-        <v>0.1909956249214171</v>
+        <v>0.2144488301663407</v>
       </c>
       <c r="N5">
-        <v>0.2651400881636203</v>
+        <v>0.2851663345117426</v>
       </c>
       <c r="O5">
-        <v>0.3923118603962807</v>
+        <v>0.3880652053812385</v>
       </c>
       <c r="P5">
-        <v>0.4567796272583917</v>
+        <v>0.452910088262742</v>
       </c>
       <c r="Q5">
-        <v>0.5641916960756798</v>
+        <v>0.5438171332198212</v>
       </c>
       <c r="R5">
-        <v>0.5641916960756798</v>
+        <v>0.5438171332198212</v>
       </c>
       <c r="S5">
-        <v>0.5641916960756798</v>
+        <v>0.5531600638067757</v>
       </c>
       <c r="T5">
-        <v>0.705495456369865</v>
+        <v>0.6646353964311741</v>
       </c>
       <c r="U5">
-        <v>0.705495456369865</v>
+        <v>0.6646353964311741</v>
       </c>
       <c r="V5">
-        <v>0.705495456369865</v>
+        <v>0.6825005383732797</v>
       </c>
       <c r="W5">
-        <v>0.705495456369865</v>
+        <v>0.7034455030179402</v>
       </c>
       <c r="X5">
-        <v>0.739594140203081</v>
+        <v>0.7498599090270573</v>
       </c>
       <c r="Y5">
-        <v>0.739594140203081</v>
+        <v>0.7648026445906364</v>
       </c>
       <c r="Z5">
-        <v>0.739594140203081</v>
+        <v>0.7648026445906364</v>
       </c>
       <c r="AA5">
-        <v>0.891040128798765</v>
+        <v>0.88243312203674</v>
       </c>
       <c r="AB5">
-        <v>0.9992603542513624</v>
+        <v>0.9738306234281529</v>
       </c>
       <c r="AC5">
-        <v>0.9992603542513624</v>
+        <v>0.9738306234281529</v>
       </c>
       <c r="AD5">
-        <v>0.9992603542513624</v>
+        <v>0.9738306234281529</v>
       </c>
       <c r="AE5">
-        <v>0.9992603542513624</v>
+        <v>0.9738306234281529</v>
       </c>
       <c r="AF5">
-        <v>0.9992603542513624</v>
+        <v>0.9738306234281529</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -2141,73 +2141,73 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.05945116432204905</v>
+        <v>0.06460918676665227</v>
       </c>
       <c r="O6">
-        <v>0.05945116432204905</v>
+        <v>0.06460918676665227</v>
       </c>
       <c r="P6">
-        <v>0.1584564448671218</v>
+        <v>0.1551528441482787</v>
       </c>
       <c r="Q6">
-        <v>0.1584564448671218</v>
+        <v>0.1602577265381973</v>
       </c>
       <c r="R6">
-        <v>0.1584564448671218</v>
+        <v>0.1602577265381973</v>
       </c>
       <c r="S6">
-        <v>0.1584564448671218</v>
+        <v>0.1602577265381973</v>
       </c>
       <c r="T6">
-        <v>0.1584564448671218</v>
+        <v>0.1602577265381973</v>
       </c>
       <c r="U6">
-        <v>0.1600886314540703</v>
+        <v>0.186956710214887</v>
       </c>
       <c r="V6">
-        <v>0.1600886314540703</v>
+        <v>0.2055857833301339</v>
       </c>
       <c r="W6">
-        <v>0.1600886314540703</v>
+        <v>0.2148345314336344</v>
       </c>
       <c r="X6">
-        <v>0.3937208152386149</v>
+        <v>0.3936490895317009</v>
       </c>
       <c r="Y6">
-        <v>0.4340049925455862</v>
+        <v>0.4456910466649734</v>
       </c>
       <c r="Z6">
-        <v>0.4340049925455862</v>
+        <v>0.4456910466649734</v>
       </c>
       <c r="AA6">
-        <v>0.4340049925455862</v>
+        <v>0.4472756714218198</v>
       </c>
       <c r="AB6">
-        <v>0.4340049925455862</v>
+        <v>0.4472756714218198</v>
       </c>
       <c r="AC6">
-        <v>0.6639863290436436</v>
+        <v>0.6236964763353302</v>
       </c>
       <c r="AD6">
-        <v>0.6639863290436436</v>
+        <v>0.64843760370016</v>
       </c>
       <c r="AE6">
-        <v>0.8032708639366181</v>
+        <v>0.7653911834369893</v>
       </c>
       <c r="AF6">
-        <v>0.8032708639366181</v>
+        <v>0.7653911834369893</v>
       </c>
       <c r="AG6">
-        <v>0.9228549628946963</v>
+        <v>0.869427766773875</v>
       </c>
       <c r="AH6">
-        <v>0.9228549628946963</v>
+        <v>0.8725318473963304</v>
       </c>
       <c r="AI6">
-        <v>0.935848065289082</v>
+        <v>0.9066798494130045</v>
       </c>
       <c r="AJ6">
-        <v>0.970297939923301</v>
+        <v>0.9548964258862161</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -2302,16 +2302,16 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.01339556254618188</v>
       </c>
       <c r="F2">
-        <v>0.5059744696364649</v>
+        <v>0.5174032556322867</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5162117869340375</v>
+        <v>0.5371238893104352</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5743521124533956</v>
+        <v>0.5446431018415894</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5641916960756798</v>
+        <v>0.5438171332198212</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6639863290436436</v>
+        <v>0.6236964763353302</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2564,10 +2564,10 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.01339556254618188</v>
       </c>
       <c r="F2">
-        <v>0.810785374451663</v>
+        <v>0.7443050986108961</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7717342943742569</v>
+        <v>0.7981167780832739</v>
       </c>
       <c r="G3">
         <v>21</v>
@@ -2643,16 +2643,16 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7177056095584676</v>
+        <v>0.7250873358696936</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -2684,16 +2684,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.705495456369865</v>
+        <v>0.7034455030179402</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8032708639366181</v>
+        <v>0.7653911834369893</v>
       </c>
       <c r="G6">
         <v>19</v>
@@ -2820,16 +2820,16 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.01339556254618188</v>
       </c>
       <c r="F2">
-        <v>0.810785374451663</v>
+        <v>0.8135195406228433</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8846311690180195</v>
+        <v>0.897542266944755</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -2902,16 +2902,16 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8200234113608038</v>
+        <v>0.8944217800403168</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.891040128798765</v>
+        <v>0.88243312203674</v>
       </c>
       <c r="G5">
         <v>24</v>
@@ -2984,16 +2984,16 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8032708639366181</v>
+        <v>0.869427766773875</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -3079,16 +3079,16 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.01339556254618188</v>
       </c>
       <c r="F2">
-        <v>0.9072816532360998</v>
+        <v>0.9002348530571455</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.9985751620848958</v>
       </c>
       <c r="G3">
         <v>25</v>
@@ -3161,16 +3161,16 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9411892448679127</v>
+        <v>0.9271779978951484</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9992603542513624</v>
+        <v>0.9738306234281529</v>
       </c>
       <c r="G5">
         <v>25</v>
@@ -3243,16 +3243,16 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9228549628946963</v>
+        <v>0.9066798494130045</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>30</v>
